--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1879,10 +1879,10 @@
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="b">
+      <c r="C3" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1890,10 +1890,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="b">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1901,10 +1901,10 @@
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="b">
+      <c r="C5" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1912,10 +1912,10 @@
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="b">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="b">
+      <c r="C6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1923,10 +1923,10 @@
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="23" t="b">
+      <c r="C7" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1934,10 +1934,10 @@
       <c r="A8" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="23" t="b">
+      <c r="C8" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1945,10 +1945,10 @@
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="b">
+      <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="23" t="b">
+      <c r="C9" s="23">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -757,15 +757,6 @@
     <t>NameID_townhall_3</t>
   </si>
   <si>
-    <t>NameID_camp_1</t>
-  </si>
-  <si>
-    <t>NameID_camp_2</t>
-  </si>
-  <si>
-    <t>NameID_camp_3</t>
-  </si>
-  <si>
     <t>NameID_gold_storage_1</t>
   </si>
   <si>
@@ -865,15 +856,6 @@
     <t>Desc_townhall_3</t>
   </si>
   <si>
-    <t>Desc_camp_1</t>
-  </si>
-  <si>
-    <t>Desc_camp_2</t>
-  </si>
-  <si>
-    <t>Desc_camp_3</t>
-  </si>
-  <si>
     <t>Desc_gold_storage_1</t>
   </si>
   <si>
@@ -1049,6 +1031,24 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_1</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_2</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_3</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_1</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_2</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_3</t>
   </si>
 </sst>
 </file>
@@ -1841,8 +1841,8 @@
   <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="10" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>178</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>179</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B106" s="41"/>
       <c r="C106" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B107" s="41"/>
       <c r="C107" s="41" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B108" s="41"/>
       <c r="C108" s="41" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B109" s="41"/>
       <c r="C109" s="41" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B110" s="41"/>
       <c r="C110" s="41" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B111" s="41"/>
       <c r="C111" s="41" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B112" s="41"/>
       <c r="C112" s="41" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B113" s="41"/>
       <c r="C113" s="41" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2968,547 +2968,547 @@
       </c>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="41" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="B115" s="41"/>
       <c r="C115" s="41" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="41" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="B116" s="41"/>
       <c r="C116" s="41" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="41" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="B117" s="41"/>
       <c r="C117" s="41" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B119" s="41"/>
       <c r="C119" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B120" s="41"/>
       <c r="C120" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B121" s="41"/>
       <c r="C121" s="41" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B122" s="41"/>
       <c r="C122" s="41" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B123" s="41"/>
       <c r="C123" s="41" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B124" s="41"/>
       <c r="C124" s="41" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B125" s="41"/>
       <c r="C125" s="41" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B126" s="41"/>
       <c r="C126" s="41" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B127" s="41"/>
       <c r="C127" s="41" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B128" s="41"/>
       <c r="C128" s="41" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B129" s="41"/>
       <c r="C129" s="41" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B130" s="41"/>
       <c r="C130" s="41" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B131" s="41"/>
       <c r="C131" s="41" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B132" s="41"/>
       <c r="C132" s="41" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B133" s="41"/>
       <c r="C133" s="41" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B134" s="41"/>
       <c r="C134" s="41" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B135" s="41"/>
       <c r="C135" s="41" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B136" s="41"/>
       <c r="C136" s="41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B137" s="41"/>
       <c r="C137" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="41" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B138" s="41"/>
       <c r="C138" s="41" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="41" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B139" s="41"/>
       <c r="C139" s="41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B140" s="41"/>
       <c r="C140" s="41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B141" s="41"/>
       <c r="C141" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B142" s="41"/>
       <c r="C142" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B143" s="41"/>
       <c r="C143" s="41" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B144" s="41"/>
       <c r="C144" s="41" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B145" s="41"/>
       <c r="C145" s="41" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B146" s="41"/>
       <c r="C146" s="41" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B147" s="41"/>
       <c r="C147" s="41" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B148" s="41"/>
       <c r="C148" s="41" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="41" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B149" s="41"/>
       <c r="C149" s="41" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B150" s="41"/>
       <c r="C150" s="41" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="41" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="B151" s="41"/>
       <c r="C151" s="41" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="41" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="B152" s="41"/>
       <c r="C152" s="41" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="41" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="B153" s="41"/>
       <c r="C153" s="41" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="41" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B154" s="41"/>
       <c r="C154" s="41" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="41" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B155" s="41"/>
       <c r="C155" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="41" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B156" s="41"/>
       <c r="C156" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="41" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B157" s="41"/>
       <c r="C157" s="41" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B158" s="41"/>
       <c r="C158" s="41" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="41" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B159" s="41"/>
       <c r="C159" s="41" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="41" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B160" s="41"/>
       <c r="C160" s="41" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="41" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B161" s="41"/>
       <c r="C161" s="41" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="41" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B162" s="41"/>
       <c r="C162" s="41" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B163" s="41"/>
       <c r="C163" s="41" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="41" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B164" s="41"/>
       <c r="C164" s="41" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="41" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B165" s="41"/>
       <c r="C165" s="41" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="41" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B166" s="41"/>
       <c r="C166" s="41" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B167" s="41"/>
       <c r="C167" s="41" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="41" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B168" s="41"/>
       <c r="C168" s="41" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="41" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B169" s="41"/>
       <c r="C169" s="41" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="41" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B170" s="41"/>
       <c r="C170" s="41" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="41" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B171" s="41"/>
       <c r="C171" s="41" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="41" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B172" s="41"/>
       <c r="C172" s="41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="41" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B173" s="41"/>
       <c r="C173" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="41" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B174" s="41"/>
       <c r="C174" s="41" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="27923" windowHeight="17543"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27923" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,15 +28,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="317">
   <si>
     <t>Id</t>
   </si>
@@ -586,141 +587,6 @@
     <t>BUFF免疫开关</t>
   </si>
   <si>
-    <t>NameID_Abaddon</t>
-  </si>
-  <si>
-    <t>NameID_Beastmaster</t>
-  </si>
-  <si>
-    <t>NameID_BountyHunter</t>
-  </si>
-  <si>
-    <t>NameID_Bristleback</t>
-  </si>
-  <si>
-    <t>NameID_Clinkz</t>
-  </si>
-  <si>
-    <t>NameID_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>NameID_Ezalor</t>
-  </si>
-  <si>
-    <t>NameID_Lifestealer</t>
-  </si>
-  <si>
-    <t>NameID_TeaantProtector</t>
-  </si>
-  <si>
-    <t>Abaddon</t>
-  </si>
-  <si>
-    <t>Beastmaster</t>
-  </si>
-  <si>
-    <t>BountyHunter</t>
-  </si>
-  <si>
-    <t>Bristleback</t>
-  </si>
-  <si>
-    <t>Clinkz</t>
-  </si>
-  <si>
-    <t>CrystalMaiden</t>
-  </si>
-  <si>
-    <t>Ezalor</t>
-  </si>
-  <si>
-    <t>Lifestealer</t>
-  </si>
-  <si>
-    <t>TeaantProtector</t>
-  </si>
-  <si>
-    <t>亚巴顿</t>
-  </si>
-  <si>
-    <t>兽王</t>
-  </si>
-  <si>
-    <t>赏金猎人</t>
-  </si>
-  <si>
-    <t>钢背熊</t>
-  </si>
-  <si>
-    <t>克林丽兹</t>
-  </si>
-  <si>
-    <t>水晶室女</t>
-  </si>
-  <si>
-    <t>食尸鬼</t>
-  </si>
-  <si>
-    <t>树精卫士</t>
-  </si>
-  <si>
-    <t>光之守卫</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Abaddon</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Beastmaster</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_BountyHunter</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Bristleback</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Clinkz</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Ezalor</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_Lifestealer</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_TeaantProtector</t>
-  </si>
-  <si>
-    <t>亚巴顿是一个英雄</t>
-  </si>
-  <si>
-    <t>兽王是一个英雄</t>
-  </si>
-  <si>
-    <t>赏金猎人是一个英雄</t>
-  </si>
-  <si>
-    <t>钢背熊是一个英雄</t>
-  </si>
-  <si>
-    <t>克林丽兹是一个英雄</t>
-  </si>
-  <si>
-    <t>水晶室女是一个英雄</t>
-  </si>
-  <si>
-    <t>光之守卫是一个英雄</t>
-  </si>
-  <si>
-    <t>食尸鬼是一个英雄</t>
-  </si>
-  <si>
-    <t>树精卫士是一个英雄</t>
-  </si>
-  <si>
     <t>NameID_dragon_cannon_1</t>
   </si>
   <si>
@@ -1049,13 +915,86 @@
   </si>
   <si>
     <t>Desc_cannon_small_3</t>
+  </si>
+  <si>
+    <t>NameID_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>NameID_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>NameID_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>NameID_Samurai</t>
+  </si>
+  <si>
+    <t>DescID_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>DescID_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>DescID_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>DescID_Samurai</t>
+  </si>
+  <si>
+    <t>Orcs · Slinger</t>
+  </si>
+  <si>
+    <t>兽族 · 食人魔</t>
+  </si>
+  <si>
+    <t>兽族 · 狼人</t>
+  </si>
+  <si>
+    <t>Orcs · Wererat</t>
+  </si>
+  <si>
+    <t>人族 · 要离</t>
+  </si>
+  <si>
+    <t>Human · Yao Li</t>
+  </si>
+  <si>
+    <t>矮人 · 掘金者</t>
+  </si>
+  <si>
+    <t>Dwarf · Gold Digger</t>
+  </si>
+  <si>
+    <t>Yao Li was a famed assassin in the Spring and Autumn period.</t>
+  </si>
+  <si>
+    <t>要离是人族最悲情的刺客--神魔大战中，自断一臂假意投靠鬼族，然而再次断臂换来重伤夜王.</t>
+  </si>
+  <si>
+    <t>Ogre mages use bat balls to fire their weapons and then chase them in frenzied killings. 
+Although they lack wisdom, but they very luckly which often double or even three times hurt.</t>
+  </si>
+  <si>
+    <t>食人魔法师使用蝙蝠球火焰点燃他们的武器，然后追着他们在疯狂的杀戮。虽然他们缺少智慧，但是运气绝对好，经常打出双倍甚至三倍伤害。</t>
+  </si>
+  <si>
+    <t>狼人是一个力量型近战英雄，拥有巨大的物理能力和可观的移动速度， 擅长推进建筑和增加队伍的攻击力和生命值</t>
+  </si>
+  <si>
+    <t>The wererat is one of several different types of animalistic forms. They are classified as "lycanthropes", despite the fact that the term reflects a lupine, or wolven</t>
+  </si>
+  <si>
+    <t>A member of a mythical race of short, stocky human-like creatures who are generally skilled in mining and metalworking.</t>
+  </si>
+  <si>
+    <t>矮人热衷于挖矿、铸造、手工艺和收集金银财货.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1066,6 +1005,17 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1109,13 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1465,32 +1415,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1837,19 +1796,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
+      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.46484375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="30.46484375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.796875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="67.9296875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="87.3984375" style="38" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -1932,7 +1891,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2137,7 +2096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1">
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="13.9" thickBot="1">
       <c r="A31" s="31" t="s">
         <v>58</v>
       </c>
@@ -2146,1380 +2105,1270 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1">
-      <c r="A32" s="33" t="s">
-        <v>183</v>
+      <c r="A32" s="40" t="s">
+        <v>293</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="8" customFormat="1">
-      <c r="A33" s="34" t="s">
-        <v>184</v>
+      <c r="A33" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="8" customFormat="1">
-      <c r="A34" s="34" t="s">
-        <v>185</v>
+      <c r="A34" s="41" t="s">
+        <v>295</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="8" customFormat="1">
-      <c r="A35" s="34" t="s">
-        <v>186</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="8" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A35" s="41" t="s">
+        <v>296</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="8" customFormat="1">
-      <c r="A36" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>196</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="8" customFormat="1" ht="54">
+      <c r="A36" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="8" customFormat="1">
-      <c r="A37" s="34" t="s">
-        <v>188</v>
+      <c r="A37" s="43" t="s">
+        <v>298</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="8" customFormat="1">
-      <c r="A38" s="34" t="s">
-        <v>189</v>
+      <c r="A38" s="43" t="s">
+        <v>299</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="8" customFormat="1">
-      <c r="A39" s="34" t="s">
-        <v>190</v>
+      <c r="A39" s="43" t="s">
+        <v>300</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="8" customFormat="1">
-      <c r="A40" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="8" customFormat="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="9" customFormat="1">
+      <c r="A40" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="9" customFormat="1">
       <c r="A41" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="8" customFormat="1">
-      <c r="A42" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="8" customFormat="1">
-      <c r="A43" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="8" customFormat="1">
-      <c r="A44" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="8" customFormat="1">
-      <c r="A45" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="8" customFormat="1">
-      <c r="A46" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="8" customFormat="1">
-      <c r="A47" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="8" customFormat="1">
-      <c r="A48" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="8" customFormat="1">
-      <c r="A49" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>227</v>
+        <v>62</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="9" customFormat="1">
+      <c r="A42" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="9" customFormat="1">
+      <c r="A43" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="9" customFormat="1">
+      <c r="A44" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="9" customFormat="1">
+      <c r="A45" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="9" customFormat="1">
+      <c r="A46" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="9" customFormat="1">
+      <c r="A47" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="9" customFormat="1">
+      <c r="A48" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="9" customFormat="1">
+      <c r="A49" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="9" customFormat="1">
-      <c r="A50" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>61</v>
+      <c r="A50" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="9" customFormat="1">
-      <c r="A51" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>63</v>
+      <c r="A51" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="9" customFormat="1">
-      <c r="A52" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>65</v>
+      <c r="A52" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="9" customFormat="1">
-      <c r="A53" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>67</v>
+      <c r="A53" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="9" customFormat="1">
-      <c r="A54" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>69</v>
+      <c r="A54" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="9" customFormat="1">
-      <c r="A55" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>71</v>
+      <c r="A55" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="9" customFormat="1">
-      <c r="A56" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>73</v>
+      <c r="A56" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="9" customFormat="1">
-      <c r="A57" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>75</v>
+      <c r="A57" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="9" customFormat="1">
-      <c r="A58" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>77</v>
+      <c r="A58" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="9" customFormat="1">
-      <c r="A59" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>79</v>
+      <c r="A59" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="9" customFormat="1">
-      <c r="A60" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="9" customFormat="1">
-      <c r="A61" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="9" customFormat="1">
-      <c r="A62" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="9" customFormat="1">
-      <c r="A63" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="9" customFormat="1">
-      <c r="A64" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="9" customFormat="1">
-      <c r="A65" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="36" t="s">
+      <c r="A60" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="9" customFormat="1">
-      <c r="A66" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="9" customFormat="1">
-      <c r="A67" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="9" customFormat="1">
-      <c r="A68" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="9" customFormat="1">
-      <c r="A69" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="9" customFormat="1">
-      <c r="A70" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="5" customFormat="1">
-      <c r="A71" s="27" t="s">
+    <row r="61" spans="1:3" s="5" customFormat="1">
+      <c r="A61" s="27" t="s">
         <v>97</v>
       </c>
+      <c r="B61" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1">
+      <c r="A62" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1">
+      <c r="A63" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="6" customFormat="1">
+      <c r="A64" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="6" customFormat="1">
+      <c r="A65" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1">
+      <c r="A66" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="6" customFormat="1">
+      <c r="A67" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1">
+      <c r="A68" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1">
+      <c r="A69" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" customFormat="1">
+      <c r="A70" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" customFormat="1">
+      <c r="A71" s="25" t="s">
+        <v>118</v>
+      </c>
       <c r="B71" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="6" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" customFormat="1">
       <c r="A72" s="25" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="6" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" customFormat="1">
       <c r="A73" s="25" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="6" customFormat="1">
+        <v>125</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" customFormat="1">
       <c r="A74" s="25" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="6" customFormat="1">
+        <v>128</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" customFormat="1">
       <c r="A75" s="25" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="6" customFormat="1">
+        <v>131</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" customFormat="1">
       <c r="A76" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="6" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" customFormat="1">
       <c r="A77" s="25" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="6" customFormat="1">
+        <v>137</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" customFormat="1">
       <c r="A78" s="25" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="6" customFormat="1">
+        <v>140</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" customFormat="1">
       <c r="A79" s="25" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>114</v>
+        <v>143</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:3" customFormat="1">
       <c r="A80" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>117</v>
+        <v>145</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:3" customFormat="1">
       <c r="A81" s="25" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>120</v>
+        <v>149</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:3" customFormat="1">
       <c r="A82" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>123</v>
+        <v>151</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:3" customFormat="1">
       <c r="A83" s="25" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>126</v>
+        <v>155</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3" customFormat="1">
       <c r="A84" s="25" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>129</v>
+        <v>158</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3" customFormat="1">
       <c r="A85" s="25" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>132</v>
+        <v>161</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:3" customFormat="1">
       <c r="A86" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>135</v>
+        <v>163</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:3" customFormat="1">
       <c r="A87" s="25" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>138</v>
+        <v>167</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:3" customFormat="1">
       <c r="A88" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>141</v>
+        <v>169</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" customFormat="1">
       <c r="A89" s="25" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>144</v>
+        <v>173</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:3" customFormat="1">
       <c r="A90" s="25" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>147</v>
+        <v>176</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" customFormat="1">
       <c r="A91" s="25" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>150</v>
+        <v>249</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" customFormat="1">
       <c r="A92" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" customFormat="1">
-      <c r="A93" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" customFormat="1">
-      <c r="A94" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" customFormat="1">
-      <c r="A95" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" customFormat="1">
-      <c r="A96" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" customFormat="1">
-      <c r="A97" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" customFormat="1">
-      <c r="A98" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" customFormat="1">
-      <c r="A99" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" customFormat="1">
-      <c r="A100" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" customFormat="1">
-      <c r="A101" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" customFormat="1">
-      <c r="A102" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B92" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C92" s="22" t="s">
         <v>182</v>
       </c>
     </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133" s="39"/>
+      <c r="C133" s="39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="39"/>
+      <c r="C134" s="39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="39"/>
+      <c r="C135" s="39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="41" t="s">
+      <c r="B144" s="39"/>
+      <c r="C144" s="39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="41" t="s">
+      <c r="B145" s="39"/>
+      <c r="C145" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="41" t="s">
+      <c r="B146" s="39"/>
+      <c r="C146" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="41" t="s">
+      <c r="B147" s="39"/>
+      <c r="C147" s="39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="41" t="s">
+      <c r="B148" s="39"/>
+      <c r="C148" s="39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="41" t="s">
+      <c r="B149" s="39"/>
+      <c r="C149" s="39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="41" t="s">
+      <c r="B150" s="39"/>
+      <c r="C150" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="41" t="s">
+      <c r="B151" s="39"/>
+      <c r="C151" s="39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="41" t="s">
+      <c r="B152" s="39"/>
+      <c r="C152" s="39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="41" t="s">
+      <c r="B153" s="39"/>
+      <c r="C153" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="41" t="s">
+      <c r="B154" s="39"/>
+      <c r="C154" s="39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="B114" s="41"/>
-      <c r="C114" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="B116" s="41"/>
-      <c r="C116" s="41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="B117" s="41"/>
-      <c r="C117" s="41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="41" t="s">
+      <c r="B155" s="39"/>
+      <c r="C155" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="41" t="s">
+      <c r="B156" s="39"/>
+      <c r="C156" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="41" t="s">
+      <c r="B157" s="39"/>
+      <c r="C157" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="B120" s="41"/>
-      <c r="C120" s="41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="41" t="s">
+      <c r="B158" s="39"/>
+      <c r="C158" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="B121" s="41"/>
-      <c r="C121" s="41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="41" t="s">
+      <c r="B159" s="39"/>
+      <c r="C159" s="39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="41" t="s">
+      <c r="B160" s="39"/>
+      <c r="C160" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="41" t="s">
+      <c r="B161" s="39"/>
+      <c r="C161" s="39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="41"/>
-      <c r="C124" s="41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="41" t="s">
+      <c r="B162" s="39"/>
+      <c r="C162" s="39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="41" t="s">
+      <c r="B163" s="39"/>
+      <c r="C163" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="B130" s="41"/>
-      <c r="C130" s="41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B131" s="41"/>
-      <c r="C131" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="B132" s="41"/>
-      <c r="C132" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B133" s="41"/>
-      <c r="C133" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="B134" s="41"/>
-      <c r="C134" s="41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="B135" s="41"/>
-      <c r="C135" s="41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="B136" s="41"/>
-      <c r="C136" s="41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B137" s="41"/>
-      <c r="C137" s="41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="B138" s="41"/>
-      <c r="C138" s="41" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B139" s="41"/>
-      <c r="C139" s="41" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B140" s="41"/>
-      <c r="C140" s="41" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="B141" s="41"/>
-      <c r="C141" s="41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="B142" s="41"/>
-      <c r="C142" s="41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="B143" s="41"/>
-      <c r="C143" s="41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="B144" s="41"/>
-      <c r="C144" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B145" s="41"/>
-      <c r="C145" s="41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="B146" s="41"/>
-      <c r="C146" s="41" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="B147" s="41"/>
-      <c r="C147" s="41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="B148" s="41"/>
-      <c r="C148" s="41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="B149" s="41"/>
-      <c r="C149" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="B150" s="41"/>
-      <c r="C150" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="B151" s="41"/>
-      <c r="C151" s="41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="B152" s="41"/>
-      <c r="C152" s="41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="B154" s="41"/>
-      <c r="C154" s="41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B155" s="41"/>
-      <c r="C155" s="41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B156" s="41"/>
-      <c r="C156" s="41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B157" s="41"/>
-      <c r="C157" s="41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="B158" s="41"/>
-      <c r="C158" s="41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="B159" s="41"/>
-      <c r="C159" s="41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="B160" s="41"/>
-      <c r="C160" s="41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B161" s="41"/>
-      <c r="C161" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="41" t="s">
+      <c r="B164" s="39"/>
+      <c r="C164" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="B163" s="41"/>
-      <c r="C163" s="41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="B164" s="41"/>
-      <c r="C164" s="41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="B165" s="41"/>
-      <c r="C165" s="41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" s="41"/>
-      <c r="C166" s="41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="B167" s="41"/>
-      <c r="C167" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="B168" s="41"/>
-      <c r="C168" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="B169" s="41"/>
-      <c r="C169" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="B170" s="41"/>
-      <c r="C170" s="41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="B171" s="41"/>
-      <c r="C171" s="41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="B172" s="41"/>
-      <c r="C172" s="41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="B174" s="41"/>
-      <c r="C174" s="41" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -981,13 +981,13 @@
     <t>狼人是一个力量型近战英雄，拥有巨大的物理能力和可观的移动速度， 擅长推进建筑和增加队伍的攻击力和生命值</t>
   </si>
   <si>
-    <t>The wererat is one of several different types of animalistic forms. They are classified as "lycanthropes", despite the fact that the term reflects a lupine, or wolven</t>
-  </si>
-  <si>
     <t>A member of a mythical race of short, stocky human-like creatures who are generally skilled in mining and metalworking.</t>
   </si>
   <si>
     <t>矮人热衷于挖矿、铸造、手工艺和收集金银财货.</t>
+  </si>
+  <si>
+    <t>The wererat is one of several different types of animalistic forms. They are classified as 'lycanthropes', despite the fact that the term reflects a lupine, or wolven</t>
   </si>
 </sst>
 </file>
@@ -1801,13 +1801,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.796875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="67.9296875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="169.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.3984375" style="38" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
@@ -2164,10 +2164,10 @@
         <v>298</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="8" customFormat="1">
@@ -2175,7 +2175,7 @@
         <v>299</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>313</v>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1801,7 +1801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2148,7 +2148,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" ht="54">
+    <row r="36" spans="1:3" s="8" customFormat="1" ht="27">
       <c r="A36" s="42" t="s">
         <v>297</v>
       </c>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="325">
   <si>
     <t>Id</t>
   </si>
@@ -988,6 +988,30 @@
   </si>
   <si>
     <t>The wererat is one of several different types of animalistic forms. They are classified as 'lycanthropes', despite the fact that the term reflects a lupine, or wolven</t>
+  </si>
+  <si>
+    <t>Desc_Gold_Item1</t>
+  </si>
+  <si>
+    <t>Desc_Diamond_Item1</t>
+  </si>
+  <si>
+    <t>一包金币，使用后获得金币。</t>
+  </si>
+  <si>
+    <t>一包钻石，使用后获得钻石。</t>
+  </si>
+  <si>
+    <t>NameID_Gold_Item1</t>
+  </si>
+  <si>
+    <t>NameID_Diamond_Item1</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>钻石</t>
   </si>
 </sst>
 </file>
@@ -1797,17 +1821,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.796875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="169.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="87.3984375" style="38" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
@@ -1986,367 +2010,367 @@
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="A17" s="29" t="s">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1">
       <c r="A18" s="31" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="8" customFormat="1">
-      <c r="A19" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>35</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="7" customFormat="1">
+      <c r="A19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="8" customFormat="1">
       <c r="A20" s="31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="8" customFormat="1">
       <c r="A21" s="31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1">
       <c r="A22" s="31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="8" customFormat="1">
       <c r="A23" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1">
       <c r="A24" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1">
       <c r="A25" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1">
       <c r="A26" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="8" customFormat="1">
       <c r="A27" s="31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="8" customFormat="1">
       <c r="A28" s="31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="8" customFormat="1">
       <c r="A29" s="31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="8" customFormat="1">
       <c r="A30" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="8" customFormat="1">
+      <c r="A31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="8" customFormat="1">
+      <c r="A32" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A31" s="31" t="s">
+    <row r="33" spans="1:3" s="8" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C33" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1">
-      <c r="A32" s="40" t="s">
+    <row r="34" spans="1:3" s="8" customFormat="1">
+      <c r="A34" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C34" s="32" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1">
-      <c r="A33" s="41" t="s">
+    <row r="35" spans="1:3" s="8" customFormat="1">
+      <c r="A35" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1">
-      <c r="A34" s="41" t="s">
+    <row r="36" spans="1:3" s="8" customFormat="1">
+      <c r="A36" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C36" s="32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A35" s="41" t="s">
+    <row r="37" spans="1:3" s="8" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A37" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C37" s="32" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" ht="27">
-      <c r="A36" s="42" t="s">
+    <row r="38" spans="1:3" s="8" customFormat="1" ht="27">
+      <c r="A38" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B38" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C38" s="32" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="8" customFormat="1">
-      <c r="A37" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="8" customFormat="1">
-      <c r="A38" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="8" customFormat="1">
       <c r="A39" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="8" customFormat="1">
+      <c r="A40" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="8" customFormat="1">
+      <c r="A41" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C41" s="32" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="9" customFormat="1">
-      <c r="A40" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="9" customFormat="1">
-      <c r="A41" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="9" customFormat="1">
       <c r="A42" s="33" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="9" customFormat="1">
       <c r="A43" s="33" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="9" customFormat="1">
       <c r="A44" s="33" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="9" customFormat="1">
       <c r="A45" s="33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="9" customFormat="1">
       <c r="A46" s="33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="9" customFormat="1">
       <c r="A47" s="33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="9" customFormat="1">
       <c r="A48" s="33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="9" customFormat="1">
       <c r="A49" s="33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="9" customFormat="1">
       <c r="A50" s="33" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="9" customFormat="1">
       <c r="A51" s="33" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="9" customFormat="1">
       <c r="A52" s="33" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="9" customFormat="1">
       <c r="A53" s="33" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="9" customFormat="1">
       <c r="A54" s="33" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="9" customFormat="1">
       <c r="A55" s="33" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="9" customFormat="1">
       <c r="A56" s="33" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="9" customFormat="1">
       <c r="A57" s="33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="9" customFormat="1">
       <c r="A58" s="33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="9" customFormat="1">
       <c r="A59" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>91</v>
@@ -2354,1009 +2378,1041 @@
     </row>
     <row r="60" spans="1:3" s="9" customFormat="1">
       <c r="A60" s="33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1">
-      <c r="A61" s="27" t="s">
+    <row r="61" spans="1:3" s="9" customFormat="1">
+      <c r="A61" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="9" customFormat="1">
+      <c r="A62" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="9" customFormat="1">
+      <c r="A63" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="9" customFormat="1">
+      <c r="A64" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1">
+      <c r="A65" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B65" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C65" s="35" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="6" customFormat="1">
-      <c r="A62" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="6" customFormat="1">
-      <c r="A63" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="6" customFormat="1">
-      <c r="A64" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="6" customFormat="1">
-      <c r="A65" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="6" customFormat="1">
       <c r="A66" s="25" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1">
       <c r="A67" s="25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="A68" s="25" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="A69" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="6" customFormat="1">
+      <c r="A70" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="6" customFormat="1">
+      <c r="A71" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="6" customFormat="1">
+      <c r="A72" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1">
+      <c r="A73" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B73" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C73" s="35" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" customFormat="1">
-      <c r="A70" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" customFormat="1">
-      <c r="A71" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" customFormat="1">
-      <c r="A72" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" customFormat="1">
-      <c r="A73" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:3" customFormat="1">
       <c r="A74" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:3" customFormat="1">
       <c r="A75" s="25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" customFormat="1">
       <c r="A76" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3" customFormat="1">
       <c r="A77" s="25" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:3" customFormat="1">
       <c r="A78" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:3" customFormat="1">
       <c r="A79" s="25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:3" customFormat="1">
       <c r="A80" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>146</v>
+        <v>133</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:3" customFormat="1">
       <c r="A81" s="25" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:3" customFormat="1">
       <c r="A82" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:3" customFormat="1">
       <c r="A83" s="25" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3" customFormat="1">
       <c r="A84" s="25" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:3" customFormat="1">
       <c r="A85" s="25" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:3" customFormat="1">
       <c r="A86" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>164</v>
+        <v>151</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:3" customFormat="1">
       <c r="A87" s="25" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:3" customFormat="1">
       <c r="A88" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:3" customFormat="1">
       <c r="A89" s="25" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:3" customFormat="1">
       <c r="A90" s="25" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:3" customFormat="1">
       <c r="A91" s="25" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:3" customFormat="1">
       <c r="A92" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" customFormat="1">
+      <c r="A93" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" customFormat="1">
+      <c r="A94" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" customFormat="1">
+      <c r="A95" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" customFormat="1">
+      <c r="A96" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B96" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C96" s="22" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="39" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="39" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="39" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="39" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="39" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="39" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="39" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="39" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="39" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="39" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="39" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="39" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="39" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="39" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="39" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="39" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="39" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="39" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="39" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="39" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="39" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="39" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="39" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="39" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="39" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="39" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="39" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="39" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="39" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="39" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="39" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="39" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="39" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="39" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="39" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="39" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="39" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B134" s="39"/>
       <c r="C134" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B135" s="39"/>
       <c r="C135" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="39" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B136" s="39"/>
       <c r="C136" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="39" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B137" s="39"/>
       <c r="C137" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="39" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B138" s="39"/>
       <c r="C138" s="39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="39" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B139" s="39"/>
       <c r="C139" s="39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B140" s="39"/>
       <c r="C140" s="39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="39" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="B141" s="39"/>
       <c r="C141" s="39" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="39" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="B142" s="39"/>
       <c r="C142" s="39" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="39" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="B143" s="39"/>
       <c r="C143" s="39" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B144" s="39"/>
       <c r="C144" s="39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="39" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="B145" s="39"/>
       <c r="C145" s="39" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="39" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="B146" s="39"/>
       <c r="C146" s="39" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="39" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="B147" s="39"/>
       <c r="C147" s="39" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B148" s="39"/>
       <c r="C148" s="39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B149" s="39"/>
       <c r="C149" s="39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="39" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B150" s="39"/>
       <c r="C150" s="39" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B151" s="39"/>
       <c r="C151" s="39" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B152" s="39"/>
       <c r="C152" s="39" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B153" s="39"/>
       <c r="C153" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B154" s="39"/>
       <c r="C154" s="39" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B155" s="39"/>
       <c r="C155" s="39" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B156" s="39"/>
       <c r="C156" s="39" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B157" s="39"/>
       <c r="C157" s="39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B158" s="39"/>
       <c r="C158" s="39" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B159" s="39"/>
       <c r="C159" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B160" s="39"/>
       <c r="C160" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B161" s="39"/>
       <c r="C161" s="39" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="39" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B162" s="39"/>
       <c r="C162" s="39" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B163" s="39"/>
       <c r="C163" s="39" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="39" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B164" s="39"/>
       <c r="C164" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B165" s="39"/>
+      <c r="C165" s="39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B166" s="39"/>
+      <c r="C166" s="39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B167" s="39"/>
+      <c r="C167" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B168" s="39"/>
+      <c r="C168" s="39" t="s">
         <v>282</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowWidth="21495" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Property_comm" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
   <si>
     <t>Id</t>
   </si>
@@ -1007,6 +1007,54 @@
   </si>
   <si>
     <t>Desc_mana_well_3</t>
+  </si>
+  <si>
+    <t>Desc_Task1</t>
+  </si>
+  <si>
+    <t>打开背包，获取一个英雄</t>
+  </si>
+  <si>
+    <t>Desc_Task2</t>
+  </si>
+  <si>
+    <t>切换英雄战斗教学</t>
+  </si>
+  <si>
+    <t>Desc_Task3</t>
+  </si>
+  <si>
+    <t>探索资源，制作大本营（火堆）</t>
+  </si>
+  <si>
+    <t>Desc_Task4</t>
+  </si>
+  <si>
+    <t>找一个合适的地方，使用火堆，扎营</t>
+  </si>
+  <si>
+    <t>Desc_Task5</t>
+  </si>
+  <si>
+    <t>首夜生存模式,建立新炮塔</t>
+  </si>
+  <si>
+    <t>Desc_Task6</t>
+  </si>
+  <si>
+    <t>PVP挑战对手</t>
+  </si>
+  <si>
+    <t>Desc_Task7</t>
+  </si>
+  <si>
+    <t>抽宝箱获取新英雄和宝石</t>
+  </si>
+  <si>
+    <t>Desc_Task8</t>
+  </si>
+  <si>
+    <t>宝石给英雄升星</t>
   </si>
 </sst>
 </file>
@@ -1045,24 +1093,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,6 +1105,36 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1100,7 +1163,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,28 +1230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,47 +1238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,13 +1265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,19 +1295,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,13 +1433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,73 +1451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,55 +1469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,19 +1675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1656,12 +1691,73 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,6 +1777,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1695,221 +1811,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1980,10 +2028,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1992,16 +2049,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2022,28 +2070,28 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2441,7 +2489,7 @@
   <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:E10"/>
@@ -2617,7 +2665,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="21" customFormat="1" spans="1:3">
+    <row r="11" s="24" customFormat="1" spans="1:3">
       <c r="A11" s="38" t="s">
         <v>15</v>
       </c>
@@ -2628,7 +2676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="22" customFormat="1" spans="1:3">
+    <row r="12" s="27" customFormat="1" spans="1:3">
       <c r="A12" s="41" t="s">
         <v>18</v>
       </c>
@@ -2639,7 +2687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="22" customFormat="1" spans="1:3">
+    <row r="13" s="27" customFormat="1" spans="1:3">
       <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
@@ -2650,7 +2698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="22" customFormat="1" spans="1:3">
+    <row r="14" s="27" customFormat="1" spans="1:3">
       <c r="A14" s="41" t="s">
         <v>24</v>
       </c>
@@ -2661,7 +2709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="22" customFormat="1" spans="1:3">
+    <row r="15" s="27" customFormat="1" spans="1:3">
       <c r="A15" s="41" t="s">
         <v>27</v>
       </c>
@@ -2672,7 +2720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="22" customFormat="1" spans="1:3">
+    <row r="16" s="27" customFormat="1" spans="1:3">
       <c r="A16" s="41" t="s">
         <v>30</v>
       </c>
@@ -2683,7 +2731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" s="21" customFormat="1" ht="14.25" spans="1:3">
+    <row r="17" s="24" customFormat="1" ht="14.25" spans="1:3">
       <c r="A17" s="41" t="s">
         <v>33</v>
       </c>
@@ -2694,7 +2742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="18" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A18" s="38" t="s">
         <v>35</v>
       </c>
@@ -2705,7 +2753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A19" s="38" t="s">
         <v>37</v>
       </c>
@@ -2716,7 +2764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="20" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A20" s="38" t="s">
         <v>39</v>
       </c>
@@ -2727,7 +2775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A21" s="38" t="s">
         <v>41</v>
       </c>
@@ -2738,7 +2786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="22" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
@@ -2749,7 +2797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="23" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A23" s="38" t="s">
         <v>45</v>
       </c>
@@ -2760,7 +2808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="24" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A24" s="38" t="s">
         <v>47</v>
       </c>
@@ -2771,7 +2819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" s="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="25" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A25" s="38" t="s">
         <v>49</v>
       </c>
@@ -3229,137 +3277,137 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="24" customFormat="1" spans="1:5">
+    <row r="11" s="25" customFormat="1" spans="1:5">
       <c r="A11" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:5">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="1:5">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" s="25" customFormat="1" spans="1:5">
       <c r="A13" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" s="24" customFormat="1" ht="14.25" spans="1:5">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" s="24" customFormat="1" ht="81" spans="1:5">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" s="25" customFormat="1" ht="81" spans="1:5">
       <c r="A15" s="35" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="24" customFormat="1" spans="1:5">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" s="24" customFormat="1" spans="1:5">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" s="24" customFormat="1" spans="1:5">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" s="25" customFormat="1" spans="1:5">
       <c r="A18" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="4:5">
       <c r="D26"/>
@@ -3474,7 +3522,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3647,177 +3695,177 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="23" customFormat="1" spans="1:5">
-      <c r="A11" s="26" t="s">
+    <row r="11" s="22" customFormat="1" spans="1:5">
+      <c r="A11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:5">
-      <c r="A12" s="28" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:5">
+      <c r="A12" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" s="23" customFormat="1" spans="1:5">
-      <c r="A13" s="26" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" s="22" customFormat="1" spans="1:5">
+      <c r="A13" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" s="24" customFormat="1" spans="1:5">
-      <c r="A14" s="28" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" s="25" customFormat="1" spans="1:5">
+      <c r="A14" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" s="24" customFormat="1" spans="1:5">
-      <c r="A15" s="28" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:5">
+      <c r="A15" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="24" customFormat="1" spans="1:5">
-      <c r="A16" s="28" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" s="25" customFormat="1" spans="1:5">
+      <c r="A16" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" s="24" customFormat="1" spans="1:5">
-      <c r="A17" s="28" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="1:5">
+      <c r="A17" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" s="24" customFormat="1" spans="1:5">
-      <c r="A18" s="28" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" s="25" customFormat="1" spans="1:5">
+      <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" s="24" customFormat="1" spans="1:5">
-      <c r="A19" s="28" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" s="25" customFormat="1" spans="1:5">
+      <c r="A19" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" s="24" customFormat="1" spans="1:5">
-      <c r="A20" s="28" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" s="25" customFormat="1" spans="1:5">
+      <c r="A20" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="1:5">
-      <c r="A21" s="28" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" s="25" customFormat="1" spans="1:5">
+      <c r="A21" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" s="24" customFormat="1" spans="1:5">
-      <c r="A22" s="28" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" s="25" customFormat="1" spans="1:5">
+      <c r="A22" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" s="24" customFormat="1" spans="1:5">
-      <c r="A23" s="28" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" s="25" customFormat="1" spans="1:5">
+      <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" s="24" customFormat="1" spans="1:5">
-      <c r="A24" s="28" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" s="25" customFormat="1" spans="1:5">
+      <c r="A24" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" s="24" customFormat="1" spans="1:5">
-      <c r="A25" s="28" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" s="25" customFormat="1" spans="1:5">
+      <c r="A25" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" s="24" customFormat="1" spans="1:5">
-      <c r="A26" s="28" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" s="25" customFormat="1" spans="1:5">
+      <c r="A26" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="26" t="s">
         <v>175</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="24" customFormat="1" spans="1:5">
-      <c r="A27" s="28" t="s">
+    <row r="27" s="25" customFormat="1" spans="1:5">
+      <c r="A27" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="26" t="s">
         <v>177</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="25" customFormat="1" spans="1:5">
+    <row r="28" s="28" customFormat="1" spans="1:5">
       <c r="A28" s="30" t="s">
         <v>178</v>
       </c>
@@ -3827,7 +3875,7 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="25" customFormat="1" spans="1:5">
+    <row r="29" s="28" customFormat="1" spans="1:5">
       <c r="A29" s="30" t="s">
         <v>180</v>
       </c>
@@ -3837,7 +3885,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="25" customFormat="1" spans="1:5">
+    <row r="30" s="28" customFormat="1" spans="1:5">
       <c r="A30" s="30" t="s">
         <v>182</v>
       </c>
@@ -3847,7 +3895,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" s="25" customFormat="1" spans="1:5">
+    <row r="31" s="28" customFormat="1" spans="1:5">
       <c r="A31" s="30" t="s">
         <v>184</v>
       </c>
@@ -3857,7 +3905,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" s="25" customFormat="1" spans="1:5">
+    <row r="32" s="28" customFormat="1" spans="1:5">
       <c r="A32" s="30" t="s">
         <v>186</v>
       </c>
@@ -3867,7 +3915,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" s="25" customFormat="1" spans="1:5">
+    <row r="33" s="28" customFormat="1" spans="1:5">
       <c r="A33" s="30" t="s">
         <v>188</v>
       </c>
@@ -3877,7 +3925,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" s="25" customFormat="1" spans="1:5">
+    <row r="34" s="28" customFormat="1" spans="1:5">
       <c r="A34" s="30" t="s">
         <v>190</v>
       </c>
@@ -3887,7 +3935,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" s="25" customFormat="1" spans="1:5">
+    <row r="35" s="28" customFormat="1" spans="1:5">
       <c r="A35" s="30" t="s">
         <v>192</v>
       </c>
@@ -3897,7 +3945,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" s="25" customFormat="1" spans="1:5">
+    <row r="36" s="28" customFormat="1" spans="1:5">
       <c r="A36" s="30" t="s">
         <v>194</v>
       </c>
@@ -3907,7 +3955,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" s="25" customFormat="1" spans="1:5">
+    <row r="37" s="28" customFormat="1" spans="1:5">
       <c r="A37" s="30" t="s">
         <v>196</v>
       </c>
@@ -3917,7 +3965,7 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" s="25" customFormat="1" spans="1:5">
+    <row r="38" s="28" customFormat="1" spans="1:5">
       <c r="A38" s="30" t="s">
         <v>198</v>
       </c>
@@ -3927,7 +3975,7 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" s="25" customFormat="1" spans="1:5">
+    <row r="39" s="28" customFormat="1" spans="1:5">
       <c r="A39" s="30" t="s">
         <v>200</v>
       </c>
@@ -3937,7 +3985,7 @@
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" s="25" customFormat="1" spans="1:5">
+    <row r="40" s="28" customFormat="1" spans="1:5">
       <c r="A40" s="30" t="s">
         <v>202</v>
       </c>
@@ -3947,7 +3995,7 @@
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" s="25" customFormat="1" spans="1:5">
+    <row r="41" s="28" customFormat="1" spans="1:5">
       <c r="A41" s="30" t="s">
         <v>204</v>
       </c>
@@ -3957,7 +4005,7 @@
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" s="25" customFormat="1" spans="1:5">
+    <row r="42" s="28" customFormat="1" spans="1:5">
       <c r="A42" s="30" t="s">
         <v>206</v>
       </c>
@@ -3967,7 +4015,7 @@
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" s="25" customFormat="1" spans="1:5">
+    <row r="43" s="28" customFormat="1" spans="1:5">
       <c r="A43" s="30" t="s">
         <v>208</v>
       </c>
@@ -3977,7 +4025,7 @@
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" s="25" customFormat="1" spans="1:5">
+    <row r="44" s="28" customFormat="1" spans="1:5">
       <c r="A44" s="30" t="s">
         <v>210</v>
       </c>
@@ -3987,7 +4035,7 @@
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" s="25" customFormat="1" spans="1:5">
+    <row r="45" s="28" customFormat="1" spans="1:5">
       <c r="A45" s="30" t="s">
         <v>212</v>
       </c>
@@ -3997,7 +4045,7 @@
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" s="25" customFormat="1" spans="1:5">
+    <row r="46" s="28" customFormat="1" spans="1:5">
       <c r="A46" s="30" t="s">
         <v>214</v>
       </c>
@@ -4007,7 +4055,7 @@
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" s="25" customFormat="1" spans="1:5">
+    <row r="47" s="28" customFormat="1" spans="1:5">
       <c r="A47" s="30" t="s">
         <v>215</v>
       </c>
@@ -4017,7 +4065,7 @@
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" s="25" customFormat="1" spans="1:5">
+    <row r="48" s="28" customFormat="1" spans="1:5">
       <c r="A48" s="30" t="s">
         <v>216</v>
       </c>
@@ -4027,7 +4075,7 @@
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" s="25" customFormat="1" spans="1:5">
+    <row r="49" s="28" customFormat="1" spans="1:5">
       <c r="A49" s="30" t="s">
         <v>217</v>
       </c>
@@ -4037,7 +4085,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" s="25" customFormat="1" spans="1:5">
+    <row r="50" s="28" customFormat="1" spans="1:5">
       <c r="A50" s="30" t="s">
         <v>218</v>
       </c>
@@ -4713,10 +4761,10 @@
   <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E10"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4889,65 +4937,121 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="4:5">
       <c r="D26"/>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335" activeTab="3"/>
+    <workbookView windowWidth="21495" windowHeight="10335" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Property_comm" sheetId="1" r:id="rId1"/>
     <sheet name="Property_hero" sheetId="5" r:id="rId2"/>
-    <sheet name="Property_item" sheetId="3" r:id="rId3"/>
-    <sheet name="Property_task" sheetId="4" r:id="rId4"/>
+    <sheet name="Property_item_gem" sheetId="6" r:id="rId3"/>
+    <sheet name="Property_item_scroll" sheetId="7" r:id="rId4"/>
+    <sheet name="Property_item_supply" sheetId="8" r:id="rId5"/>
+    <sheet name="Property_item_equipment" sheetId="3" r:id="rId6"/>
+    <sheet name="Property_task" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -460,6 +463,435 @@
     <t>要离是人族最悲情的刺客--神魔大战中，自断一臂假意投靠鬼族，然而再次断臂换来重伤夜王.</t>
   </si>
   <si>
+    <t>Desc_GEM_ATK</t>
+  </si>
+  <si>
+    <t>攻击宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_DEF</t>
+  </si>
+  <si>
+    <t>防御宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_FIRE</t>
+  </si>
+  <si>
+    <t>火属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_LIGHT</t>
+  </si>
+  <si>
+    <t>雷属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_WIND</t>
+  </si>
+  <si>
+    <t>风属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_ICE</t>
+  </si>
+  <si>
+    <t>冰属性宝石！</t>
+  </si>
+  <si>
+    <t>Desc_GEM_POISON</t>
+  </si>
+  <si>
+    <t>毒属性宝石！</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ATK</t>
+  </si>
+  <si>
+    <t>攻击宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_DEF</t>
+  </si>
+  <si>
+    <t>防御宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_FIRE</t>
+  </si>
+  <si>
+    <t>火属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_LIGHT</t>
+  </si>
+  <si>
+    <t>雷属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_WIND</t>
+  </si>
+  <si>
+    <t>风属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_ICE</t>
+  </si>
+  <si>
+    <t>冰属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_GEM_POISON</t>
+  </si>
+  <si>
+    <t>毒属性宝石</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_1</t>
+  </si>
+  <si>
+    <t>英雄*卡1</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_2</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_3</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_4</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_5</t>
+  </si>
+  <si>
+    <t>NameID_HeroCard_6</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>火龙炮(一级)</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>火龙炮(二级)</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>火龙炮(三级)</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_1</t>
+  </si>
+  <si>
+    <t>金矿(一级)</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_2</t>
+  </si>
+  <si>
+    <t>金矿(二级)</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_3</t>
+  </si>
+  <si>
+    <t>金矿(三级)</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>箭塔(一级)</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>箭塔(二级)</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>箭塔(三级)</t>
+  </si>
+  <si>
+    <t>NameID_townhall_1</t>
+  </si>
+  <si>
+    <t>庇护所(一级)</t>
+  </si>
+  <si>
+    <t>NameID_townhall_2</t>
+  </si>
+  <si>
+    <t>庇护所(二级)</t>
+  </si>
+  <si>
+    <t>NameID_townhall_3</t>
+  </si>
+  <si>
+    <t>庇护所(三级)</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_1</t>
+  </si>
+  <si>
+    <t>传送营地(一级)</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_2</t>
+  </si>
+  <si>
+    <t>传送营地(二级)</t>
+  </si>
+  <si>
+    <t>NameID_cannon_small_3</t>
+  </si>
+  <si>
+    <t>传送营地(三级)</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_1</t>
+  </si>
+  <si>
+    <t>储金罐(一级)</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_2</t>
+  </si>
+  <si>
+    <t>储金罐(二级)</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_3</t>
+  </si>
+  <si>
+    <t>储金罐(三级)</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_1</t>
+  </si>
+  <si>
+    <t>圣水瓶(一级)</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_2</t>
+  </si>
+  <si>
+    <t>圣水瓶(二级)</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_3</t>
+  </si>
+  <si>
+    <t>圣水瓶(三级)</t>
+  </si>
+  <si>
+    <t>NameID_barrack_1</t>
+  </si>
+  <si>
+    <t>军营(一级)</t>
+  </si>
+  <si>
+    <t>NameID_barrack_2</t>
+  </si>
+  <si>
+    <t>军营(二级)</t>
+  </si>
+  <si>
+    <t>NameID_barrack_3</t>
+  </si>
+  <si>
+    <t>军营(三级)</t>
+  </si>
+  <si>
+    <t>NameID_bomb_1</t>
+  </si>
+  <si>
+    <t>炸弹(一级)</t>
+  </si>
+  <si>
+    <t>NameID_bomb_2</t>
+  </si>
+  <si>
+    <t>炸弹(二级)</t>
+  </si>
+  <si>
+    <t>NameID_bomb_3</t>
+  </si>
+  <si>
+    <t>炸弹(三级)</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_1</t>
+  </si>
+  <si>
+    <t>铁匠铺(一级)</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_2</t>
+  </si>
+  <si>
+    <t>铁匠铺(二级)</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_3</t>
+  </si>
+  <si>
+    <t>铁匠铺(三级)</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>防空火箭(一级)</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>防空火箭(二级)</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>防空火箭(三级)</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_1</t>
+  </si>
+  <si>
+    <t>圣水收集器(一级)</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_2</t>
+  </si>
+  <si>
+    <t>圣水收集器(二级)</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_3</t>
+  </si>
+  <si>
+    <t>圣水收集器(三级)</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Desc_townhall_1</t>
+  </si>
+  <si>
+    <t>Desc_townhall_2</t>
+  </si>
+  <si>
+    <t>Desc_townhall_3</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_1</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_2</t>
+  </si>
+  <si>
+    <t>Desc_cannon_small_3</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Desc_barrack_1</t>
+  </si>
+  <si>
+    <t>Desc_barrack_2</t>
+  </si>
+  <si>
+    <t>Desc_barrack_3</t>
+  </si>
+  <si>
+    <t>Desc_bomb_1</t>
+  </si>
+  <si>
+    <t>Desc_bomb_2</t>
+  </si>
+  <si>
+    <t>Desc_bomb_3</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_1</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_2</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_3</t>
+  </si>
+  <si>
     <t>Desc_Gold_Item1</t>
   </si>
   <si>
@@ -520,48 +952,6 @@
     <t>战争奖励礼包！</t>
   </si>
   <si>
-    <t>Desc_GEM_ATK</t>
-  </si>
-  <si>
-    <t>攻击宝石！</t>
-  </si>
-  <si>
-    <t>Desc_GEM_DEF</t>
-  </si>
-  <si>
-    <t>防御宝石！</t>
-  </si>
-  <si>
-    <t>Desc_GEM_FIRE</t>
-  </si>
-  <si>
-    <t>火属性宝石！</t>
-  </si>
-  <si>
-    <t>Desc_GEM_LIGHT</t>
-  </si>
-  <si>
-    <t>雷属性宝石！</t>
-  </si>
-  <si>
-    <t>Desc_GEM_WIND</t>
-  </si>
-  <si>
-    <t>风属性宝石！</t>
-  </si>
-  <si>
-    <t>Desc_GEM_ICE</t>
-  </si>
-  <si>
-    <t>冰属性宝石！</t>
-  </si>
-  <si>
-    <t>Desc_GEM_POISON</t>
-  </si>
-  <si>
-    <t>毒属性宝石！</t>
-  </si>
-  <si>
     <t>NameID_Gold_Item1</t>
   </si>
   <si>
@@ -620,393 +1010,6 @@
   </si>
   <si>
     <t>战争礼包</t>
-  </si>
-  <si>
-    <t>NameID_GEM_ATK</t>
-  </si>
-  <si>
-    <t>攻击宝石</t>
-  </si>
-  <si>
-    <t>NameID_GEM_DEF</t>
-  </si>
-  <si>
-    <t>防御宝石</t>
-  </si>
-  <si>
-    <t>NameID_GEM_FIRE</t>
-  </si>
-  <si>
-    <t>火属性宝石</t>
-  </si>
-  <si>
-    <t>NameID_GEM_LIGHT</t>
-  </si>
-  <si>
-    <t>雷属性宝石</t>
-  </si>
-  <si>
-    <t>NameID_GEM_WIND</t>
-  </si>
-  <si>
-    <t>风属性宝石</t>
-  </si>
-  <si>
-    <t>NameID_GEM_ICE</t>
-  </si>
-  <si>
-    <t>冰属性宝石</t>
-  </si>
-  <si>
-    <t>NameID_GEM_POISON</t>
-  </si>
-  <si>
-    <t>毒属性宝石</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_1</t>
-  </si>
-  <si>
-    <t>英雄*卡1</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_2</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_3</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_4</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_5</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_6</t>
-  </si>
-  <si>
-    <t>NameID_dragon_cannon_1</t>
-  </si>
-  <si>
-    <t>火龙炮(一级)</t>
-  </si>
-  <si>
-    <t>NameID_dragon_cannon_2</t>
-  </si>
-  <si>
-    <t>火龙炮(二级)</t>
-  </si>
-  <si>
-    <t>NameID_dragon_cannon_3</t>
-  </si>
-  <si>
-    <t>火龙炮(三级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_mine_1</t>
-  </si>
-  <si>
-    <t>金矿(一级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_mine_2</t>
-  </si>
-  <si>
-    <t>金矿(二级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_mine_3</t>
-  </si>
-  <si>
-    <t>金矿(三级)</t>
-  </si>
-  <si>
-    <t>NameID_ballista_tower_1</t>
-  </si>
-  <si>
-    <t>箭塔(一级)</t>
-  </si>
-  <si>
-    <t>NameID_ballista_tower_2</t>
-  </si>
-  <si>
-    <t>箭塔(二级)</t>
-  </si>
-  <si>
-    <t>NameID_ballista_tower_3</t>
-  </si>
-  <si>
-    <t>箭塔(三级)</t>
-  </si>
-  <si>
-    <t>NameID_townhall_1</t>
-  </si>
-  <si>
-    <t>庇护所(一级)</t>
-  </si>
-  <si>
-    <t>NameID_townhall_2</t>
-  </si>
-  <si>
-    <t>庇护所(二级)</t>
-  </si>
-  <si>
-    <t>NameID_townhall_3</t>
-  </si>
-  <si>
-    <t>庇护所(三级)</t>
-  </si>
-  <si>
-    <t>NameID_cannon_small_1</t>
-  </si>
-  <si>
-    <t>传送营地(一级)</t>
-  </si>
-  <si>
-    <t>NameID_cannon_small_2</t>
-  </si>
-  <si>
-    <t>传送营地(二级)</t>
-  </si>
-  <si>
-    <t>NameID_cannon_small_3</t>
-  </si>
-  <si>
-    <t>传送营地(三级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_storage_1</t>
-  </si>
-  <si>
-    <t>储金罐(一级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_storage_2</t>
-  </si>
-  <si>
-    <t>储金罐(二级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_storage_3</t>
-  </si>
-  <si>
-    <t>储金罐(三级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_storage_1</t>
-  </si>
-  <si>
-    <t>圣水瓶(一级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_storage_2</t>
-  </si>
-  <si>
-    <t>圣水瓶(二级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_storage_3</t>
-  </si>
-  <si>
-    <t>圣水瓶(三级)</t>
-  </si>
-  <si>
-    <t>NameID_barrack_1</t>
-  </si>
-  <si>
-    <t>军营(一级)</t>
-  </si>
-  <si>
-    <t>NameID_barrack_2</t>
-  </si>
-  <si>
-    <t>军营(二级)</t>
-  </si>
-  <si>
-    <t>NameID_barrack_3</t>
-  </si>
-  <si>
-    <t>军营(三级)</t>
-  </si>
-  <si>
-    <t>NameID_bomb_1</t>
-  </si>
-  <si>
-    <t>炸弹(一级)</t>
-  </si>
-  <si>
-    <t>NameID_bomb_2</t>
-  </si>
-  <si>
-    <t>炸弹(二级)</t>
-  </si>
-  <si>
-    <t>NameID_bomb_3</t>
-  </si>
-  <si>
-    <t>炸弹(三级)</t>
-  </si>
-  <si>
-    <t>NameID_worker_hut_1</t>
-  </si>
-  <si>
-    <t>铁匠铺(一级)</t>
-  </si>
-  <si>
-    <t>NameID_worker_hut_2</t>
-  </si>
-  <si>
-    <t>铁匠铺(二级)</t>
-  </si>
-  <si>
-    <t>NameID_worker_hut_3</t>
-  </si>
-  <si>
-    <t>铁匠铺(三级)</t>
-  </si>
-  <si>
-    <t>NameID_anti_air_tower_1</t>
-  </si>
-  <si>
-    <t>防空火箭(一级)</t>
-  </si>
-  <si>
-    <t>NameID_anti_air_tower_2</t>
-  </si>
-  <si>
-    <t>防空火箭(二级)</t>
-  </si>
-  <si>
-    <t>NameID_anti_air_tower_3</t>
-  </si>
-  <si>
-    <t>防空火箭(三级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_well_1</t>
-  </si>
-  <si>
-    <t>圣水收集器(一级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_well_2</t>
-  </si>
-  <si>
-    <t>圣水收集器(二级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_well_3</t>
-  </si>
-  <si>
-    <t>圣水收集器(三级)</t>
-  </si>
-  <si>
-    <t>Desc_dragon_cannon_1</t>
-  </si>
-  <si>
-    <t>Desc_dragon_cannon_2</t>
-  </si>
-  <si>
-    <t>Desc_dragon_cannon_3</t>
-  </si>
-  <si>
-    <t>Desc_gold_mine_1</t>
-  </si>
-  <si>
-    <t>Desc_gold_mine_2</t>
-  </si>
-  <si>
-    <t>Desc_gold_mine_3</t>
-  </si>
-  <si>
-    <t>Desc_ballista_tower_1</t>
-  </si>
-  <si>
-    <t>Desc_ballista_tower_2</t>
-  </si>
-  <si>
-    <t>Desc_ballista_tower_3</t>
-  </si>
-  <si>
-    <t>Desc_townhall_1</t>
-  </si>
-  <si>
-    <t>Desc_townhall_2</t>
-  </si>
-  <si>
-    <t>Desc_townhall_3</t>
-  </si>
-  <si>
-    <t>Desc_cannon_small_1</t>
-  </si>
-  <si>
-    <t>Desc_cannon_small_2</t>
-  </si>
-  <si>
-    <t>Desc_cannon_small_3</t>
-  </si>
-  <si>
-    <t>Desc_gold_storage_1</t>
-  </si>
-  <si>
-    <t>Desc_gold_storage_2</t>
-  </si>
-  <si>
-    <t>Desc_gold_storage_3</t>
-  </si>
-  <si>
-    <t>Desc_mana_storage_1</t>
-  </si>
-  <si>
-    <t>Desc_mana_storage_2</t>
-  </si>
-  <si>
-    <t>Desc_mana_storage_3</t>
-  </si>
-  <si>
-    <t>Desc_barrack_1</t>
-  </si>
-  <si>
-    <t>Desc_barrack_2</t>
-  </si>
-  <si>
-    <t>Desc_barrack_3</t>
-  </si>
-  <si>
-    <t>Desc_bomb_1</t>
-  </si>
-  <si>
-    <t>Desc_bomb_2</t>
-  </si>
-  <si>
-    <t>Desc_bomb_3</t>
-  </si>
-  <si>
-    <t>Desc_worker_hut_1</t>
-  </si>
-  <si>
-    <t>Desc_worker_hut_2</t>
-  </si>
-  <si>
-    <t>Desc_worker_hut_3</t>
-  </si>
-  <si>
-    <t>Desc_anti_air_tower_1</t>
-  </si>
-  <si>
-    <t>Desc_anti_air_tower_2</t>
-  </si>
-  <si>
-    <t>Desc_anti_air_tower_3</t>
-  </si>
-  <si>
-    <t>Desc_mana_well_1</t>
-  </si>
-  <si>
-    <t>Desc_mana_well_2</t>
-  </si>
-  <si>
-    <t>Desc_mana_well_3</t>
   </si>
   <si>
     <t>Desc_Task1</t>
@@ -1062,10 +1065,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1093,18 +1096,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,24 +1117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,14 +1126,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1163,7 +1141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,9 +1155,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,42 +1234,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,13 +1298,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,43 +1394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,13 +1418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,79 +1448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,6 +1717,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1734,15 +1746,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,15 +1791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1811,6 +1805,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1819,145 +1822,145 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3517,12 +3520,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:E12"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3695,15 +3698,15 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="22" customFormat="1" spans="1:5">
-      <c r="A11" s="21" t="s">
+    <row r="11" s="25" customFormat="1" spans="1:5">
+      <c r="A11" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
@@ -3715,11 +3718,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" s="22" customFormat="1" spans="1:5">
-      <c r="A13" s="21" t="s">
+    <row r="13" s="25" customFormat="1" spans="1:5">
+      <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D13" s="27"/>
@@ -3752,8 +3755,8 @@
       <c r="C16" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16"/>
+      <c r="E16"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
@@ -3762,986 +3765,78 @@
       <c r="C17" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" s="25" customFormat="1" spans="1:5">
-      <c r="A18" s="29" t="s">
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" s="28" customFormat="1" spans="1:5">
+      <c r="A18" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" s="25" customFormat="1" spans="1:5">
-      <c r="A19" s="29" t="s">
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:5">
+      <c r="A19" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" s="25" customFormat="1" spans="1:5">
-      <c r="A20" s="29" t="s">
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="1:5">
+      <c r="A20" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" s="25" customFormat="1" spans="1:5">
-      <c r="A21" s="29" t="s">
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:5">
+      <c r="A21" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" s="25" customFormat="1" spans="1:5">
-      <c r="A22" s="29" t="s">
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:5">
+      <c r="A22" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" s="25" customFormat="1" spans="1:5">
-      <c r="A23" s="29" t="s">
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:5">
+      <c r="A23" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" s="25" customFormat="1" spans="1:5">
-      <c r="A24" s="29" t="s">
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:5">
+      <c r="A24" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" s="25" customFormat="1" spans="1:5">
-      <c r="A25" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" s="25" customFormat="1" spans="1:5">
-      <c r="A26" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" s="25" customFormat="1" spans="1:5">
-      <c r="A27" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" s="28" customFormat="1" spans="1:5">
-      <c r="A28" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" s="28" customFormat="1" spans="1:5">
-      <c r="A29" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" s="28" customFormat="1" spans="1:5">
-      <c r="A30" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" s="28" customFormat="1" spans="1:5">
-      <c r="A31" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" s="28" customFormat="1" spans="1:5">
-      <c r="A32" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" s="28" customFormat="1" spans="1:5">
-      <c r="A33" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" s="28" customFormat="1" spans="1:5">
-      <c r="A34" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" s="28" customFormat="1" spans="1:5">
-      <c r="A35" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" s="28" customFormat="1" spans="1:5">
-      <c r="A36" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" s="28" customFormat="1" spans="1:5">
-      <c r="A37" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" s="28" customFormat="1" spans="1:5">
-      <c r="A38" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" s="28" customFormat="1" spans="1:5">
-      <c r="A39" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" s="28" customFormat="1" spans="1:5">
-      <c r="A40" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" s="28" customFormat="1" spans="1:5">
-      <c r="A41" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" s="28" customFormat="1" spans="1:5">
-      <c r="A42" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" s="28" customFormat="1" spans="1:5">
-      <c r="A43" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" s="28" customFormat="1" spans="1:5">
-      <c r="A44" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" s="28" customFormat="1" spans="1:5">
-      <c r="A45" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" s="28" customFormat="1" spans="1:5">
-      <c r="A46" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" s="28" customFormat="1" spans="1:5">
-      <c r="A47" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" s="28" customFormat="1" spans="1:5">
-      <c r="A48" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" s="28" customFormat="1" spans="1:5">
-      <c r="A49" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" s="28" customFormat="1" spans="1:5">
-      <c r="A50" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32" t="s">
-        <v>290</v>
-      </c>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4759,9 +3854,1499 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" s="28" customFormat="1" spans="1:5">
+      <c r="A11" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:5">
+      <c r="A12" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:5">
+      <c r="A13" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:5">
+      <c r="A14" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:5">
+      <c r="A15" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:5">
+      <c r="A16" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" s="22" customFormat="1" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:5">
+      <c r="A12" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" s="22" customFormat="1" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" s="25" customFormat="1" spans="1:5">
+      <c r="A14" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:5">
+      <c r="A15" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" s="25" customFormat="1" spans="1:5">
+      <c r="A16" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="1:5">
+      <c r="A17" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" s="25" customFormat="1" spans="1:5">
+      <c r="A18" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" s="25" customFormat="1" spans="1:5">
+      <c r="A19" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" s="25" customFormat="1" spans="1:5">
+      <c r="A20" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:5">
+      <c r="A21" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:5">
+      <c r="A22" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:5">
+      <c r="A23" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:5">
+      <c r="A24" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:5">
+      <c r="A25" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:5">
+      <c r="A26" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:5">
+      <c r="A27" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:5">
+      <c r="A28" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:5">
+      <c r="A29" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="1:5">
+      <c r="A30" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="$A11:$XFD122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -1,34 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Property_comm" sheetId="1" r:id="rId1"/>
     <sheet name="Property_hero" sheetId="5" r:id="rId2"/>
     <sheet name="Property_item_gem" sheetId="6" r:id="rId3"/>
-    <sheet name="Property_item_scroll" sheetId="7" r:id="rId4"/>
-    <sheet name="Property_item_supply" sheetId="8" r:id="rId5"/>
-    <sheet name="Property_item_equipment" sheetId="3" r:id="rId6"/>
-    <sheet name="Property_task" sheetId="4" r:id="rId7"/>
+    <sheet name="Property_item_scroll_name" sheetId="7" r:id="rId4"/>
+    <sheet name="Property_item_scroll_desc" sheetId="12" r:id="rId5"/>
+    <sheet name="Property_item_supply" sheetId="8" r:id="rId6"/>
+    <sheet name="Property_item_equipment" sheetId="3" r:id="rId7"/>
+    <sheet name="Property_task" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="481">
   <si>
     <t>Id</t>
   </si>
@@ -547,351 +561,6 @@
     <t>毒属性宝石</t>
   </si>
   <si>
-    <t>NameID_HeroCard_1</t>
-  </si>
-  <si>
-    <t>英雄*卡1</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_2</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_3</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_4</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_5</t>
-  </si>
-  <si>
-    <t>NameID_HeroCard_6</t>
-  </si>
-  <si>
-    <t>NameID_dragon_cannon_1</t>
-  </si>
-  <si>
-    <t>火龙炮(一级)</t>
-  </si>
-  <si>
-    <t>NameID_dragon_cannon_2</t>
-  </si>
-  <si>
-    <t>火龙炮(二级)</t>
-  </si>
-  <si>
-    <t>NameID_dragon_cannon_3</t>
-  </si>
-  <si>
-    <t>火龙炮(三级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_mine_1</t>
-  </si>
-  <si>
-    <t>金矿(一级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_mine_2</t>
-  </si>
-  <si>
-    <t>金矿(二级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_mine_3</t>
-  </si>
-  <si>
-    <t>金矿(三级)</t>
-  </si>
-  <si>
-    <t>NameID_ballista_tower_1</t>
-  </si>
-  <si>
-    <t>箭塔(一级)</t>
-  </si>
-  <si>
-    <t>NameID_ballista_tower_2</t>
-  </si>
-  <si>
-    <t>箭塔(二级)</t>
-  </si>
-  <si>
-    <t>NameID_ballista_tower_3</t>
-  </si>
-  <si>
-    <t>箭塔(三级)</t>
-  </si>
-  <si>
-    <t>NameID_townhall_1</t>
-  </si>
-  <si>
-    <t>庇护所(一级)</t>
-  </si>
-  <si>
-    <t>NameID_townhall_2</t>
-  </si>
-  <si>
-    <t>庇护所(二级)</t>
-  </si>
-  <si>
-    <t>NameID_townhall_3</t>
-  </si>
-  <si>
-    <t>庇护所(三级)</t>
-  </si>
-  <si>
-    <t>NameID_cannon_small_1</t>
-  </si>
-  <si>
-    <t>传送营地(一级)</t>
-  </si>
-  <si>
-    <t>NameID_cannon_small_2</t>
-  </si>
-  <si>
-    <t>传送营地(二级)</t>
-  </si>
-  <si>
-    <t>NameID_cannon_small_3</t>
-  </si>
-  <si>
-    <t>传送营地(三级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_storage_1</t>
-  </si>
-  <si>
-    <t>储金罐(一级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_storage_2</t>
-  </si>
-  <si>
-    <t>储金罐(二级)</t>
-  </si>
-  <si>
-    <t>NameID_gold_storage_3</t>
-  </si>
-  <si>
-    <t>储金罐(三级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_storage_1</t>
-  </si>
-  <si>
-    <t>圣水瓶(一级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_storage_2</t>
-  </si>
-  <si>
-    <t>圣水瓶(二级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_storage_3</t>
-  </si>
-  <si>
-    <t>圣水瓶(三级)</t>
-  </si>
-  <si>
-    <t>NameID_barrack_1</t>
-  </si>
-  <si>
-    <t>军营(一级)</t>
-  </si>
-  <si>
-    <t>NameID_barrack_2</t>
-  </si>
-  <si>
-    <t>军营(二级)</t>
-  </si>
-  <si>
-    <t>NameID_barrack_3</t>
-  </si>
-  <si>
-    <t>军营(三级)</t>
-  </si>
-  <si>
-    <t>NameID_bomb_1</t>
-  </si>
-  <si>
-    <t>炸弹(一级)</t>
-  </si>
-  <si>
-    <t>NameID_bomb_2</t>
-  </si>
-  <si>
-    <t>炸弹(二级)</t>
-  </si>
-  <si>
-    <t>NameID_bomb_3</t>
-  </si>
-  <si>
-    <t>炸弹(三级)</t>
-  </si>
-  <si>
-    <t>NameID_worker_hut_1</t>
-  </si>
-  <si>
-    <t>铁匠铺(一级)</t>
-  </si>
-  <si>
-    <t>NameID_worker_hut_2</t>
-  </si>
-  <si>
-    <t>铁匠铺(二级)</t>
-  </si>
-  <si>
-    <t>NameID_worker_hut_3</t>
-  </si>
-  <si>
-    <t>铁匠铺(三级)</t>
-  </si>
-  <si>
-    <t>NameID_anti_air_tower_1</t>
-  </si>
-  <si>
-    <t>防空火箭(一级)</t>
-  </si>
-  <si>
-    <t>NameID_anti_air_tower_2</t>
-  </si>
-  <si>
-    <t>防空火箭(二级)</t>
-  </si>
-  <si>
-    <t>NameID_anti_air_tower_3</t>
-  </si>
-  <si>
-    <t>防空火箭(三级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_well_1</t>
-  </si>
-  <si>
-    <t>圣水收集器(一级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_well_2</t>
-  </si>
-  <si>
-    <t>圣水收集器(二级)</t>
-  </si>
-  <si>
-    <t>NameID_mana_well_3</t>
-  </si>
-  <si>
-    <t>圣水收集器(三级)</t>
-  </si>
-  <si>
-    <t>Desc_dragon_cannon_1</t>
-  </si>
-  <si>
-    <t>Desc_dragon_cannon_2</t>
-  </si>
-  <si>
-    <t>Desc_dragon_cannon_3</t>
-  </si>
-  <si>
-    <t>Desc_gold_mine_1</t>
-  </si>
-  <si>
-    <t>Desc_gold_mine_2</t>
-  </si>
-  <si>
-    <t>Desc_gold_mine_3</t>
-  </si>
-  <si>
-    <t>Desc_ballista_tower_1</t>
-  </si>
-  <si>
-    <t>Desc_ballista_tower_2</t>
-  </si>
-  <si>
-    <t>Desc_ballista_tower_3</t>
-  </si>
-  <si>
-    <t>Desc_townhall_1</t>
-  </si>
-  <si>
-    <t>Desc_townhall_2</t>
-  </si>
-  <si>
-    <t>Desc_townhall_3</t>
-  </si>
-  <si>
-    <t>Desc_cannon_small_1</t>
-  </si>
-  <si>
-    <t>Desc_cannon_small_2</t>
-  </si>
-  <si>
-    <t>Desc_cannon_small_3</t>
-  </si>
-  <si>
-    <t>Desc_gold_storage_1</t>
-  </si>
-  <si>
-    <t>Desc_gold_storage_2</t>
-  </si>
-  <si>
-    <t>Desc_gold_storage_3</t>
-  </si>
-  <si>
-    <t>Desc_mana_storage_1</t>
-  </si>
-  <si>
-    <t>Desc_mana_storage_2</t>
-  </si>
-  <si>
-    <t>Desc_mana_storage_3</t>
-  </si>
-  <si>
-    <t>Desc_barrack_1</t>
-  </si>
-  <si>
-    <t>Desc_barrack_2</t>
-  </si>
-  <si>
-    <t>Desc_barrack_3</t>
-  </si>
-  <si>
-    <t>Desc_bomb_1</t>
-  </si>
-  <si>
-    <t>Desc_bomb_2</t>
-  </si>
-  <si>
-    <t>Desc_bomb_3</t>
-  </si>
-  <si>
-    <t>Desc_worker_hut_1</t>
-  </si>
-  <si>
-    <t>Desc_worker_hut_2</t>
-  </si>
-  <si>
-    <t>Desc_worker_hut_3</t>
-  </si>
-  <si>
-    <t>Desc_anti_air_tower_1</t>
-  </si>
-  <si>
-    <t>Desc_anti_air_tower_2</t>
-  </si>
-  <si>
-    <t>Desc_anti_air_tower_3</t>
-  </si>
-  <si>
-    <t>Desc_mana_well_1</t>
-  </si>
-  <si>
-    <t>Desc_mana_well_2</t>
-  </si>
-  <si>
-    <t>Desc_mana_well_3</t>
-  </si>
-  <si>
     <t>Desc_Gold_Item1</t>
   </si>
   <si>
@@ -1058,19 +727,772 @@
   </si>
   <si>
     <t>宝石给英雄升星</t>
+  </si>
+  <si>
+    <t>Name_Item_town_1</t>
+  </si>
+  <si>
+    <t>Name_Item_town_2</t>
+  </si>
+  <si>
+    <t>Name_Item_town_3</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_mine_1</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_mine_2</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_mine_3</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_store_1</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_store_2</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_store_3</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_store_1</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_store_2</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_store_3</t>
+  </si>
+  <si>
+    <t>Name_Item_connon_1</t>
+  </si>
+  <si>
+    <t>Name_Item_connon_2</t>
+  </si>
+  <si>
+    <t>Name_Item_connon_3</t>
+  </si>
+  <si>
+    <t>Name_Item_acid_1</t>
+  </si>
+  <si>
+    <t>Name_Item_acid_2</t>
+  </si>
+  <si>
+    <t>Name_Item_acid_3</t>
+  </si>
+  <si>
+    <t>Name_Item_tesla_1</t>
+  </si>
+  <si>
+    <t>Name_Item_tesla_2</t>
+  </si>
+  <si>
+    <t>Name_Item_tesla_3</t>
+  </si>
+  <si>
+    <t>Name_Item_x_bow_1</t>
+  </si>
+  <si>
+    <t>Name_Item_x_bow_2</t>
+  </si>
+  <si>
+    <t>Name_Item_x_bow_3</t>
+  </si>
+  <si>
+    <t>Name_Item_crystal_1</t>
+  </si>
+  <si>
+    <t>Name_Item_crystal_2</t>
+  </si>
+  <si>
+    <t>Name_Item_crystal_3</t>
+  </si>
+  <si>
+    <t>Name_Item_fire_1</t>
+  </si>
+  <si>
+    <t>Name_Item_fire_2</t>
+  </si>
+  <si>
+    <t>Name_Item_fire_3</t>
+  </si>
+  <si>
+    <t>Name_Item_gatling_1</t>
+  </si>
+  <si>
+    <t>Name_Item_gatling_2</t>
+  </si>
+  <si>
+    <t>Name_Item_gatling_3</t>
+  </si>
+  <si>
+    <t>Name_Item_gauss_1</t>
+  </si>
+  <si>
+    <t>Name_Item_gauss_2</t>
+  </si>
+  <si>
+    <t>Name_Item_gauss_3</t>
+  </si>
+  <si>
+    <t>Name_Item_hammer_1</t>
+  </si>
+  <si>
+    <t>Name_Item_hammer_2</t>
+  </si>
+  <si>
+    <t>Name_Item_hammer_3</t>
+  </si>
+  <si>
+    <t>Name_Item_laser_1</t>
+  </si>
+  <si>
+    <t>Name_Item_laser_2</t>
+  </si>
+  <si>
+    <t>Name_Item_laser_3</t>
+  </si>
+  <si>
+    <t>Name_Item_macginegun_1</t>
+  </si>
+  <si>
+    <t>Name_Item_macginegun_2</t>
+  </si>
+  <si>
+    <t>Name_Item_macginegun_3</t>
+  </si>
+  <si>
+    <t>Name_Item_mortar_1</t>
+  </si>
+  <si>
+    <t>Name_Item_mortar_2</t>
+  </si>
+  <si>
+    <t>Name_Item_mortar_3</t>
+  </si>
+  <si>
+    <t>Name_Item_plasma_1</t>
+  </si>
+  <si>
+    <t>Name_Item_plasma_2</t>
+  </si>
+  <si>
+    <t>Name_Item_plasma_3</t>
+  </si>
+  <si>
+    <t>Name_Item_radar_1</t>
+  </si>
+  <si>
+    <t>Name_Item_radar_2</t>
+  </si>
+  <si>
+    <t>Name_Item_radar_3</t>
+  </si>
+  <si>
+    <t>Name_Item_rocket_1</t>
+  </si>
+  <si>
+    <t>Name_Item_rocket_2</t>
+  </si>
+  <si>
+    <t>Name_Item_rocket_3</t>
+  </si>
+  <si>
+    <t>Name_Item_rcopter_1</t>
+  </si>
+  <si>
+    <t>Name_Item_rcopter_2</t>
+  </si>
+  <si>
+    <t>Name_Item_rcopter_3</t>
+  </si>
+  <si>
+    <t>Name_Item_airship_1</t>
+  </si>
+  <si>
+    <t>Name_Item_airship_2</t>
+  </si>
+  <si>
+    <t>Name_Item_airship_3</t>
+  </si>
+  <si>
+    <t>Name_Item_bomb_1</t>
+  </si>
+  <si>
+    <t>Name_Item_bomb_2</t>
+  </si>
+  <si>
+    <t>Name_Item_bomb_3</t>
+  </si>
+  <si>
+    <t>Name_Item_trap_1</t>
+  </si>
+  <si>
+    <t>Name_Item_trap_2</t>
+  </si>
+  <si>
+    <t>Name_Item_trap_3</t>
+  </si>
+  <si>
+    <t>Name_Item_spine_1</t>
+  </si>
+  <si>
+    <t>Name_Item_spine_2</t>
+  </si>
+  <si>
+    <t>Name_Item_spine_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_town_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_town_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_town_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_mine_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_mine_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_mine_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_store_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_store_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_store_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_store_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_store_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_store_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_connon_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_connon_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_connon_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_acid_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_acid_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_acid_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_tesla_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_tesla_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_tesla_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_x_bow_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_x_bow_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_x_bow_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_crystal_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_crystal_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_crystal_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_fire_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_fire_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_fire_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gatling_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gatling_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gatling_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gauss_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gauss_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gauss_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_hammer_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_hammer_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_hammer_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_laser_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_laser_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_laser_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_macginegun_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_macginegun_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_macginegun_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_mortar_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_mortar_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_mortar_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_plasma_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_plasma_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_plasma_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_radar_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_radar_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_radar_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_rocket_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_rocket_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_rocket_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_rcopter_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_rcopter_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_rcopter_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_airship_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_airship_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_airship_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_bomb_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_bomb_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_bomb_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_trap_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_trap_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_trap_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_spine_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_spine_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_spine_3</t>
+  </si>
+  <si>
+    <t>NameID_Card_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>NameID_Card_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>NameID_Card_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>NameID_Card_Samurai</t>
+  </si>
+  <si>
+    <t>Desc_Card_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>Desc_Card_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>Desc_Card_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>Desc_Card_Samurai</t>
+  </si>
+  <si>
+    <t>食人兽·英雄卷轴</t>
+  </si>
+  <si>
+    <t>矮人·英雄卷轴</t>
+  </si>
+  <si>
+    <t>鼠人·英雄卷轴</t>
+  </si>
+  <si>
+    <t>溪涧武士·英雄卷轴</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄 食人兽 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄 矮人 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄  溪涧武士 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄 鼠人 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>营地·一级</t>
+  </si>
+  <si>
+    <t>营地·二级</t>
+  </si>
+  <si>
+    <t>营地·三级</t>
+  </si>
+  <si>
+    <t>金矿·一级</t>
+  </si>
+  <si>
+    <t>金矿·二级</t>
+  </si>
+  <si>
+    <t>金矿·三级</t>
+  </si>
+  <si>
+    <t>能源收集器·一级</t>
+  </si>
+  <si>
+    <t>能源收集器·二级</t>
+  </si>
+  <si>
+    <t>能源收集器·三级</t>
+  </si>
+  <si>
+    <t>能源存储器·一级</t>
+  </si>
+  <si>
+    <t>能源存储器·二级</t>
+  </si>
+  <si>
+    <t>能源存储器·三级</t>
+  </si>
+  <si>
+    <t>储金罐·一级</t>
+  </si>
+  <si>
+    <t>储金罐·二级</t>
+  </si>
+  <si>
+    <t>储金罐·三级</t>
+  </si>
+  <si>
+    <t>加农炮·三级</t>
+  </si>
+  <si>
+    <t>加农炮·一级</t>
+  </si>
+  <si>
+    <t>加农炮·二级</t>
+  </si>
+  <si>
+    <t>减甲炮·一级</t>
+  </si>
+  <si>
+    <t>减甲炮·二级</t>
+  </si>
+  <si>
+    <t>减甲炮·三级</t>
+  </si>
+  <si>
+    <t>穿刺弩·一级</t>
+  </si>
+  <si>
+    <t>穿刺弩·二级</t>
+  </si>
+  <si>
+    <t>穿刺弩·三级</t>
+  </si>
+  <si>
+    <t>火焰发射器·一级</t>
+  </si>
+  <si>
+    <t>火焰发射器·二级</t>
+  </si>
+  <si>
+    <t>火焰发射器·三级</t>
+  </si>
+  <si>
+    <t>加特林机枪·一级</t>
+  </si>
+  <si>
+    <t>加特林机枪·二级</t>
+  </si>
+  <si>
+    <t>加特林机枪·三级</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·一级</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·二级</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·三级</t>
+  </si>
+  <si>
+    <t>特斯拉雷射器·一级</t>
+  </si>
+  <si>
+    <t>特斯拉雷射器·二级</t>
+  </si>
+  <si>
+    <t>特斯拉雷射器·三级</t>
+  </si>
+  <si>
+    <t>重锤·一级</t>
+  </si>
+  <si>
+    <t>重锤·二级</t>
+  </si>
+  <si>
+    <t>重锤·三级</t>
+  </si>
+  <si>
+    <t>镭射激光器·一级</t>
+  </si>
+  <si>
+    <t>镭射激光器·二级</t>
+  </si>
+  <si>
+    <t>镭射激光器·三级</t>
+  </si>
+  <si>
+    <t>麦肯锡机枪·一级</t>
+  </si>
+  <si>
+    <t>麦肯锡机枪·二级</t>
+  </si>
+  <si>
+    <t>麦肯锡机枪·三级</t>
+  </si>
+  <si>
+    <t>迫击炮·一级</t>
+  </si>
+  <si>
+    <t>迫击炮·二级</t>
+  </si>
+  <si>
+    <t>迫击炮·三级</t>
+  </si>
+  <si>
+    <t>等离子炮·一级</t>
+  </si>
+  <si>
+    <t>等离子炮·二级</t>
+  </si>
+  <si>
+    <t>等离子炮·三级</t>
+  </si>
+  <si>
+    <t>雷达·一级</t>
+  </si>
+  <si>
+    <t>雷达·二级</t>
+  </si>
+  <si>
+    <t>雷达·三级</t>
+  </si>
+  <si>
+    <t>火箭·一级</t>
+  </si>
+  <si>
+    <t>火箭·二级</t>
+  </si>
+  <si>
+    <t>火箭·三级</t>
+  </si>
+  <si>
+    <t>直升机·一级</t>
+  </si>
+  <si>
+    <t>直升机·二级</t>
+  </si>
+  <si>
+    <t>直升机·三级</t>
+  </si>
+  <si>
+    <t>飞船·一级</t>
+  </si>
+  <si>
+    <t>飞船·二级</t>
+  </si>
+  <si>
+    <t>飞船·三级</t>
+  </si>
+  <si>
+    <t>炸弹·一级</t>
+  </si>
+  <si>
+    <t>炸弹·二级</t>
+  </si>
+  <si>
+    <t>炸弹·三级</t>
+  </si>
+  <si>
+    <t>麻痹陷阱·一级</t>
+  </si>
+  <si>
+    <t>麻痹陷阱·二级</t>
+  </si>
+  <si>
+    <t>麻痹陷阱·三级</t>
+  </si>
+  <si>
+    <t>穿刺陷阱·一级</t>
+  </si>
+  <si>
+    <t>穿刺陷阱·二级</t>
+  </si>
+  <si>
+    <t>穿刺陷阱·三级</t>
+  </si>
+  <si>
+    <t>警戒塔·一级</t>
+  </si>
+  <si>
+    <t>警戒塔·二级</t>
+  </si>
+  <si>
+    <t>警戒塔·三级</t>
+  </si>
+  <si>
+    <t>警戒塔·一级 - 启动需要消耗能源 10点每小时，可探测6米内的可见单位</t>
+  </si>
+  <si>
+    <t>警戒塔·二级 - 启动需要消耗能源 20点每小时，可探测10米内的可见单位</t>
+  </si>
+  <si>
+    <t>警戒塔·三级 - 启动需要消耗能源 30点每小时，可探测15米内的可见单位</t>
+  </si>
+  <si>
+    <t>战斗飞船·一级</t>
+  </si>
+  <si>
+    <t>战斗飞船·二级</t>
+  </si>
+  <si>
+    <t>战斗飞船·三级</t>
+  </si>
+  <si>
+    <t>武装直升机·一级</t>
+  </si>
+  <si>
+    <t>武装直升机·二级</t>
+  </si>
+  <si>
+    <t>武装直升机·三级</t>
+  </si>
+  <si>
+    <t>雷达·三级 - 启动需要消耗能源 200点每小时，工会驻地的最佳防御武器，可探测15米内的隐形单位，如探测到敌对单位，将自动召唤15米内的战斗飞船(如有)进行攻击</t>
+  </si>
+  <si>
+    <t>雷达·二级 - 启动需要消耗能源 100点每小时，工会驻地的最佳防御武器，可探测10米内的隐形单位，如探测到敌对单位，将自动召唤10米内直升机(如有)进行攻击</t>
+  </si>
+  <si>
+    <t>雷达·一级 - 启动需要消耗能源 50点每小时，工会驻地的最佳防御武器，可探测6米内的隐形单位，如探测到敌对单位，将自动召唤6米内的火箭导弹进行攻击</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1095,159 +1517,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,7 +1539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,186 +1569,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1716,255 +1813,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,58 +1955,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2484,29 +2307,28 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -2591,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -2608,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -2625,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2659,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +2490,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="24" customFormat="1" spans="1:3">
+    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +2501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:3">
+    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
         <v>18</v>
       </c>
@@ -2690,7 +2512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" spans="1:3">
+    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
@@ -2701,7 +2523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:3">
+    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41" t="s">
         <v>24</v>
       </c>
@@ -2712,7 +2534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" spans="1:3">
+    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41" t="s">
         <v>27</v>
       </c>
@@ -2723,7 +2545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" spans="1:3">
+    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41" t="s">
         <v>30</v>
       </c>
@@ -2734,7 +2556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" s="24" customFormat="1" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41" t="s">
         <v>33</v>
       </c>
@@ -2745,7 +2567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
         <v>35</v>
       </c>
@@ -2756,7 +2578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
         <v>37</v>
       </c>
@@ -2767,7 +2589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
         <v>39</v>
       </c>
@@ -2778,7 +2600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
         <v>41</v>
       </c>
@@ -2789,7 +2611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
@@ -2800,7 +2622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
         <v>45</v>
       </c>
@@ -2811,7 +2633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
         <v>47</v>
       </c>
@@ -2822,7 +2644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" s="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38" t="s">
         <v>49</v>
       </c>
@@ -2833,7 +2655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38" t="s">
         <v>51</v>
       </c>
@@ -2844,7 +2666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38" t="s">
         <v>54</v>
       </c>
@@ -2855,7 +2677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:3">
+    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38" t="s">
         <v>57</v>
       </c>
@@ -2866,7 +2688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:3">
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38" t="s">
         <v>60</v>
       </c>
@@ -2877,7 +2699,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:3">
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38" t="s">
         <v>63</v>
       </c>
@@ -2888,7 +2710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:3">
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38" t="s">
         <v>66</v>
       </c>
@@ -2899,7 +2721,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:3">
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38" t="s">
         <v>69</v>
       </c>
@@ -2910,7 +2732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:3">
+    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38" t="s">
         <v>72</v>
       </c>
@@ -2921,7 +2743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:3">
+    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38" t="s">
         <v>75</v>
       </c>
@@ -2932,7 +2754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:3">
+    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="38" t="s">
         <v>78</v>
       </c>
@@ -2943,7 +2765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:3">
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
         <v>81</v>
       </c>
@@ -2954,7 +2776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:3">
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="38" t="s">
         <v>84</v>
       </c>
@@ -2965,7 +2787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:3">
+    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
         <v>87</v>
       </c>
@@ -2976,7 +2798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:3">
+    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="38" t="s">
         <v>90</v>
       </c>
@@ -2987,7 +2809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:3">
+    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
         <v>93</v>
       </c>
@@ -2998,7 +2820,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:3">
+    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
         <v>96</v>
       </c>
@@ -3009,7 +2831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:3">
+    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
         <v>99</v>
       </c>
@@ -3020,7 +2842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:3">
+    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="38" t="s">
         <v>102</v>
       </c>
@@ -3031,7 +2853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:3">
+    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="38" t="s">
         <v>105</v>
       </c>
@@ -3042,7 +2864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:3">
+    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="38" t="s">
         <v>108</v>
       </c>
@@ -3053,7 +2875,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:3">
+    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="38" t="s">
         <v>111</v>
       </c>
@@ -3064,7 +2886,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:3">
+    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="38" t="s">
         <v>114</v>
       </c>
@@ -3075,7 +2897,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:3">
+    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="38" t="s">
         <v>117</v>
       </c>
@@ -3093,32 +2915,30 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E10"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +2955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +2972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -3186,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -3203,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3220,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3237,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3254,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3280,7 +3100,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="25" customFormat="1" spans="1:5">
+    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
         <v>120</v>
       </c>
@@ -3293,7 +3113,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" s="25" customFormat="1" spans="1:5">
+    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34" t="s">
         <v>123</v>
       </c>
@@ -3306,7 +3126,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" s="25" customFormat="1" spans="1:5">
+    <row r="13" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34" t="s">
         <v>126</v>
       </c>
@@ -3319,7 +3139,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" s="25" customFormat="1" ht="14.25" spans="1:5">
+    <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
         <v>129</v>
       </c>
@@ -3332,7 +3152,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" s="25" customFormat="1" ht="81" spans="1:5">
+    <row r="15" spans="1:5" s="25" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A15" s="35" t="s">
         <v>132</v>
       </c>
@@ -3345,7 +3165,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" s="25" customFormat="1" spans="1:5">
+    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="37" t="s">
         <v>135</v>
       </c>
@@ -3358,7 +3178,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" s="25" customFormat="1" spans="1:5">
+    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="37" t="s">
         <v>138</v>
       </c>
@@ -3371,7 +3191,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" s="25" customFormat="1" spans="1:5">
+    <row r="18" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
         <v>141</v>
       </c>
@@ -3384,123 +3204,123 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48"/>
       <c r="E48"/>
     </row>
@@ -3511,32 +3331,30 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD30"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3570,7 +3388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -3587,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -3604,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -3621,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3638,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3655,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3672,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3689,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3698,7 +3516,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="25" customFormat="1" spans="1:5">
+    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>144</v>
       </c>
@@ -3708,7 +3526,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" s="25" customFormat="1" spans="1:5">
+    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>146</v>
       </c>
@@ -3718,7 +3536,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" s="25" customFormat="1" spans="1:5">
+    <row r="13" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -3728,7 +3546,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" s="25" customFormat="1" spans="1:5">
+    <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>150</v>
       </c>
@@ -3738,7 +3556,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" s="25" customFormat="1" spans="1:5">
+    <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>152</v>
       </c>
@@ -3748,7 +3566,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" s="25" customFormat="1" spans="1:5">
+    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>154</v>
       </c>
@@ -3758,7 +3576,7 @@
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" s="25" customFormat="1" spans="1:5">
+    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
         <v>156</v>
       </c>
@@ -3768,7 +3586,7 @@
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:5">
+    <row r="18" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
         <v>158</v>
       </c>
@@ -3778,7 +3596,7 @@
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:5">
+    <row r="19" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>160</v>
       </c>
@@ -3788,7 +3606,7 @@
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:5">
+    <row r="20" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>162</v>
       </c>
@@ -3798,7 +3616,7 @@
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:5">
+    <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
         <v>164</v>
       </c>
@@ -3808,7 +3626,7 @@
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:5">
+    <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30" t="s">
         <v>166</v>
       </c>
@@ -3818,7 +3636,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:5">
+    <row r="23" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
         <v>168</v>
       </c>
@@ -3828,7 +3646,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:5">
+    <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
         <v>170</v>
       </c>
@@ -3845,32 +3663,30 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -3938,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -3955,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3972,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3989,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4006,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4023,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4032,713 +3848,2019 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:5">
-      <c r="A11" s="30" t="s">
-        <v>172</v>
+    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>173</v>
+        <v>386</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:5">
-      <c r="A12" s="30" t="s">
-        <v>174</v>
+    <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49" t="s">
+        <v>379</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>173</v>
+        <v>387</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" s="28" customFormat="1" spans="1:5">
-      <c r="A13" s="30" t="s">
-        <v>175</v>
+    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49" t="s">
+        <v>380</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>173</v>
+        <v>388</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" s="28" customFormat="1" spans="1:5">
-      <c r="A14" s="30" t="s">
-        <v>176</v>
+    <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="49" t="s">
+        <v>381</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>173</v>
+        <v>389</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:5">
-      <c r="A15" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" s="28" customFormat="1" spans="1:5">
-      <c r="A16" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="32" t="s">
-        <v>179</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>230</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="32" t="s">
-        <v>181</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="45" t="s">
+        <v>231</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="32" t="s">
-        <v>183</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="45" t="s">
+        <v>232</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="32" t="s">
-        <v>185</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="45" t="s">
+        <v>233</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="32" t="s">
-        <v>187</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>234</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="32" t="s">
-        <v>189</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="45" t="s">
+        <v>235</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="32" t="s">
-        <v>191</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="45" t="s">
+        <v>236</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="32" t="s">
-        <v>193</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="45" t="s">
+        <v>237</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="32" t="s">
-        <v>195</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="45" t="s">
+        <v>238</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="32" t="s">
-        <v>197</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="45" t="s">
+        <v>239</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="32" t="s">
-        <v>199</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="45" t="s">
+        <v>240</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="32" t="s">
-        <v>201</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="45" t="s">
+        <v>241</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="32" t="s">
-        <v>203</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="45" t="s">
+        <v>242</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="32" t="s">
-        <v>205</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="32" t="s">
-        <v>207</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="45" t="s">
+        <v>244</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="32" t="s">
-        <v>209</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="45" t="s">
+        <v>245</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="32" t="s">
-        <v>211</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="45" t="s">
+        <v>246</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="32" t="s">
-        <v>213</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="45" t="s">
+        <v>247</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="32" t="s">
-        <v>215</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="32" t="s">
-        <v>217</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="32" t="s">
-        <v>219</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="45" t="s">
+        <v>250</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="32" t="s">
-        <v>221</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="32" t="s">
-        <v>223</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="32" t="s">
-        <v>225</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="32" t="s">
-        <v>227</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="45" t="s">
+        <v>254</v>
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="32" t="s">
-        <v>229</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="45" t="s">
+        <v>255</v>
       </c>
       <c r="B42" s="32"/>
       <c r="C42" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="32" t="s">
-        <v>231</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="45" t="s">
+        <v>256</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="32" t="s">
-        <v>233</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="45" t="s">
+        <v>257</v>
       </c>
       <c r="B44" s="32"/>
       <c r="C44" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="32" t="s">
-        <v>235</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="45" t="s">
+        <v>258</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="32" t="s">
-        <v>237</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="B46" s="32"/>
       <c r="C46" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="32" t="s">
-        <v>239</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="B47" s="32"/>
       <c r="C47" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="32" t="s">
-        <v>241</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="45" t="s">
+        <v>261</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="32" t="s">
-        <v>243</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="45" t="s">
+        <v>262</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="32" t="s">
-        <v>245</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="45" t="s">
+        <v>263</v>
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="32" t="s">
-        <v>247</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="45" t="s">
+        <v>264</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="32" t="s">
-        <v>249</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="32" t="s">
-        <v>251</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="45" t="s">
+        <v>266</v>
       </c>
       <c r="B53" s="32"/>
       <c r="C53" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="32" t="s">
-        <v>252</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="45" t="s">
+        <v>267</v>
       </c>
       <c r="B54" s="32"/>
       <c r="C54" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="32" t="s">
-        <v>253</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="45" t="s">
+        <v>268</v>
       </c>
       <c r="B55" s="32"/>
       <c r="C55" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="32" t="s">
-        <v>254</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="45" t="s">
+        <v>269</v>
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="32" t="s">
-        <v>255</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="45" t="s">
+        <v>270</v>
       </c>
       <c r="B57" s="32"/>
       <c r="C57" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="32" t="s">
-        <v>256</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="45" t="s">
+        <v>271</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="32" t="s">
-        <v>257</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="45" t="s">
+        <v>272</v>
       </c>
       <c r="B59" s="32"/>
       <c r="C59" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="32" t="s">
-        <v>258</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="45" t="s">
+        <v>273</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="32" t="s">
-        <v>259</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="45" t="s">
+        <v>274</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="32" t="s">
-        <v>260</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="45" t="s">
+        <v>275</v>
       </c>
       <c r="B62" s="32"/>
       <c r="C62" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="32" t="s">
-        <v>261</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="45" t="s">
+        <v>276</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="32" t="s">
-        <v>262</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="45" t="s">
+        <v>277</v>
       </c>
       <c r="B64" s="32"/>
       <c r="C64" s="32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="32" t="s">
-        <v>263</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="45" t="s">
+        <v>278</v>
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="32" t="s">
-        <v>264</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="32" t="s">
-        <v>265</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="45" t="s">
+        <v>280</v>
       </c>
       <c r="B67" s="32"/>
       <c r="C67" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="32" t="s">
-        <v>266</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="45" t="s">
+        <v>281</v>
       </c>
       <c r="B68" s="32"/>
       <c r="C68" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="32" t="s">
-        <v>267</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="45" t="s">
+        <v>282</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="32" t="s">
-        <v>268</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="45" t="s">
+        <v>283</v>
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="32" t="s">
-        <v>269</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="45" t="s">
+        <v>284</v>
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="32" t="s">
-        <v>270</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="45" t="s">
+        <v>285</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="32" t="s">
-        <v>271</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="45" t="s">
+        <v>286</v>
       </c>
       <c r="B73" s="32"/>
       <c r="C73" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="32" t="s">
-        <v>272</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="32" t="s">
-        <v>273</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="B75" s="32"/>
       <c r="C75" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="32" t="s">
-        <v>274</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="B76" s="32"/>
       <c r="C76" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="32" t="s">
-        <v>275</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="45" t="s">
+        <v>290</v>
       </c>
       <c r="B77" s="32"/>
       <c r="C77" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="32" t="s">
-        <v>276</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="B78" s="32"/>
       <c r="C78" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="32" t="s">
-        <v>277</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="45" t="s">
+        <v>292</v>
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="32" t="s">
-        <v>278</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="45" t="s">
+        <v>293</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="32" t="s">
-        <v>279</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="32" t="s">
-        <v>280</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="45" t="s">
+        <v>295</v>
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="32" t="s">
-        <v>281</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="45" t="s">
+        <v>296</v>
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="32" t="s">
-        <v>282</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="45" t="s">
+        <v>297</v>
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="32" t="s">
-        <v>283</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="45" t="s">
+        <v>298</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="32" t="s">
-        <v>284</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="45" t="s">
+        <v>299</v>
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="32" t="s">
-        <v>285</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="45" t="s">
+        <v>300</v>
       </c>
       <c r="B87" s="32"/>
       <c r="C87" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="32" t="s">
-        <v>286</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="45" t="s">
+        <v>301</v>
       </c>
       <c r="B88" s="32"/>
       <c r="C88" s="32" t="s">
-        <v>250</v>
-      </c>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4747,32 +5869,30 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E30"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD36"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A11:XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4789,7 +5909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -4806,7 +5926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -4840,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -4857,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -4874,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4908,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4925,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4933,206 +6053,6 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-    </row>
-    <row r="11" s="22" customFormat="1" spans="1:5">
-      <c r="A11" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" s="25" customFormat="1" spans="1:5">
-      <c r="A12" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" s="22" customFormat="1" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" s="25" customFormat="1" spans="1:5">
-      <c r="A14" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" s="25" customFormat="1" spans="1:5">
-      <c r="A15" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" s="25" customFormat="1" spans="1:5">
-      <c r="A16" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" s="25" customFormat="1" spans="1:5">
-      <c r="A17" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" s="25" customFormat="1" spans="1:5">
-      <c r="A18" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" s="25" customFormat="1" spans="1:5">
-      <c r="A19" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" s="25" customFormat="1" spans="1:5">
-      <c r="A20" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" s="28" customFormat="1" spans="1:5">
-      <c r="A21" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" s="28" customFormat="1" spans="1:5">
-      <c r="A22" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" s="28" customFormat="1" spans="1:5">
-      <c r="A23" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" s="28" customFormat="1" spans="1:5">
-      <c r="A24" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" s="28" customFormat="1" spans="1:5">
-      <c r="A25" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" s="28" customFormat="1" spans="1:5">
-      <c r="A26" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" s="28" customFormat="1" spans="1:5">
-      <c r="A27" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" s="28" customFormat="1" spans="1:5">
-      <c r="A28" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" s="28" customFormat="1" spans="1:5">
-      <c r="A29" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" s="28" customFormat="1" spans="1:5">
-      <c r="A30" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5141,32 +6061,30 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="$A11:$XFD122"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5183,7 +6101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -5200,7 +6118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -5217,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -5234,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -5251,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -5268,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -5285,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -5302,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5319,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -5327,6 +6245,214 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D48"/>
+      <c r="E48"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5335,409 +6461,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="31.8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.4" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="D48"/>
-      <c r="E48"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Property_comm" sheetId="1" r:id="rId1"/>
-    <sheet name="Property_hero" sheetId="5" r:id="rId2"/>
-    <sheet name="Property_item_gem" sheetId="6" r:id="rId3"/>
-    <sheet name="Property_item_scroll_name" sheetId="7" r:id="rId4"/>
-    <sheet name="Property_item_scroll_desc" sheetId="12" r:id="rId5"/>
-    <sheet name="Property_item_supply" sheetId="8" r:id="rId6"/>
-    <sheet name="Property_item_equipment" sheetId="3" r:id="rId7"/>
-    <sheet name="Property_task" sheetId="4" r:id="rId8"/>
+    <sheet name="Property_ui" sheetId="13" r:id="rId1"/>
+    <sheet name="Property_comm" sheetId="1" r:id="rId2"/>
+    <sheet name="Property_hero" sheetId="5" r:id="rId3"/>
+    <sheet name="Property_item_gem" sheetId="6" r:id="rId4"/>
+    <sheet name="Property_item_scroll_name" sheetId="7" r:id="rId5"/>
+    <sheet name="Property_item_scroll_desc" sheetId="12" r:id="rId6"/>
+    <sheet name="Property_item_supply" sheetId="8" r:id="rId7"/>
+    <sheet name="Property_item_equipment" sheetId="3" r:id="rId8"/>
+    <sheet name="Property_task" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="483">
   <si>
     <t>Id</t>
   </si>
@@ -89,58 +90,34 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Langage_Comm_1</t>
-  </si>
-  <si>
     <t>Langage_1</t>
   </si>
   <si>
     <t>确认</t>
   </si>
   <si>
-    <t>Langage_Comm_2</t>
-  </si>
-  <si>
     <t>Langage_2</t>
   </si>
   <si>
     <t>取消</t>
   </si>
   <si>
-    <t>Langage_Comm_3</t>
-  </si>
-  <si>
     <t>Langage_3</t>
   </si>
   <si>
     <t>登录</t>
   </si>
   <si>
-    <t>Langage_Comm_4</t>
-  </si>
-  <si>
     <t>Langage_4</t>
   </si>
   <si>
-    <t>创建角色</t>
-  </si>
-  <si>
-    <t>Langage_Comm_5</t>
-  </si>
-  <si>
     <t>Langage_5</t>
   </si>
   <si>
     <t>进入游戏</t>
   </si>
   <si>
-    <t>Langage_Comm_6</t>
-  </si>
-  <si>
     <t>Langage_6</t>
-  </si>
-  <si>
-    <t>中文_6</t>
   </si>
   <si>
     <t>LPID_SUCKBLOOD</t>
@@ -774,15 +751,6 @@
     <t>Name_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Name_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Name_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Name_Item_connon_3</t>
-  </si>
-  <si>
     <t>Name_Item_acid_1</t>
   </si>
   <si>
@@ -864,15 +832,6 @@
     <t>Name_Item_laser_3</t>
   </si>
   <si>
-    <t>Name_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Name_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Name_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Name_Item_mortar_1</t>
   </si>
   <si>
@@ -909,15 +868,6 @@
     <t>Name_Item_rocket_3</t>
   </si>
   <si>
-    <t>Name_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Name_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Name_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Name_Item_airship_1</t>
   </si>
   <si>
@@ -999,15 +949,6 @@
     <t>Desc_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Desc_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_connon_3</t>
-  </si>
-  <si>
     <t>Desc_Item_acid_1</t>
   </si>
   <si>
@@ -1089,15 +1030,6 @@
     <t>Desc_Item_laser_3</t>
   </si>
   <si>
-    <t>Desc_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Desc_Item_mortar_1</t>
   </si>
   <si>
@@ -1134,15 +1066,6 @@
     <t>Desc_Item_rocket_3</t>
   </si>
   <si>
-    <t>Desc_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Desc_Item_airship_1</t>
   </si>
   <si>
@@ -1486,6 +1409,90 @@
   </si>
   <si>
     <t>雷达·一级 - 启动需要消耗能源 50点每小时，工会驻地的最佳防御武器，可探测6米内的隐形单位，如探测到敌对单位，将自动召唤6米内的火箭导弹进行攻击</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_3</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ui_OK</t>
+  </si>
+  <si>
+    <t>ui_cancel</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>ui_login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>ui_enter</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>ui_cn</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_3</t>
   </si>
 </sst>
 </file>
@@ -2313,11 +2320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E10"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2481,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -2492,420 +2499,601 @@
     </row>
     <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
-        <v>15</v>
+        <v>469</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41" t="s">
-        <v>21</v>
+        <v>472</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>22</v>
+        <v>473</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41" t="s">
-        <v>24</v>
+        <v>474</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>25</v>
+        <v>475</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A11:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38" t="s">
         <v>27</v>
       </c>
+      <c r="B12" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41" t="s">
-        <v>30</v>
+      <c r="A16" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="38" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="38" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="38" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="44" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="38" t="s">
+      <c r="C42" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +3109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -3102,104 +3290,104 @@
     </row>
     <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" s="25" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A15" s="35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="37" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -3337,7 +3525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -3518,140 +3706,140 @@
     </row>
     <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3669,13 +3857,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3850,717 +4038,717 @@
     </row>
     <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="45" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="45" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="45" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="45" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="32" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="45" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="45" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="45" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="45" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="45" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="45" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="45" t="s">
-        <v>243</v>
+        <v>477</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
-        <v>244</v>
+        <v>478</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="45" t="s">
-        <v>245</v>
+        <v>479</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="45" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="45" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="32" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="45" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="32" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="45" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="32" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="45" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="45" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="32" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="32" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="45" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="32" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="45" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B42" s="32"/>
       <c r="C42" s="32" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="45" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="32" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="45" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B44" s="32"/>
       <c r="C44" s="32" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="32" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B46" s="32"/>
       <c r="C46" s="32" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B47" s="32"/>
       <c r="C47" s="32" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="32" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="32" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="45" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="45" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="32" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B53" s="32"/>
       <c r="C53" s="32" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="45" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B54" s="32"/>
       <c r="C54" s="32" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="45" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B55" s="32"/>
       <c r="C55" s="32" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="45" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B57" s="32"/>
       <c r="C57" s="32" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="45" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B59" s="32"/>
       <c r="C59" s="32" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="45" t="s">
-        <v>273</v>
+        <v>461</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="45" t="s">
-        <v>274</v>
+        <v>462</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="45" t="s">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="B62" s="32"/>
       <c r="C62" s="32" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="45" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B64" s="32"/>
       <c r="C64" s="32" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="45" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="32" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="45" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="45" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B67" s="32"/>
       <c r="C67" s="32" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="45" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B68" s="32"/>
       <c r="C68" s="32" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="45" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="45" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="32" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="32" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B73" s="32"/>
       <c r="C73" s="32" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>288</v>
+        <v>464</v>
       </c>
       <c r="B75" s="32"/>
       <c r="C75" s="32" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>289</v>
+        <v>465</v>
       </c>
       <c r="B76" s="32"/>
       <c r="C76" s="32" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="B77" s="32"/>
       <c r="C77" s="32" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B78" s="32"/>
       <c r="C78" s="32" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="32" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="32" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="32" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="32" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="32" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="45" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="32" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="45" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B87" s="32"/>
       <c r="C87" s="32" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="45" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B88" s="32"/>
       <c r="C88" s="32" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="45" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B89" s="32"/>
       <c r="C89" s="32" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4576,13 +4764,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4757,717 +4945,717 @@
     </row>
     <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="45" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="45" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="45" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="45" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="45" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="32" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="45" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="45" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="45" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="45" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="45" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="45" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="45" t="s">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
-        <v>319</v>
+        <v>481</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="45" t="s">
-        <v>320</v>
+        <v>482</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="45" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="45" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="32" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="45" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="32" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="45" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="32" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="45" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="45" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="32" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="32" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="45" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="32" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="45" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B42" s="32"/>
       <c r="C42" s="32" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="45" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="32" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="45" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B44" s="32"/>
       <c r="C44" s="32" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="32" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B46" s="32"/>
       <c r="C46" s="32" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B47" s="32"/>
       <c r="C47" s="32" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="32" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="32" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="45" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="45" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="32" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B53" s="32"/>
       <c r="C53" s="32" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="45" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B54" s="32"/>
       <c r="C54" s="32" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="45" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B55" s="32"/>
       <c r="C55" s="32" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="45" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B57" s="32"/>
       <c r="C57" s="32" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="45" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B59" s="32"/>
       <c r="C59" s="32" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="45" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="45" t="s">
-        <v>349</v>
+        <v>459</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="45" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="B62" s="32"/>
       <c r="C62" s="32" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="45" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B64" s="32"/>
       <c r="C64" s="32" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="45" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="32" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="45" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="45" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="B67" s="32"/>
       <c r="C67" s="32" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="45" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B68" s="32"/>
       <c r="C68" s="32" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="45" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="45" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="32" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="32" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B73" s="32"/>
       <c r="C73" s="32" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="B75" s="32"/>
       <c r="C75" s="32" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="B76" s="32"/>
       <c r="C76" s="32" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>365</v>
+        <v>457</v>
       </c>
       <c r="B77" s="32"/>
       <c r="C77" s="32" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B78" s="32"/>
       <c r="C78" s="32" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="32" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="32" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="32" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="32" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="32" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="45" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="32" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="45" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B87" s="32"/>
       <c r="C87" s="32" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="45" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B88" s="32"/>
       <c r="C88" s="32" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="45" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B89" s="32"/>
       <c r="C89" s="32" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -5664,200 +5852,200 @@
     </row>
     <row r="11" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="29" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -5875,7 +6063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6067,7 +6255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -6248,88 +6436,88 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="5"/>
+    <workbookView windowWidth="32460" windowHeight="20280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property_ui" sheetId="13" r:id="rId1"/>
@@ -23,27 +18,11 @@
     <sheet name="Property_task" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543">
   <si>
     <t>Id</t>
   </si>
@@ -90,69 +69,99 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>ui_OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>ui_cancel</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>ui_login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>ui_enter</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>进入游戏</t>
+  </si>
+  <si>
+    <t>ui_cn</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>LPID_SUCKBLOOD</t>
+  </si>
+  <si>
     <t>Langage_1</t>
   </si>
   <si>
-    <t>确认</t>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>LPID_REFLECTDAMAGE</t>
   </si>
   <si>
     <t>Langage_2</t>
   </si>
   <si>
-    <t>取消</t>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>LPID_CRITICAL</t>
   </si>
   <si>
     <t>Langage_3</t>
   </si>
   <si>
-    <t>登录</t>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>LPID_MAXHP</t>
   </si>
   <si>
     <t>Langage_4</t>
   </si>
   <si>
+    <t>生命上限</t>
+  </si>
+  <si>
+    <t>LPID_MAXMP</t>
+  </si>
+  <si>
     <t>Langage_5</t>
   </si>
   <si>
-    <t>进入游戏</t>
+    <t>法力上限</t>
+  </si>
+  <si>
+    <t>LPID_MAXSP</t>
   </si>
   <si>
     <t>Langage_6</t>
   </si>
   <si>
-    <t>LPID_SUCKBLOOD</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>LPID_REFLECTDAMAGE</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>LPID_CRITICAL</t>
-  </si>
-  <si>
-    <t>暴击</t>
-  </si>
-  <si>
-    <t>LPID_MAXHP</t>
-  </si>
-  <si>
-    <t>生命上限</t>
-  </si>
-  <si>
-    <t>LPID_MAXMP</t>
-  </si>
-  <si>
-    <t>法力上限</t>
-  </si>
-  <si>
-    <t>LPID_MAXSP</t>
-  </si>
-  <si>
     <t>体力上限</t>
   </si>
   <si>
@@ -381,7 +390,7 @@
     <t>BUFF免疫开关</t>
   </si>
   <si>
-    <t>NameID_Orc_Slinger</t>
+    <t>NameID_Hero001</t>
   </si>
   <si>
     <t>Orcs · Slinger</t>
@@ -390,7 +399,7 @@
     <t>兽族 · 食人魔</t>
   </si>
   <si>
-    <t>NameID_Dwarf_Warrior</t>
+    <t>NameID_Hero002</t>
   </si>
   <si>
     <t>Dwarf · Gold Digger</t>
@@ -399,7 +408,7 @@
     <t>矮人 · 掘金者</t>
   </si>
   <si>
-    <t>NameID_Wererat_Soldier</t>
+    <t>NameID_Hero003</t>
   </si>
   <si>
     <t>Orcs · Wererat</t>
@@ -408,7 +417,7 @@
     <t>兽族 · 狼人</t>
   </si>
   <si>
-    <t>NameID_Samurai</t>
+    <t>NameID_Hero004</t>
   </si>
   <si>
     <t>Human · Yao Li</t>
@@ -417,7 +426,52 @@
     <t>人族 · 要离</t>
   </si>
   <si>
-    <t>DescID_Orc_Slinger</t>
+    <t>NameID_Hero005</t>
+  </si>
+  <si>
+    <t>NameID_Hero006</t>
+  </si>
+  <si>
+    <t>NameID_Hero007</t>
+  </si>
+  <si>
+    <t>NameID_Hero008</t>
+  </si>
+  <si>
+    <t>NameID_Hero009</t>
+  </si>
+  <si>
+    <t>NameID_Hero010</t>
+  </si>
+  <si>
+    <t>NameID_Hero011</t>
+  </si>
+  <si>
+    <t>NameID_Hero012</t>
+  </si>
+  <si>
+    <t>NameID_Hero013</t>
+  </si>
+  <si>
+    <t>NameID_Hero014</t>
+  </si>
+  <si>
+    <t>NameID_Hero015</t>
+  </si>
+  <si>
+    <t>NameID_Hero016</t>
+  </si>
+  <si>
+    <t>NameID_Hero017</t>
+  </si>
+  <si>
+    <t>NameID_Hero018</t>
+  </si>
+  <si>
+    <t>NameID_Hero019</t>
+  </si>
+  <si>
+    <t>DescID_Hero001</t>
   </si>
   <si>
     <t>Ogre mages use bat balls to fire their weapons and then chase them in frenzied killings. 
@@ -427,7 +481,7 @@
     <t>食人魔法师使用蝙蝠球火焰点燃他们的武器，然后追着他们在疯狂的杀戮。虽然他们缺少智慧，但是运气绝对好，经常打出双倍甚至三倍伤害。</t>
   </si>
   <si>
-    <t>DescID_Dwarf_Warrior</t>
+    <t>DescID_Hero002</t>
   </si>
   <si>
     <t>A member of a mythical race of short, stocky human-like creatures who are generally skilled in mining and metalworking.</t>
@@ -436,7 +490,7 @@
     <t>矮人热衷于挖矿、铸造、手工艺和收集金银财货.</t>
   </si>
   <si>
-    <t>DescID_Wererat_Soldier</t>
+    <t>DescID_Hero003</t>
   </si>
   <si>
     <t>The wererat is one of several different types of animalistic forms. They are classified as 'lycanthropes', despite the fact that the term reflects a lupine, or wolven</t>
@@ -445,7 +499,7 @@
     <t>狼人是一个力量型近战英雄，拥有巨大的物理能力和可观的移动速度， 擅长推进建筑和增加队伍的攻击力和生命值</t>
   </si>
   <si>
-    <t>DescID_Samurai</t>
+    <t>DescID_Hero004</t>
   </si>
   <si>
     <t>Yao Li was a famed assassin in the Spring and Autumn period.</t>
@@ -454,6 +508,51 @@
     <t>要离是人族最悲情的刺客--神魔大战中，自断一臂假意投靠鬼族，然而再次断臂换来重伤夜王.</t>
   </si>
   <si>
+    <t>DescID_Hero005</t>
+  </si>
+  <si>
+    <t>DescID_Hero006</t>
+  </si>
+  <si>
+    <t>DescID_Hero007</t>
+  </si>
+  <si>
+    <t>DescID_Hero008</t>
+  </si>
+  <si>
+    <t>DescID_Hero009</t>
+  </si>
+  <si>
+    <t>DescID_Hero010</t>
+  </si>
+  <si>
+    <t>DescID_Hero011</t>
+  </si>
+  <si>
+    <t>DescID_Hero012</t>
+  </si>
+  <si>
+    <t>DescID_Hero013</t>
+  </si>
+  <si>
+    <t>DescID_Hero014</t>
+  </si>
+  <si>
+    <t>DescID_Hero015</t>
+  </si>
+  <si>
+    <t>DescID_Hero016</t>
+  </si>
+  <si>
+    <t>DescID_Hero017</t>
+  </si>
+  <si>
+    <t>DescID_Hero018</t>
+  </si>
+  <si>
+    <t>DescID_Hero019</t>
+  </si>
+  <si>
     <t>Desc_GEM_ATK</t>
   </si>
   <si>
@@ -538,6 +637,855 @@
     <t>毒属性宝石</t>
   </si>
   <si>
+    <t>NameID_Card_Hero001</t>
+  </si>
+  <si>
+    <t>食人兽·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero002</t>
+  </si>
+  <si>
+    <t>矮人·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero003</t>
+  </si>
+  <si>
+    <t>鼠人·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero004</t>
+  </si>
+  <si>
+    <t>溪涧武士·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero005</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero006</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero007</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero008</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero009</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero010</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero011</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero012</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero013</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero014</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero015</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero016</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero017</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero018</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero019</t>
+  </si>
+  <si>
+    <t>Name_Item_town_1</t>
+  </si>
+  <si>
+    <t>营地·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_town_2</t>
+  </si>
+  <si>
+    <t>营地·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_town_3</t>
+  </si>
+  <si>
+    <t>营地·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_mine_1</t>
+  </si>
+  <si>
+    <t>金矿·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_mine_2</t>
+  </si>
+  <si>
+    <t>金矿·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_mine_3</t>
+  </si>
+  <si>
+    <t>金矿·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_mine_1</t>
+  </si>
+  <si>
+    <t>能源收集器·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_mine_2</t>
+  </si>
+  <si>
+    <t>能源收集器·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_mine_3</t>
+  </si>
+  <si>
+    <t>能源收集器·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_store_1</t>
+  </si>
+  <si>
+    <t>储金罐·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_store_2</t>
+  </si>
+  <si>
+    <t>储金罐·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_gold_store_3</t>
+  </si>
+  <si>
+    <t>储金罐·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_store_1</t>
+  </si>
+  <si>
+    <t>能源存储器·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_store_2</t>
+  </si>
+  <si>
+    <t>能源存储器·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_eneger_store_3</t>
+  </si>
+  <si>
+    <t>能源存储器·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>加农炮·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>加农炮·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>加农炮·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_acid_1</t>
+  </si>
+  <si>
+    <t>减甲炮·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_acid_2</t>
+  </si>
+  <si>
+    <t>减甲炮·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_acid_3</t>
+  </si>
+  <si>
+    <t>减甲炮·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_tesla_1</t>
+  </si>
+  <si>
+    <t>特斯拉雷射器·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_tesla_2</t>
+  </si>
+  <si>
+    <t>特斯拉雷射器·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_tesla_3</t>
+  </si>
+  <si>
+    <t>特斯拉雷射器·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_x_bow_1</t>
+  </si>
+  <si>
+    <t>穿刺弩·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_x_bow_2</t>
+  </si>
+  <si>
+    <t>穿刺弩·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_x_bow_3</t>
+  </si>
+  <si>
+    <t>穿刺弩·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_crystal_1</t>
+  </si>
+  <si>
+    <t>警戒塔·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_crystal_2</t>
+  </si>
+  <si>
+    <t>警戒塔·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_crystal_3</t>
+  </si>
+  <si>
+    <t>警戒塔·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_fire_1</t>
+  </si>
+  <si>
+    <t>火焰发射器·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_fire_2</t>
+  </si>
+  <si>
+    <t>火焰发射器·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_fire_3</t>
+  </si>
+  <si>
+    <t>火焰发射器·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_gatling_1</t>
+  </si>
+  <si>
+    <t>加特林机枪·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_gatling_2</t>
+  </si>
+  <si>
+    <t>加特林机枪·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_gatling_3</t>
+  </si>
+  <si>
+    <t>加特林机枪·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_gauss_1</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_gauss_2</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_gauss_3</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_hammer_1</t>
+  </si>
+  <si>
+    <t>重锤·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_hammer_2</t>
+  </si>
+  <si>
+    <t>重锤·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_hammer_3</t>
+  </si>
+  <si>
+    <t>重锤·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_laser_1</t>
+  </si>
+  <si>
+    <t>镭射激光器·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_laser_2</t>
+  </si>
+  <si>
+    <t>镭射激光器·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_laser_3</t>
+  </si>
+  <si>
+    <t>镭射激光器·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>麦肯锡机枪·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>麦肯锡机枪·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>麦肯锡机枪·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_mortar_1</t>
+  </si>
+  <si>
+    <t>迫击炮·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_mortar_2</t>
+  </si>
+  <si>
+    <t>迫击炮·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_mortar_3</t>
+  </si>
+  <si>
+    <t>迫击炮·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_plasma_1</t>
+  </si>
+  <si>
+    <t>等离子炮·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_plasma_2</t>
+  </si>
+  <si>
+    <t>等离子炮·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_plasma_3</t>
+  </si>
+  <si>
+    <t>等离子炮·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_radar_1</t>
+  </si>
+  <si>
+    <t>雷达·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_radar_2</t>
+  </si>
+  <si>
+    <t>雷达·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_radar_3</t>
+  </si>
+  <si>
+    <t>雷达·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_rocket_1</t>
+  </si>
+  <si>
+    <t>火箭·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_rocket_2</t>
+  </si>
+  <si>
+    <t>火箭·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_rocket_3</t>
+  </si>
+  <si>
+    <t>火箭·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_1</t>
+  </si>
+  <si>
+    <t>直升机·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_2</t>
+  </si>
+  <si>
+    <t>直升机·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_3</t>
+  </si>
+  <si>
+    <t>直升机·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_airship_1</t>
+  </si>
+  <si>
+    <t>飞船·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_airship_2</t>
+  </si>
+  <si>
+    <t>飞船·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_airship_3</t>
+  </si>
+  <si>
+    <t>飞船·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_bomb_1</t>
+  </si>
+  <si>
+    <t>炸弹·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_bomb_2</t>
+  </si>
+  <si>
+    <t>炸弹·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_bomb_3</t>
+  </si>
+  <si>
+    <t>炸弹·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_trap_1</t>
+  </si>
+  <si>
+    <t>麻痹陷阱·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_trap_2</t>
+  </si>
+  <si>
+    <t>麻痹陷阱·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_trap_3</t>
+  </si>
+  <si>
+    <t>麻痹陷阱·三级</t>
+  </si>
+  <si>
+    <t>Name_Item_spine_1</t>
+  </si>
+  <si>
+    <t>穿刺陷阱·一级</t>
+  </si>
+  <si>
+    <t>Name_Item_spine_2</t>
+  </si>
+  <si>
+    <t>穿刺陷阱·二级</t>
+  </si>
+  <si>
+    <t>Name_Item_spine_3</t>
+  </si>
+  <si>
+    <t>穿刺陷阱·三级</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero001</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄 食人兽 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero002</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄 矮人 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero003</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄 鼠人 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero004</t>
+  </si>
+  <si>
+    <t>英雄卷轴使用后可获得英雄  溪涧武士 /n 食人兽 介绍。。。</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero005</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero006</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero007</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero008</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero009</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero010</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero011</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero012</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero013</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero014</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero015</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero016</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero017</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero018</t>
+  </si>
+  <si>
+    <t>Desc_Card_Hero019</t>
+  </si>
+  <si>
+    <t>Desc_Item_town_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_town_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_town_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_mine_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_mine_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_mine_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_store_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_store_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gold_store_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_store_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_store_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_eneger_store_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_acid_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_acid_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_acid_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_tesla_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_tesla_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_tesla_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_x_bow_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_x_bow_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_x_bow_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_crystal_1</t>
+  </si>
+  <si>
+    <t>警戒塔·一级 - 启动需要消耗能源 10点每小时，可探测6米内的可见单位</t>
+  </si>
+  <si>
+    <t>Desc_Item_crystal_2</t>
+  </si>
+  <si>
+    <t>警戒塔·二级 - 启动需要消耗能源 20点每小时，可探测10米内的可见单位</t>
+  </si>
+  <si>
+    <t>Desc_Item_crystal_3</t>
+  </si>
+  <si>
+    <t>警戒塔·三级 - 启动需要消耗能源 30点每小时，可探测15米内的可见单位</t>
+  </si>
+  <si>
+    <t>Desc_Item_fire_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_fire_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_fire_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gatling_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gatling_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gatling_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_gauss_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_gauss_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_gauss_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_hammer_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_hammer_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_hammer_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_laser_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_laser_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_laser_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_mortar_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_mortar_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_mortar_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_plasma_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_plasma_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_plasma_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_radar_1</t>
+  </si>
+  <si>
+    <t>雷达·一级 - 启动需要消耗能源 50点每小时，工会驻地的最佳防御武器，可探测6米内的隐形单位，如探测到敌对单位，将自动召唤6米内的火箭导弹进行攻击</t>
+  </si>
+  <si>
+    <t>Desc_Item_radar_2</t>
+  </si>
+  <si>
+    <t>雷达·二级 - 启动需要消耗能源 100点每小时，工会驻地的最佳防御武器，可探测10米内的隐形单位，如探测到敌对单位，将自动召唤10米内直升机(如有)进行攻击</t>
+  </si>
+  <si>
+    <t>Desc_Item_radar_3</t>
+  </si>
+  <si>
+    <t>雷达·三级 - 启动需要消耗能源 200点每小时，工会驻地的最佳防御武器，可探测15米内的隐形单位，如探测到敌对单位，将自动召唤15米内的战斗飞船(如有)进行攻击</t>
+  </si>
+  <si>
+    <t>Desc_Item_rocket_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_rocket_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_rocket_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_1</t>
+  </si>
+  <si>
+    <t>武装直升机·一级</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_2</t>
+  </si>
+  <si>
+    <t>武装直升机·二级</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_3</t>
+  </si>
+  <si>
+    <t>武装直升机·三级</t>
+  </si>
+  <si>
+    <t>Desc_Item_airship_1</t>
+  </si>
+  <si>
+    <t>战斗飞船·一级</t>
+  </si>
+  <si>
+    <t>Desc_Item_airship_2</t>
+  </si>
+  <si>
+    <t>战斗飞船·二级</t>
+  </si>
+  <si>
+    <t>Desc_Item_airship_3</t>
+  </si>
+  <si>
+    <t>战斗飞船·三级</t>
+  </si>
+  <si>
+    <t>Desc_Item_bomb_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_bomb_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_bomb_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_trap_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_trap_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_trap_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_spine_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_spine_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_spine_3</t>
+  </si>
+  <si>
     <t>Desc_Gold_Item1</t>
   </si>
   <si>
@@ -704,802 +1652,19 @@
   </si>
   <si>
     <t>宝石给英雄升星</t>
-  </si>
-  <si>
-    <t>Name_Item_town_1</t>
-  </si>
-  <si>
-    <t>Name_Item_town_2</t>
-  </si>
-  <si>
-    <t>Name_Item_town_3</t>
-  </si>
-  <si>
-    <t>Name_Item_gold_mine_1</t>
-  </si>
-  <si>
-    <t>Name_Item_gold_mine_2</t>
-  </si>
-  <si>
-    <t>Name_Item_gold_mine_3</t>
-  </si>
-  <si>
-    <t>Name_Item_eneger_mine_1</t>
-  </si>
-  <si>
-    <t>Name_Item_eneger_mine_2</t>
-  </si>
-  <si>
-    <t>Name_Item_eneger_mine_3</t>
-  </si>
-  <si>
-    <t>Name_Item_gold_store_1</t>
-  </si>
-  <si>
-    <t>Name_Item_gold_store_2</t>
-  </si>
-  <si>
-    <t>Name_Item_gold_store_3</t>
-  </si>
-  <si>
-    <t>Name_Item_eneger_store_1</t>
-  </si>
-  <si>
-    <t>Name_Item_eneger_store_2</t>
-  </si>
-  <si>
-    <t>Name_Item_eneger_store_3</t>
-  </si>
-  <si>
-    <t>Name_Item_acid_1</t>
-  </si>
-  <si>
-    <t>Name_Item_acid_2</t>
-  </si>
-  <si>
-    <t>Name_Item_acid_3</t>
-  </si>
-  <si>
-    <t>Name_Item_tesla_1</t>
-  </si>
-  <si>
-    <t>Name_Item_tesla_2</t>
-  </si>
-  <si>
-    <t>Name_Item_tesla_3</t>
-  </si>
-  <si>
-    <t>Name_Item_x_bow_1</t>
-  </si>
-  <si>
-    <t>Name_Item_x_bow_2</t>
-  </si>
-  <si>
-    <t>Name_Item_x_bow_3</t>
-  </si>
-  <si>
-    <t>Name_Item_crystal_1</t>
-  </si>
-  <si>
-    <t>Name_Item_crystal_2</t>
-  </si>
-  <si>
-    <t>Name_Item_crystal_3</t>
-  </si>
-  <si>
-    <t>Name_Item_fire_1</t>
-  </si>
-  <si>
-    <t>Name_Item_fire_2</t>
-  </si>
-  <si>
-    <t>Name_Item_fire_3</t>
-  </si>
-  <si>
-    <t>Name_Item_gatling_1</t>
-  </si>
-  <si>
-    <t>Name_Item_gatling_2</t>
-  </si>
-  <si>
-    <t>Name_Item_gatling_3</t>
-  </si>
-  <si>
-    <t>Name_Item_gauss_1</t>
-  </si>
-  <si>
-    <t>Name_Item_gauss_2</t>
-  </si>
-  <si>
-    <t>Name_Item_gauss_3</t>
-  </si>
-  <si>
-    <t>Name_Item_hammer_1</t>
-  </si>
-  <si>
-    <t>Name_Item_hammer_2</t>
-  </si>
-  <si>
-    <t>Name_Item_hammer_3</t>
-  </si>
-  <si>
-    <t>Name_Item_laser_1</t>
-  </si>
-  <si>
-    <t>Name_Item_laser_2</t>
-  </si>
-  <si>
-    <t>Name_Item_laser_3</t>
-  </si>
-  <si>
-    <t>Name_Item_mortar_1</t>
-  </si>
-  <si>
-    <t>Name_Item_mortar_2</t>
-  </si>
-  <si>
-    <t>Name_Item_mortar_3</t>
-  </si>
-  <si>
-    <t>Name_Item_plasma_1</t>
-  </si>
-  <si>
-    <t>Name_Item_plasma_2</t>
-  </si>
-  <si>
-    <t>Name_Item_plasma_3</t>
-  </si>
-  <si>
-    <t>Name_Item_radar_1</t>
-  </si>
-  <si>
-    <t>Name_Item_radar_2</t>
-  </si>
-  <si>
-    <t>Name_Item_radar_3</t>
-  </si>
-  <si>
-    <t>Name_Item_rocket_1</t>
-  </si>
-  <si>
-    <t>Name_Item_rocket_2</t>
-  </si>
-  <si>
-    <t>Name_Item_rocket_3</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_1</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_2</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_3</t>
-  </si>
-  <si>
-    <t>Name_Item_bomb_1</t>
-  </si>
-  <si>
-    <t>Name_Item_bomb_2</t>
-  </si>
-  <si>
-    <t>Name_Item_bomb_3</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_1</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_2</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_3</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_1</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_2</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_town_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_town_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_town_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_mine_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_mine_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_mine_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_mine_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_mine_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_mine_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_store_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_store_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_store_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_store_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_store_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_store_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_acid_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_acid_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_acid_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_tesla_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_tesla_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_tesla_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_x_bow_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_x_bow_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_x_bow_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_crystal_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_crystal_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_crystal_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_fire_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_fire_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_fire_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gatling_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gatling_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gatling_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gauss_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gauss_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gauss_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_hammer_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_hammer_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_hammer_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_laser_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_laser_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_laser_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_mortar_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_mortar_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_mortar_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_plasma_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_plasma_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_plasma_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_radar_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_radar_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_radar_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_rocket_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_rocket_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_rocket_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_bomb_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_bomb_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_bomb_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_3</t>
-  </si>
-  <si>
-    <t>NameID_Card_Orc_Slinger</t>
-  </si>
-  <si>
-    <t>NameID_Card_Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>NameID_Card_Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>NameID_Card_Samurai</t>
-  </si>
-  <si>
-    <t>Desc_Card_Orc_Slinger</t>
-  </si>
-  <si>
-    <t>Desc_Card_Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>Desc_Card_Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>Desc_Card_Samurai</t>
-  </si>
-  <si>
-    <t>食人兽·英雄卷轴</t>
-  </si>
-  <si>
-    <t>矮人·英雄卷轴</t>
-  </si>
-  <si>
-    <t>鼠人·英雄卷轴</t>
-  </si>
-  <si>
-    <t>溪涧武士·英雄卷轴</t>
-  </si>
-  <si>
-    <t>英雄卷轴使用后可获得英雄 食人兽 /n 食人兽 介绍。。。</t>
-  </si>
-  <si>
-    <t>英雄卷轴使用后可获得英雄 矮人 /n 食人兽 介绍。。。</t>
-  </si>
-  <si>
-    <t>英雄卷轴使用后可获得英雄  溪涧武士 /n 食人兽 介绍。。。</t>
-  </si>
-  <si>
-    <t>英雄卷轴使用后可获得英雄 鼠人 /n 食人兽 介绍。。。</t>
-  </si>
-  <si>
-    <t>营地·一级</t>
-  </si>
-  <si>
-    <t>营地·二级</t>
-  </si>
-  <si>
-    <t>营地·三级</t>
-  </si>
-  <si>
-    <t>金矿·一级</t>
-  </si>
-  <si>
-    <t>金矿·二级</t>
-  </si>
-  <si>
-    <t>金矿·三级</t>
-  </si>
-  <si>
-    <t>能源收集器·一级</t>
-  </si>
-  <si>
-    <t>能源收集器·二级</t>
-  </si>
-  <si>
-    <t>能源收集器·三级</t>
-  </si>
-  <si>
-    <t>能源存储器·一级</t>
-  </si>
-  <si>
-    <t>能源存储器·二级</t>
-  </si>
-  <si>
-    <t>能源存储器·三级</t>
-  </si>
-  <si>
-    <t>储金罐·一级</t>
-  </si>
-  <si>
-    <t>储金罐·二级</t>
-  </si>
-  <si>
-    <t>储金罐·三级</t>
-  </si>
-  <si>
-    <t>加农炮·三级</t>
-  </si>
-  <si>
-    <t>加农炮·一级</t>
-  </si>
-  <si>
-    <t>加农炮·二级</t>
-  </si>
-  <si>
-    <t>减甲炮·一级</t>
-  </si>
-  <si>
-    <t>减甲炮·二级</t>
-  </si>
-  <si>
-    <t>减甲炮·三级</t>
-  </si>
-  <si>
-    <t>穿刺弩·一级</t>
-  </si>
-  <si>
-    <t>穿刺弩·二级</t>
-  </si>
-  <si>
-    <t>穿刺弩·三级</t>
-  </si>
-  <si>
-    <t>火焰发射器·一级</t>
-  </si>
-  <si>
-    <t>火焰发射器·二级</t>
-  </si>
-  <si>
-    <t>火焰发射器·三级</t>
-  </si>
-  <si>
-    <t>加特林机枪·一级</t>
-  </si>
-  <si>
-    <t>加特林机枪·二级</t>
-  </si>
-  <si>
-    <t>加特林机枪·三级</t>
-  </si>
-  <si>
-    <t>高斯电磁炮·一级</t>
-  </si>
-  <si>
-    <t>高斯电磁炮·二级</t>
-  </si>
-  <si>
-    <t>高斯电磁炮·三级</t>
-  </si>
-  <si>
-    <t>特斯拉雷射器·一级</t>
-  </si>
-  <si>
-    <t>特斯拉雷射器·二级</t>
-  </si>
-  <si>
-    <t>特斯拉雷射器·三级</t>
-  </si>
-  <si>
-    <t>重锤·一级</t>
-  </si>
-  <si>
-    <t>重锤·二级</t>
-  </si>
-  <si>
-    <t>重锤·三级</t>
-  </si>
-  <si>
-    <t>镭射激光器·一级</t>
-  </si>
-  <si>
-    <t>镭射激光器·二级</t>
-  </si>
-  <si>
-    <t>镭射激光器·三级</t>
-  </si>
-  <si>
-    <t>麦肯锡机枪·一级</t>
-  </si>
-  <si>
-    <t>麦肯锡机枪·二级</t>
-  </si>
-  <si>
-    <t>麦肯锡机枪·三级</t>
-  </si>
-  <si>
-    <t>迫击炮·一级</t>
-  </si>
-  <si>
-    <t>迫击炮·二级</t>
-  </si>
-  <si>
-    <t>迫击炮·三级</t>
-  </si>
-  <si>
-    <t>等离子炮·一级</t>
-  </si>
-  <si>
-    <t>等离子炮·二级</t>
-  </si>
-  <si>
-    <t>等离子炮·三级</t>
-  </si>
-  <si>
-    <t>雷达·一级</t>
-  </si>
-  <si>
-    <t>雷达·二级</t>
-  </si>
-  <si>
-    <t>雷达·三级</t>
-  </si>
-  <si>
-    <t>火箭·一级</t>
-  </si>
-  <si>
-    <t>火箭·二级</t>
-  </si>
-  <si>
-    <t>火箭·三级</t>
-  </si>
-  <si>
-    <t>直升机·一级</t>
-  </si>
-  <si>
-    <t>直升机·二级</t>
-  </si>
-  <si>
-    <t>直升机·三级</t>
-  </si>
-  <si>
-    <t>飞船·一级</t>
-  </si>
-  <si>
-    <t>飞船·二级</t>
-  </si>
-  <si>
-    <t>飞船·三级</t>
-  </si>
-  <si>
-    <t>炸弹·一级</t>
-  </si>
-  <si>
-    <t>炸弹·二级</t>
-  </si>
-  <si>
-    <t>炸弹·三级</t>
-  </si>
-  <si>
-    <t>麻痹陷阱·一级</t>
-  </si>
-  <si>
-    <t>麻痹陷阱·二级</t>
-  </si>
-  <si>
-    <t>麻痹陷阱·三级</t>
-  </si>
-  <si>
-    <t>穿刺陷阱·一级</t>
-  </si>
-  <si>
-    <t>穿刺陷阱·二级</t>
-  </si>
-  <si>
-    <t>穿刺陷阱·三级</t>
-  </si>
-  <si>
-    <t>警戒塔·一级</t>
-  </si>
-  <si>
-    <t>警戒塔·二级</t>
-  </si>
-  <si>
-    <t>警戒塔·三级</t>
-  </si>
-  <si>
-    <t>警戒塔·一级 - 启动需要消耗能源 10点每小时，可探测6米内的可见单位</t>
-  </si>
-  <si>
-    <t>警戒塔·二级 - 启动需要消耗能源 20点每小时，可探测10米内的可见单位</t>
-  </si>
-  <si>
-    <t>警戒塔·三级 - 启动需要消耗能源 30点每小时，可探测15米内的可见单位</t>
-  </si>
-  <si>
-    <t>战斗飞船·一级</t>
-  </si>
-  <si>
-    <t>战斗飞船·二级</t>
-  </si>
-  <si>
-    <t>战斗飞船·三级</t>
-  </si>
-  <si>
-    <t>武装直升机·一级</t>
-  </si>
-  <si>
-    <t>武装直升机·二级</t>
-  </si>
-  <si>
-    <t>武装直升机·三级</t>
-  </si>
-  <si>
-    <t>雷达·三级 - 启动需要消耗能源 200点每小时，工会驻地的最佳防御武器，可探测15米内的隐形单位，如探测到敌对单位，将自动召唤15米内的战斗飞船(如有)进行攻击</t>
-  </si>
-  <si>
-    <t>雷达·二级 - 启动需要消耗能源 100点每小时，工会驻地的最佳防御武器，可探测10米内的隐形单位，如探测到敌对单位，将自动召唤10米内直升机(如有)进行攻击</t>
-  </si>
-  <si>
-    <t>雷达·一级 - 启动需要消耗能源 50点每小时，工会驻地的最佳防御武器，可探测6米内的隐形单位，如探测到敌对单位，将自动召唤6米内的火箭导弹进行攻击</t>
-  </si>
-  <si>
-    <t>Desc_Item_copter_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_copter_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_copter_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_machinegun_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_machinegun_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_machinegun_3</t>
-  </si>
-  <si>
-    <t>Name_Item_machinegun_1</t>
-  </si>
-  <si>
-    <t>Name_Item_machinegun_2</t>
-  </si>
-  <si>
-    <t>Name_Item_machinegun_3</t>
-  </si>
-  <si>
-    <t>Name_Item_copter_1</t>
-  </si>
-  <si>
-    <t>Name_Item_copter_2</t>
-  </si>
-  <si>
-    <t>Name_Item_copter_3</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>ui_OK</t>
-  </si>
-  <si>
-    <t>ui_cancel</t>
-  </si>
-  <si>
-    <t>CANCEL</t>
-  </si>
-  <si>
-    <t>ui_login</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>ui_enter</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>ui_cn</t>
-  </si>
-  <si>
-    <t>Name_Item_cannon_1</t>
-  </si>
-  <si>
-    <t>Name_Item_cannon_2</t>
-  </si>
-  <si>
-    <t>Name_Item_cannon_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_cannon_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_cannon_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_cannon_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1515,17 +1680,174 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1546,7 +1868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,7 +1880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,12 +1904,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1820,13 +2328,268 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1923,23 +2686,44 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1950,38 +2734,61 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2314,28 +3121,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +3160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2369,7 +3177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -2420,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -2437,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -2471,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -2497,92 +3305,94 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="C11" s="40" t="s">
+    <row r="11" s="24" customFormat="1" spans="1:3">
+      <c r="A11" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41" t="s">
-        <v>470</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="C11" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" s="27" customFormat="1" spans="1:3">
+      <c r="A12" s="42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
-        <v>472</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="43" t="s">
+      <c r="B12" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>475</v>
-      </c>
-      <c r="C14" s="43" t="s">
+    <row r="13" s="27" customFormat="1" spans="1:3">
+      <c r="A13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="B15" s="42" t="s">
+    <row r="14" s="27" customFormat="1" spans="1:3">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" s="27" customFormat="1" spans="1:3">
+      <c r="A15" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>467</v>
+      <c r="C15" s="48" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A11:XFD16"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="$A11:$XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2616,7 +3426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -2650,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -2718,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2735,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -2744,356 +3554,356 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>15</v>
+    <row r="11" s="24" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A11" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A12" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A15" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A17" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A18" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A20" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A21" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A22" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A23" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A24" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A25" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A26" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A27" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A28" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A29" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A30" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A31" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A32" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A33" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A34" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A35" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A36" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>102</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A37" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A38" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A39" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A40" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A41" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>110</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:3">
+      <c r="A42" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3103,30 +3913,32 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3160,7 +3972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -3177,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -3194,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -3211,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3245,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3262,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3288,229 +4100,394 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
-        <v>112</v>
+    <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A11" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
-        <v>115</v>
+    <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A12" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
-        <v>118</v>
+    <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A13" s="38" t="s">
+        <v>128</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34" t="s">
-        <v>121</v>
+    <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A14" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" s="25" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>126</v>
-      </c>
+    <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A15" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>129</v>
-      </c>
+    <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A16" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>135</v>
-      </c>
+    <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A17" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A18" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A19" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A20" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A21" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A22" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A23" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="26"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A24" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="26"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A25" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A26" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A27" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A28" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A29" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
+      <c r="A30" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A31" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A32" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A33" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" ht="17.55" spans="1:5">
+      <c r="A34" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" ht="17.55" spans="1:5">
+      <c r="A35" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" ht="17.55" spans="1:5">
+      <c r="A36" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" ht="17.55" spans="1:5">
+      <c r="A37" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" ht="17.55" spans="1:5">
+      <c r="A38" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" ht="17.55" spans="1:5">
+      <c r="A39" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+    </row>
+    <row r="40" ht="17.55" spans="1:5">
+      <c r="A40" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" ht="17.55" spans="1:5">
+      <c r="A41" s="39" t="s">
+        <v>168</v>
+      </c>
       <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" ht="17.55" spans="1:5">
+      <c r="A42" s="39" t="s">
+        <v>169</v>
+      </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" ht="17.55" spans="1:5">
+      <c r="A43" s="39" t="s">
+        <v>170</v>
+      </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="44" ht="17.55" spans="1:5">
+      <c r="A44" s="39" t="s">
+        <v>171</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" ht="17.55" spans="1:5">
+      <c r="A45" s="39" t="s">
+        <v>172</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" ht="17.55" spans="1:5">
+      <c r="A46" s="39" t="s">
+        <v>173</v>
+      </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" ht="17.55" spans="1:5">
+      <c r="A47" s="39" t="s">
+        <v>174</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
+      <c r="A48" s="39" t="s">
+        <v>175</v>
+      </c>
       <c r="D48"/>
       <c r="E48"/>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63"/>
+      <c r="E63"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3519,30 +4496,32 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD30"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3559,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3576,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -3593,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -3627,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3644,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3695,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3704,142 +4683,142 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="25" customFormat="1" spans="1:5">
       <c r="A11" s="29" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="25" customFormat="1" spans="1:5">
       <c r="A13" s="29" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="28" customFormat="1" spans="1:5">
       <c r="A18" s="30" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="28" customFormat="1" spans="1:5">
       <c r="A19" s="30" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="28" customFormat="1" spans="1:5">
       <c r="A20" s="30" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="28" customFormat="1" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="28" customFormat="1" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3851,30 +4830,32 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +4872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3908,7 +4889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -3925,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -3942,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -3959,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3993,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4010,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4027,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4036,719 +5017,854 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48" t="s">
-        <v>352</v>
+    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A11" s="37" t="s">
+        <v>204</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="s">
-        <v>353</v>
+    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A12" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="s">
-        <v>354</v>
+    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A13" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
-        <v>355</v>
+    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A14" s="37" t="s">
+        <v>210</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A15" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="34"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A16" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="34"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A17" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="34"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A18" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="34"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A19" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="34"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="34"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A21" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="34"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A22" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="34"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A23" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="34"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A24" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="34"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A25" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="34"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A26" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="34"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A27" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="34"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A28" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="34"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" s="32" customFormat="1" spans="1:5">
+      <c r="A29" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="34"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="35" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
+      <c r="B101" s="36"/>
+      <c r="C101" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="35" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
+      <c r="B102" s="36"/>
+      <c r="C102" s="36" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="35" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+      <c r="B103" s="36"/>
+      <c r="C103" s="36" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="35" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32" t="s">
+      <c r="B104" s="36"/>
+      <c r="C104" s="36" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
-        <v>477</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="45" t="s">
-        <v>466</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4758,30 +5874,32 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +5916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -4815,7 +5933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -4832,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -4849,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -4866,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -4883,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -4900,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4934,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4943,752 +6061,889 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="46" t="s">
-        <v>356</v>
+    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A11" s="33" t="s">
+        <v>377</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47" t="s">
-        <v>357</v>
+    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A12" s="33" t="s">
+        <v>379</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
-        <v>358</v>
+    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A13" s="33" t="s">
+        <v>381</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
-        <v>359</v>
+    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A14" s="33" t="s">
+        <v>383</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32" t="s">
+    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A15" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="34"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A16" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="34"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A17" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="34"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A18" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="34"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A19" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="34"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A20" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="34"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A21" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="34"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A22" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="34"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A23" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="34"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A24" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="34"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A25" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="34"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A26" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="34"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A27" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="34"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A28" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="34"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" s="32" customFormat="1" spans="1:5">
+      <c r="A29" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="34"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
-        <v>480</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD36"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5705,7 +6960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -5722,7 +6977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -5739,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -5773,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -5790,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -5807,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -5824,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5841,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -5850,202 +7105,202 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="22" customFormat="1" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>165</v>
+        <v>488</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>166</v>
+        <v>489</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>167</v>
+        <v>490</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="22" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>168</v>
+        <v>491</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>169</v>
+        <v>492</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>170</v>
+        <v>493</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>171</v>
+        <v>494</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>172</v>
+        <v>495</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>173</v>
+        <v>496</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>174</v>
+        <v>497</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>175</v>
+        <v>498</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>176</v>
+        <v>499</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="25" customFormat="1" spans="1:5">
       <c r="A18" s="29" t="s">
-        <v>178</v>
+        <v>501</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>179</v>
+        <v>502</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="25" customFormat="1" spans="1:5">
       <c r="A19" s="29" t="s">
-        <v>180</v>
+        <v>503</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="25" customFormat="1" spans="1:5">
       <c r="A20" s="29" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>183</v>
+        <v>506</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="28" customFormat="1" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>184</v>
+        <v>507</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>185</v>
+        <v>508</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="28" customFormat="1" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>186</v>
+        <v>509</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>187</v>
+        <v>510</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>188</v>
+        <v>511</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>189</v>
+        <v>512</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>190</v>
+        <v>513</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>191</v>
+        <v>514</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="28" customFormat="1" spans="1:5">
       <c r="A25" s="30" t="s">
-        <v>192</v>
+        <v>515</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>193</v>
+        <v>516</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="28" customFormat="1" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>194</v>
+        <v>517</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>195</v>
+        <v>518</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="28" customFormat="1" spans="1:5">
       <c r="A27" s="30" t="s">
-        <v>196</v>
+        <v>519</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>197</v>
+        <v>520</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="28" customFormat="1" spans="1:5">
       <c r="A28" s="30" t="s">
-        <v>198</v>
+        <v>521</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>199</v>
+        <v>522</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="28" customFormat="1" spans="1:5">
       <c r="A29" s="30" t="s">
-        <v>200</v>
+        <v>523</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>201</v>
+        <v>524</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="28" customFormat="1" spans="1:5">
       <c r="A30" s="30" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>203</v>
+        <v>526</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -6057,30 +7312,32 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A11:XFD122"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="$A11:$XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6097,7 +7354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -6114,7 +7371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -6131,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -6148,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -6165,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -6182,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -6199,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -6216,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -6233,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -6249,30 +7506,32 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6289,7 +7548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -6306,7 +7565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -6323,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -6340,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -6357,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -6374,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -6391,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -6408,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -6425,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -6434,211 +7693,211 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>204</v>
+        <v>527</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>205</v>
+        <v>528</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>206</v>
+        <v>529</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>207</v>
+        <v>530</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>208</v>
+        <v>531</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>209</v>
+        <v>532</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>210</v>
+        <v>533</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
-        <v>211</v>
+        <v>534</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>212</v>
+        <v>535</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>213</v>
+        <v>536</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>214</v>
+        <v>537</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26" t="s">
-        <v>215</v>
+        <v>538</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>216</v>
+        <v>539</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26" t="s">
-        <v>217</v>
+        <v>540</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>218</v>
+        <v>541</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
-        <v>219</v>
+        <v>542</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5">
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5">
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5">
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5">
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5">
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5">
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5">
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5">
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5">
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:5">
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:5">
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:5">
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:5">
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5">
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5">
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5">
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5">
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:5">
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:5">
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5">
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5">
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:5">
       <c r="D48"/>
       <c r="E48"/>
     </row>
@@ -6649,7 +7908,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32460" windowHeight="20280" activeTab="2"/>
+    <workbookView windowWidth="18405" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property_ui" sheetId="13" r:id="rId1"/>
     <sheet name="Property_comm" sheetId="1" r:id="rId2"/>
-    <sheet name="Property_hero" sheetId="5" r:id="rId3"/>
-    <sheet name="Property_item_gem" sheetId="6" r:id="rId4"/>
-    <sheet name="Property_item_scroll_name" sheetId="7" r:id="rId5"/>
-    <sheet name="Property_item_scroll_desc" sheetId="12" r:id="rId6"/>
-    <sheet name="Property_item_supply" sheetId="8" r:id="rId7"/>
-    <sheet name="Property_item_equipment" sheetId="3" r:id="rId8"/>
-    <sheet name="Property_task" sheetId="4" r:id="rId9"/>
+    <sheet name="Property_npc" sheetId="14" r:id="rId3"/>
+    <sheet name="Property_hero" sheetId="5" r:id="rId4"/>
+    <sheet name="Property_item_gem" sheetId="6" r:id="rId5"/>
+    <sheet name="Property_item_scroll_name" sheetId="7" r:id="rId6"/>
+    <sheet name="Property_item_scroll_desc" sheetId="12" r:id="rId7"/>
+    <sheet name="Property_item_supply" sheetId="8" r:id="rId8"/>
+    <sheet name="Property_item_equipment" sheetId="3" r:id="rId9"/>
+    <sheet name="Property_task" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="581">
   <si>
     <t>Id</t>
   </si>
@@ -390,7 +391,7 @@
     <t>BUFF免疫开关</t>
   </si>
   <si>
-    <t>NameID_Hero001</t>
+    <t>NameID_NPC001</t>
   </si>
   <si>
     <t>Orcs · Slinger</t>
@@ -399,7 +400,7 @@
     <t>兽族 · 食人魔</t>
   </si>
   <si>
-    <t>NameID_Hero002</t>
+    <t>NameID_NPC002</t>
   </si>
   <si>
     <t>Dwarf · Gold Digger</t>
@@ -408,7 +409,7 @@
     <t>矮人 · 掘金者</t>
   </si>
   <si>
-    <t>NameID_Hero003</t>
+    <t>NameID_NPC003</t>
   </si>
   <si>
     <t>Orcs · Wererat</t>
@@ -417,7 +418,7 @@
     <t>兽族 · 狼人</t>
   </si>
   <si>
-    <t>NameID_Hero004</t>
+    <t>NameID_NPC004</t>
   </si>
   <si>
     <t>Human · Yao Li</t>
@@ -426,52 +427,52 @@
     <t>人族 · 要离</t>
   </si>
   <si>
-    <t>NameID_Hero005</t>
-  </si>
-  <si>
-    <t>NameID_Hero006</t>
-  </si>
-  <si>
-    <t>NameID_Hero007</t>
-  </si>
-  <si>
-    <t>NameID_Hero008</t>
-  </si>
-  <si>
-    <t>NameID_Hero009</t>
-  </si>
-  <si>
-    <t>NameID_Hero010</t>
-  </si>
-  <si>
-    <t>NameID_Hero011</t>
-  </si>
-  <si>
-    <t>NameID_Hero012</t>
-  </si>
-  <si>
-    <t>NameID_Hero013</t>
-  </si>
-  <si>
-    <t>NameID_Hero014</t>
-  </si>
-  <si>
-    <t>NameID_Hero015</t>
-  </si>
-  <si>
-    <t>NameID_Hero016</t>
-  </si>
-  <si>
-    <t>NameID_Hero017</t>
-  </si>
-  <si>
-    <t>NameID_Hero018</t>
-  </si>
-  <si>
-    <t>NameID_Hero019</t>
-  </si>
-  <si>
-    <t>DescID_Hero001</t>
+    <t>NameID_NPC005</t>
+  </si>
+  <si>
+    <t>NameID_NPC006</t>
+  </si>
+  <si>
+    <t>NameID_NPC007</t>
+  </si>
+  <si>
+    <t>NameID_NPC008</t>
+  </si>
+  <si>
+    <t>NameID_NPC009</t>
+  </si>
+  <si>
+    <t>NameID_NPC010</t>
+  </si>
+  <si>
+    <t>NameID_NPC011</t>
+  </si>
+  <si>
+    <t>NameID_NPC012</t>
+  </si>
+  <si>
+    <t>NameID_NPC013</t>
+  </si>
+  <si>
+    <t>NameID_NPC014</t>
+  </si>
+  <si>
+    <t>NameID_NPC015</t>
+  </si>
+  <si>
+    <t>NameID_NPC016</t>
+  </si>
+  <si>
+    <t>NameID_NPC017</t>
+  </si>
+  <si>
+    <t>NameID_NPC018</t>
+  </si>
+  <si>
+    <t>NameID_NPC019</t>
+  </si>
+  <si>
+    <t>DescID_NPC001</t>
   </si>
   <si>
     <t>Ogre mages use bat balls to fire their weapons and then chase them in frenzied killings. 
@@ -481,31 +482,145 @@
     <t>食人魔法师使用蝙蝠球火焰点燃他们的武器，然后追着他们在疯狂的杀戮。虽然他们缺少智慧，但是运气绝对好，经常打出双倍甚至三倍伤害。</t>
   </si>
   <si>
+    <t>DescID_NPC002</t>
+  </si>
+  <si>
+    <t>A member of a mythical race of short, stocky human-like creatures who are generally skilled in mining and metalworking.</t>
+  </si>
+  <si>
+    <t>矮人热衷于挖矿、铸造、手工艺和收集金银财货.</t>
+  </si>
+  <si>
+    <t>DescID_NPC003</t>
+  </si>
+  <si>
+    <t>The wererat is one of several different types of animalistic forms. They are classified as 'lycanthropes', despite the fact that the term reflects a lupine, or wolven</t>
+  </si>
+  <si>
+    <t>狼人是一个力量型近战英雄，拥有巨大的物理能力和可观的移动速度， 擅长推进建筑和增加队伍的攻击力和生命值</t>
+  </si>
+  <si>
+    <t>DescID_NPC004</t>
+  </si>
+  <si>
+    <t>Yao Li was a famed assassin in the Spring and Autumn period.</t>
+  </si>
+  <si>
+    <t>要离是人族最悲情的刺客--神魔大战中，自断一臂假意投靠鬼族，然而再次断臂换来重伤夜王.</t>
+  </si>
+  <si>
+    <t>DescID_NPC005</t>
+  </si>
+  <si>
+    <t>DescID_NPC006</t>
+  </si>
+  <si>
+    <t>DescID_NPC007</t>
+  </si>
+  <si>
+    <t>DescID_NPC008</t>
+  </si>
+  <si>
+    <t>DescID_NPC009</t>
+  </si>
+  <si>
+    <t>DescID_NPC010</t>
+  </si>
+  <si>
+    <t>DescID_NPC011</t>
+  </si>
+  <si>
+    <t>DescID_NPC012</t>
+  </si>
+  <si>
+    <t>DescID_NPC013</t>
+  </si>
+  <si>
+    <t>DescID_NPC014</t>
+  </si>
+  <si>
+    <t>DescID_NPC015</t>
+  </si>
+  <si>
+    <t>DescID_NPC016</t>
+  </si>
+  <si>
+    <t>DescID_NPC017</t>
+  </si>
+  <si>
+    <t>DescID_NPC018</t>
+  </si>
+  <si>
+    <t>DescID_NPC019</t>
+  </si>
+  <si>
+    <t>NameID_Hero001</t>
+  </si>
+  <si>
+    <t>NameID_Hero002</t>
+  </si>
+  <si>
+    <t>NameID_Hero003</t>
+  </si>
+  <si>
+    <t>NameID_Hero004</t>
+  </si>
+  <si>
+    <t>NameID_Hero005</t>
+  </si>
+  <si>
+    <t>NameID_Hero006</t>
+  </si>
+  <si>
+    <t>NameID_Hero007</t>
+  </si>
+  <si>
+    <t>NameID_Hero008</t>
+  </si>
+  <si>
+    <t>NameID_Hero009</t>
+  </si>
+  <si>
+    <t>NameID_Hero010</t>
+  </si>
+  <si>
+    <t>NameID_Hero011</t>
+  </si>
+  <si>
+    <t>NameID_Hero012</t>
+  </si>
+  <si>
+    <t>NameID_Hero013</t>
+  </si>
+  <si>
+    <t>NameID_Hero014</t>
+  </si>
+  <si>
+    <t>NameID_Hero015</t>
+  </si>
+  <si>
+    <t>NameID_Hero016</t>
+  </si>
+  <si>
+    <t>NameID_Hero017</t>
+  </si>
+  <si>
+    <t>NameID_Hero018</t>
+  </si>
+  <si>
+    <t>NameID_Hero019</t>
+  </si>
+  <si>
+    <t>DescID_Hero001</t>
+  </si>
+  <si>
     <t>DescID_Hero002</t>
   </si>
   <si>
-    <t>A member of a mythical race of short, stocky human-like creatures who are generally skilled in mining and metalworking.</t>
-  </si>
-  <si>
-    <t>矮人热衷于挖矿、铸造、手工艺和收集金银财货.</t>
-  </si>
-  <si>
     <t>DescID_Hero003</t>
   </si>
   <si>
-    <t>The wererat is one of several different types of animalistic forms. They are classified as 'lycanthropes', despite the fact that the term reflects a lupine, or wolven</t>
-  </si>
-  <si>
-    <t>狼人是一个力量型近战英雄，拥有巨大的物理能力和可观的移动速度， 擅长推进建筑和增加队伍的攻击力和生命值</t>
-  </si>
-  <si>
     <t>DescID_Hero004</t>
-  </si>
-  <si>
-    <t>Yao Li was a famed assassin in the Spring and Autumn period.</t>
-  </si>
-  <si>
-    <t>要离是人族最悲情的刺客--神魔大战中，自断一臂假意投靠鬼族，然而再次断臂换来重伤夜王.</t>
   </si>
   <si>
     <t>DescID_Hero005</t>
@@ -1659,10 +1774,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1697,22 +1812,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1720,7 +1919,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1728,68 +1927,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1797,57 +1949,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1904,79 +2019,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,7 +2079,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,7 +2157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,67 +2175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,18 +2453,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2371,6 +2473,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2392,11 +2527,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2415,177 +2548,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2739,55 +2848,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -3125,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3135,11 +3244,11 @@
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3245,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3279,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3296,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3373,8 +3482,410 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -3384,11 +3895,11 @@
       <selection pane="bottomLeft" activeCell="A16" sqref="$A11:$XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3494,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3511,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3528,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3554,7 +4065,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="24" customFormat="1" ht="17.55" spans="1:3">
+    <row r="11" s="24" customFormat="1" ht="14.25" spans="1:3">
       <c r="A11" s="42" t="s">
         <v>29</v>
       </c>
@@ -3565,7 +4076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="12" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A12" s="45" t="s">
         <v>32</v>
       </c>
@@ -3576,7 +4087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="13" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A13" s="45" t="s">
         <v>35</v>
       </c>
@@ -3587,7 +4098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="14" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A14" s="45" t="s">
         <v>38</v>
       </c>
@@ -3598,7 +4109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="15" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A15" s="45" t="s">
         <v>41</v>
       </c>
@@ -3609,7 +4120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="16" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
@@ -3620,7 +4131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="17" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A17" s="45" t="s">
         <v>47</v>
       </c>
@@ -3631,7 +4142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="18" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A18" s="45" t="s">
         <v>49</v>
       </c>
@@ -3642,7 +4153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="19" s="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A19" s="45" t="s">
         <v>51</v>
       </c>
@@ -3653,7 +4164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="17.55" spans="1:3">
+    <row r="20" customFormat="1" ht="14.25" spans="1:3">
       <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
@@ -3664,7 +4175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="17.55" spans="1:3">
+    <row r="21" customFormat="1" ht="14.25" spans="1:3">
       <c r="A21" s="45" t="s">
         <v>56</v>
       </c>
@@ -3675,7 +4186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="17.55" spans="1:3">
+    <row r="22" customFormat="1" ht="14.25" spans="1:3">
       <c r="A22" s="45" t="s">
         <v>59</v>
       </c>
@@ -3686,7 +4197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="17.55" spans="1:3">
+    <row r="23" customFormat="1" ht="14.25" spans="1:3">
       <c r="A23" s="45" t="s">
         <v>62</v>
       </c>
@@ -3697,7 +4208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="17.55" spans="1:3">
+    <row r="24" customFormat="1" ht="14.25" spans="1:3">
       <c r="A24" s="45" t="s">
         <v>65</v>
       </c>
@@ -3708,7 +4219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="17.55" spans="1:3">
+    <row r="25" customFormat="1" ht="14.25" spans="1:3">
       <c r="A25" s="45" t="s">
         <v>68</v>
       </c>
@@ -3719,7 +4230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="17.55" spans="1:3">
+    <row r="26" customFormat="1" ht="14.25" spans="1:3">
       <c r="A26" s="45" t="s">
         <v>71</v>
       </c>
@@ -3730,7 +4241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="17.55" spans="1:3">
+    <row r="27" customFormat="1" ht="14.25" spans="1:3">
       <c r="A27" s="45" t="s">
         <v>74</v>
       </c>
@@ -3741,7 +4252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="17.55" spans="1:3">
+    <row r="28" customFormat="1" ht="14.25" spans="1:3">
       <c r="A28" s="45" t="s">
         <v>77</v>
       </c>
@@ -3752,7 +4263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="17.55" spans="1:3">
+    <row r="29" customFormat="1" ht="14.25" spans="1:3">
       <c r="A29" s="45" t="s">
         <v>80</v>
       </c>
@@ -3763,7 +4274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="17.55" spans="1:3">
+    <row r="30" customFormat="1" ht="14.25" spans="1:3">
       <c r="A30" s="45" t="s">
         <v>83</v>
       </c>
@@ -3774,7 +4285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="17.55" spans="1:3">
+    <row r="31" customFormat="1" ht="14.25" spans="1:3">
       <c r="A31" s="45" t="s">
         <v>86</v>
       </c>
@@ -3785,7 +4296,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="17.55" spans="1:3">
+    <row r="32" customFormat="1" ht="14.25" spans="1:3">
       <c r="A32" s="45" t="s">
         <v>89</v>
       </c>
@@ -3796,7 +4307,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="17.55" spans="1:3">
+    <row r="33" customFormat="1" ht="14.25" spans="1:3">
       <c r="A33" s="45" t="s">
         <v>92</v>
       </c>
@@ -3807,7 +4318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="17.55" spans="1:3">
+    <row r="34" customFormat="1" ht="14.25" spans="1:3">
       <c r="A34" s="45" t="s">
         <v>95</v>
       </c>
@@ -3818,7 +4329,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="17.55" spans="1:3">
+    <row r="35" customFormat="1" ht="14.25" spans="1:3">
       <c r="A35" s="45" t="s">
         <v>98</v>
       </c>
@@ -3829,7 +4340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="17.55" spans="1:3">
+    <row r="36" customFormat="1" ht="14.25" spans="1:3">
       <c r="A36" s="45" t="s">
         <v>101</v>
       </c>
@@ -3840,7 +4351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="17.55" spans="1:3">
+    <row r="37" customFormat="1" ht="14.25" spans="1:3">
       <c r="A37" s="45" t="s">
         <v>104</v>
       </c>
@@ -3851,7 +4362,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="17.55" spans="1:3">
+    <row r="38" customFormat="1" ht="14.25" spans="1:3">
       <c r="A38" s="45" t="s">
         <v>107</v>
       </c>
@@ -3862,7 +4373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="17.55" spans="1:3">
+    <row r="39" customFormat="1" ht="14.25" spans="1:3">
       <c r="A39" s="45" t="s">
         <v>110</v>
       </c>
@@ -3873,7 +4384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="17.55" spans="1:3">
+    <row r="40" customFormat="1" ht="14.25" spans="1:3">
       <c r="A40" s="45" t="s">
         <v>113</v>
       </c>
@@ -3884,7 +4395,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="17.55" spans="1:3">
+    <row r="41" customFormat="1" ht="14.25" spans="1:3">
       <c r="A41" s="45" t="s">
         <v>116</v>
       </c>
@@ -3920,21 +4431,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4040,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -4057,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4091,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4100,7 +4611,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="11" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A11" s="38" t="s">
         <v>122</v>
       </c>
@@ -4113,7 +4624,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="12" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A12" s="38" t="s">
         <v>125</v>
       </c>
@@ -4126,7 +4637,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="13" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A13" s="38" t="s">
         <v>128</v>
       </c>
@@ -4139,7 +4650,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="14" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="38" t="s">
         <v>131</v>
       </c>
@@ -4152,7 +4663,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="15" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A15" s="38" t="s">
         <v>134</v>
       </c>
@@ -4160,7 +4671,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="16" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A16" s="38" t="s">
         <v>135</v>
       </c>
@@ -4168,7 +4679,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="17" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A17" s="38" t="s">
         <v>136</v>
       </c>
@@ -4176,7 +4687,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="18" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A18" s="38" t="s">
         <v>137</v>
       </c>
@@ -4184,7 +4695,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="19" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A19" s="38" t="s">
         <v>138</v>
       </c>
@@ -4192,7 +4703,7 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="20" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A20" s="38" t="s">
         <v>139</v>
       </c>
@@ -4200,7 +4711,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="21" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A21" s="38" t="s">
         <v>140</v>
       </c>
@@ -4208,7 +4719,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="22" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A22" s="38" t="s">
         <v>141</v>
       </c>
@@ -4216,7 +4727,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="23" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A23" s="38" t="s">
         <v>142</v>
       </c>
@@ -4224,7 +4735,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="24" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A24" s="38" t="s">
         <v>143</v>
       </c>
@@ -4232,7 +4743,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="25" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A25" s="38" t="s">
         <v>144</v>
       </c>
@@ -4240,7 +4751,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="26" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A26" s="38" t="s">
         <v>145</v>
       </c>
@@ -4248,7 +4759,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="27" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A27" s="38" t="s">
         <v>146</v>
       </c>
@@ -4256,7 +4767,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="28" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A28" s="38" t="s">
         <v>147</v>
       </c>
@@ -4264,7 +4775,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="29" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A29" s="38" t="s">
         <v>148</v>
       </c>
@@ -4272,7 +4783,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
+    <row r="30" s="25" customFormat="1" ht="81.75" spans="1:5">
       <c r="A30" s="39" t="s">
         <v>149</v>
       </c>
@@ -4285,7 +4796,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="31" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A31" s="39" t="s">
         <v>152</v>
       </c>
@@ -4298,7 +4809,7 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="32" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A32" s="39" t="s">
         <v>155</v>
       </c>
@@ -4311,7 +4822,7 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
+    <row r="33" s="25" customFormat="1" ht="14.25" spans="1:5">
       <c r="A33" s="39" t="s">
         <v>158</v>
       </c>
@@ -4324,98 +4835,98 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" ht="17.55" spans="1:5">
+    <row r="34" ht="14.25" spans="1:5">
       <c r="A34" s="39" t="s">
         <v>161</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
     </row>
-    <row r="35" ht="17.55" spans="1:5">
+    <row r="35" ht="14.25" spans="1:5">
       <c r="A35" s="39" t="s">
         <v>162</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
     </row>
-    <row r="36" ht="17.55" spans="1:5">
+    <row r="36" ht="14.25" spans="1:5">
       <c r="A36" s="39" t="s">
         <v>163</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
     </row>
-    <row r="37" ht="17.55" spans="1:5">
+    <row r="37" ht="14.25" spans="1:5">
       <c r="A37" s="39" t="s">
         <v>164</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
     </row>
-    <row r="38" ht="17.55" spans="1:5">
+    <row r="38" ht="14.25" spans="1:5">
       <c r="A38" s="39" t="s">
         <v>165</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
     </row>
-    <row r="39" ht="17.55" spans="1:5">
+    <row r="39" ht="14.25" spans="1:5">
       <c r="A39" s="39" t="s">
         <v>166</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
     </row>
-    <row r="40" ht="17.55" spans="1:5">
+    <row r="40" ht="14.25" spans="1:5">
       <c r="A40" s="39" t="s">
         <v>167</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
     </row>
-    <row r="41" ht="17.55" spans="1:5">
+    <row r="41" ht="14.25" spans="1:5">
       <c r="A41" s="39" t="s">
         <v>168</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="41"/>
     </row>
-    <row r="42" ht="17.55" spans="1:5">
+    <row r="42" ht="14.25" spans="1:5">
       <c r="A42" s="39" t="s">
         <v>169</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" ht="17.55" spans="1:5">
+    <row r="43" ht="14.25" spans="1:5">
       <c r="A43" s="39" t="s">
         <v>170</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" ht="17.55" spans="1:5">
+    <row r="44" ht="14.25" spans="1:5">
       <c r="A44" s="39" t="s">
         <v>171</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" ht="17.55" spans="1:5">
+    <row r="45" ht="14.25" spans="1:5">
       <c r="A45" s="39" t="s">
         <v>172</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" ht="17.55" spans="1:5">
+    <row r="46" ht="14.25" spans="1:5">
       <c r="A46" s="39" t="s">
         <v>173</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" ht="17.55" spans="1:5">
+    <row r="47" ht="14.25" spans="1:5">
       <c r="A47" s="39" t="s">
         <v>174</v>
       </c>
@@ -4503,21 +5014,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD30"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4623,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -4640,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4657,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4674,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4683,145 +5194,394 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="25" customFormat="1" spans="1:5">
-      <c r="A11" s="29" t="s">
+    <row r="11" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A11" s="38" t="s">
         <v>176</v>
       </c>
+      <c r="B11" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="C11" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A12" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" s="25" customFormat="1" spans="1:5">
-      <c r="A12" s="29" t="s">
-        <v>178</v>
+      <c r="B12" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" s="25" customFormat="1" spans="1:5">
-      <c r="A13" s="29" t="s">
-        <v>180</v>
+    <row r="13" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A13" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" s="25" customFormat="1" spans="1:5">
-      <c r="A14" s="29" t="s">
-        <v>182</v>
+    <row r="14" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A14" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" s="25" customFormat="1" spans="1:5">
-      <c r="A15" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>185</v>
-      </c>
+    <row r="15" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A15" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" s="25" customFormat="1" spans="1:5">
-      <c r="A16" s="29" t="s">
+    <row r="16" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A17" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A18" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A19" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A20" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A21" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A22" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" s="25" customFormat="1" spans="1:5">
-      <c r="A17" s="29" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A23" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A24" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" s="28" customFormat="1" spans="1:5">
-      <c r="A18" s="30" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A25" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A26" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" s="28" customFormat="1" spans="1:5">
-      <c r="A19" s="30" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A27" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A28" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" s="28" customFormat="1" spans="1:5">
-      <c r="A20" s="30" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A29" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" s="25" customFormat="1" ht="81.75" spans="1:5">
+      <c r="A30" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" s="28" customFormat="1" spans="1:5">
-      <c r="A21" s="30" t="s">
+      <c r="B30" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A31" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="B31" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A32" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" s="28" customFormat="1" spans="1:5">
-      <c r="A22" s="30" t="s">
+      <c r="B32" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" s="25" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A33" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="B33" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:5">
+      <c r="A34" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" s="28" customFormat="1" spans="1:5">
-      <c r="A23" s="30" t="s">
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:5">
+      <c r="A35" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" s="28" customFormat="1" spans="1:5">
-      <c r="A24" s="30" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:5">
+      <c r="A37" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:5">
+      <c r="A38" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="D24"/>
-      <c r="E24"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:5">
+      <c r="A39" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:5">
+      <c r="A40" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:5">
+      <c r="A41" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:5">
+      <c r="A42" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:5">
+      <c r="A43" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:5">
+      <c r="A44" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:5">
+      <c r="A45" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:5">
+      <c r="A46" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:5">
+      <c r="A47" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63"/>
+      <c r="E63"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4837,21 +5597,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4957,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -4974,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4991,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5008,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -5017,860 +5777,150 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="34"/>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="34"/>
+    <row r="11" s="25" customFormat="1" spans="1:5">
+      <c r="A11" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:5">
+      <c r="A12" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" s="25" customFormat="1" spans="1:5">
+      <c r="A13" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" s="25" customFormat="1" spans="1:5">
+      <c r="A14" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:5">
+      <c r="A15" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" s="25" customFormat="1" spans="1:5">
+      <c r="A16" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>225</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="34"/>
+    <row r="17" s="25" customFormat="1" spans="1:5">
+      <c r="A17" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="34"/>
+    <row r="18" s="28" customFormat="1" spans="1:5">
+      <c r="A18" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>229</v>
+      </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="34"/>
+    <row r="19" s="28" customFormat="1" spans="1:5">
+      <c r="A19" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>231</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="34"/>
+    <row r="20" s="28" customFormat="1" spans="1:5">
+      <c r="A20" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>233</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="34"/>
+    <row r="21" s="28" customFormat="1" spans="1:5">
+      <c r="A21" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>235</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="34"/>
+    <row r="22" s="28" customFormat="1" spans="1:5">
+      <c r="A22" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>237</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="34"/>
+    <row r="23" s="28" customFormat="1" spans="1:5">
+      <c r="A23" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>239</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="34"/>
+    <row r="24" s="28" customFormat="1" spans="1:5">
+      <c r="A24" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>241</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
-    </row>
-    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="34"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="34"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="34"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="34"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" s="32" customFormat="1" spans="1:5">
-      <c r="A29" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="34"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36" t="s">
-        <v>376</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5881,21 +5931,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A29"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -6001,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -6018,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -6035,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -6052,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -6061,166 +6111,166 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="33" t="s">
-        <v>377</v>
+    <row r="11" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A11" s="37" t="s">
+        <v>242</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="33" t="s">
-        <v>379</v>
+    <row r="12" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A12" s="37" t="s">
+        <v>244</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="33" t="s">
-        <v>381</v>
+    <row r="13" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A13" s="37" t="s">
+        <v>246</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>382</v>
+        <v>247</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="33" t="s">
-        <v>383</v>
+    <row r="14" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A14" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>384</v>
+        <v>249</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="33" t="s">
-        <v>385</v>
+    <row r="15" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A15" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="34"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="33" t="s">
-        <v>386</v>
+    <row r="16" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A16" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="34"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="33" t="s">
-        <v>387</v>
+    <row r="17" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A17" s="37" t="s">
+        <v>252</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="34"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="33" t="s">
-        <v>388</v>
+    <row r="18" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A18" s="37" t="s">
+        <v>253</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="34"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="33" t="s">
-        <v>389</v>
+    <row r="19" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A19" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="34"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="33" t="s">
-        <v>390</v>
+    <row r="20" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A20" s="37" t="s">
+        <v>255</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="34"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="33" t="s">
-        <v>391</v>
+    <row r="21" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A21" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="34"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="33" t="s">
-        <v>392</v>
+    <row r="22" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A22" s="37" t="s">
+        <v>257</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="34"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="33" t="s">
-        <v>393</v>
+    <row r="23" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A23" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="34"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="33" t="s">
-        <v>394</v>
+    <row r="24" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A24" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="34"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="33" t="s">
-        <v>395</v>
+    <row r="25" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A25" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="34"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="33" t="s">
-        <v>396</v>
+    <row r="26" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A26" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="34"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="33" t="s">
-        <v>397</v>
+    <row r="27" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A27" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="34"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="33" t="s">
-        <v>398</v>
+    <row r="28" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A28" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="34"/>
@@ -6228,8 +6278,8 @@
       <c r="E28"/>
     </row>
     <row r="29" s="32" customFormat="1" spans="1:5">
-      <c r="A29" s="33" t="s">
-        <v>399</v>
+      <c r="A29" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="34"/>
@@ -6238,677 +6288,677 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="35" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="35" t="s">
-        <v>401</v>
+        <v>267</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="35" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="35" t="s">
-        <v>403</v>
+        <v>271</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="35" t="s">
-        <v>404</v>
+        <v>273</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="35" t="s">
-        <v>405</v>
+        <v>275</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="35" t="s">
-        <v>406</v>
+        <v>277</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="35" t="s">
-        <v>407</v>
+        <v>279</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="35" t="s">
-        <v>408</v>
+        <v>281</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="35" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="36" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="35" t="s">
-        <v>410</v>
+        <v>285</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="36" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="35" t="s">
-        <v>411</v>
+        <v>287</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="35" t="s">
-        <v>412</v>
+        <v>289</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="35" t="s">
-        <v>413</v>
+        <v>291</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="35" t="s">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="36" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="35" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="36" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="35" t="s">
-        <v>416</v>
+        <v>297</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="36" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="35" t="s">
-        <v>417</v>
+        <v>299</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="36" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="35" t="s">
-        <v>418</v>
+        <v>301</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="35" t="s">
-        <v>419</v>
+        <v>303</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="36" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="35" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="36" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="35" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="35" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="35" t="s">
-        <v>423</v>
+        <v>311</v>
       </c>
       <c r="B53" s="36"/>
       <c r="C53" s="36" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="35" t="s">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="35" t="s">
-        <v>425</v>
+        <v>315</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="36" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="35" t="s">
-        <v>426</v>
+        <v>317</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="35" t="s">
-        <v>427</v>
+        <v>319</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="36" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="35" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="36" t="s">
-        <v>430</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="35" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="36" t="s">
-        <v>432</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="35" t="s">
-        <v>433</v>
+        <v>325</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="36" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="35" t="s">
-        <v>434</v>
+        <v>327</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="36" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="35" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="36" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="35" t="s">
-        <v>436</v>
+        <v>331</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="36" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="35" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="36" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="35" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="35" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="36" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="35" t="s">
-        <v>440</v>
+        <v>339</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="36" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="35" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="35" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="B69" s="36"/>
       <c r="C69" s="36" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="35" t="s">
-        <v>443</v>
+        <v>345</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="36" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="35" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="35" t="s">
-        <v>445</v>
+        <v>349</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="35" t="s">
-        <v>446</v>
+        <v>351</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="35" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="35" t="s">
-        <v>448</v>
+        <v>355</v>
       </c>
       <c r="B75" s="36"/>
       <c r="C75" s="36" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="35" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="B76" s="36"/>
       <c r="C76" s="36" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="35" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="36" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="35" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="B78" s="36"/>
       <c r="C78" s="36" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="35" t="s">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="B79" s="36"/>
       <c r="C79" s="36" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="35" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="35" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="35" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="35" t="s">
-        <v>456</v>
+        <v>371</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="35" t="s">
-        <v>457</v>
+        <v>373</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="35" t="s">
-        <v>459</v>
+        <v>375</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="36" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="35" t="s">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36" t="s">
-        <v>462</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="35" t="s">
-        <v>463</v>
+        <v>379</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="35" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="36" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="35" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="36" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="35" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="B90" s="36"/>
       <c r="C90" s="36" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="35" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
       <c r="B91" s="36"/>
       <c r="C91" s="36" t="s">
-        <v>469</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="35" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="B92" s="36"/>
       <c r="C92" s="36" t="s">
-        <v>471</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="35" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="36" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="35" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="B94" s="36"/>
       <c r="C94" s="36" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="35" t="s">
-        <v>476</v>
+        <v>395</v>
       </c>
       <c r="B95" s="36"/>
       <c r="C95" s="36" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="35" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="B96" s="36"/>
       <c r="C96" s="36" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="35" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="B97" s="36"/>
       <c r="C97" s="36" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="35" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="B98" s="36"/>
       <c r="C98" s="36" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="35" t="s">
-        <v>481</v>
+        <v>403</v>
       </c>
       <c r="B99" s="36"/>
       <c r="C99" s="36" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="35" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="B100" s="36"/>
       <c r="C100" s="36" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="35" t="s">
-        <v>483</v>
+        <v>407</v>
       </c>
       <c r="B101" s="36"/>
       <c r="C101" s="36" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="35" t="s">
-        <v>484</v>
+        <v>409</v>
       </c>
       <c r="B102" s="36"/>
       <c r="C102" s="36" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="35" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="B103" s="36"/>
       <c r="C103" s="36" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="35" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="B104" s="36"/>
       <c r="C104" s="36" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6925,21 +6975,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD36"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -7045,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -7062,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -7079,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -7096,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -7105,210 +7155,860 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="22" customFormat="1" spans="1:5">
-      <c r="A11" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" s="25" customFormat="1" spans="1:5">
-      <c r="A12" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" s="22" customFormat="1" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" s="25" customFormat="1" spans="1:5">
-      <c r="A14" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" s="25" customFormat="1" spans="1:5">
-      <c r="A15" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" s="25" customFormat="1" spans="1:5">
-      <c r="A16" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" s="25" customFormat="1" spans="1:5">
-      <c r="A17" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" s="25" customFormat="1" spans="1:5">
-      <c r="A18" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" s="25" customFormat="1" spans="1:5">
-      <c r="A19" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" s="25" customFormat="1" spans="1:5">
-      <c r="A20" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" s="28" customFormat="1" spans="1:5">
-      <c r="A21" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>508</v>
-      </c>
+    <row r="11" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A11" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A12" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A13" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" s="28" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A14" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A15" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="34"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A16" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="34"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A17" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="34"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A18" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="34"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A19" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="34"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A20" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="34"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A21" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="34"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:5">
-      <c r="A22" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>510</v>
-      </c>
+    <row r="22" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A22" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="34"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:5">
-      <c r="A23" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>512</v>
-      </c>
+    <row r="23" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A23" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="34"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:5">
-      <c r="A24" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>514</v>
-      </c>
+    <row r="24" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A24" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="34"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:5">
-      <c r="A25" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>516</v>
-      </c>
+    <row r="25" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A25" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="34"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:5">
-      <c r="A26" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>518</v>
-      </c>
+    <row r="26" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A26" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="34"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:5">
-      <c r="A27" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>520</v>
-      </c>
+    <row r="27" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A27" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="34"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:5">
-      <c r="A28" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>522</v>
-      </c>
+    <row r="28" s="32" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A28" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="34"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:5">
-      <c r="A29" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>524</v>
-      </c>
+    <row r="29" s="32" customFormat="1" spans="1:5">
+      <c r="A29" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="34"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="1:5">
-      <c r="A30" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
+    <row r="30" spans="1:3">
+      <c r="A30" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36" t="s">
+        <v>414</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7319,21 +8019,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="$A11:$XFD122"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -7439,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -7456,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -7473,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -7490,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -7498,6 +8198,206 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
+    </row>
+    <row r="11" s="22" customFormat="1" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:5">
+      <c r="A12" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" s="22" customFormat="1" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" s="25" customFormat="1" spans="1:5">
+      <c r="A14" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:5">
+      <c r="A15" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" s="25" customFormat="1" spans="1:5">
+      <c r="A16" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="1:5">
+      <c r="A17" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" s="25" customFormat="1" spans="1:5">
+      <c r="A18" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" s="25" customFormat="1" spans="1:5">
+      <c r="A19" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" s="25" customFormat="1" spans="1:5">
+      <c r="A20" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:5">
+      <c r="A21" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:5">
+      <c r="A22" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:5">
+      <c r="A23" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:5">
+      <c r="A24" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:5">
+      <c r="A25" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:5">
+      <c r="A26" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:5">
+      <c r="A27" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:5">
+      <c r="A28" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:5">
+      <c r="A29" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="1:5">
+      <c r="A30" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7513,21 +8413,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="$A11:$XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -7633,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -7650,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -7667,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -7684,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -7692,214 +8592,6 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="D48"/>
-      <c r="E48"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18405" windowHeight="8115" activeTab="2"/>
+    <workbookView windowHeight="23360" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Property_ui" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542">
   <si>
     <t>Id</t>
   </si>
@@ -821,456 +821,384 @@
     <t>NameID_Card_Hero019</t>
   </si>
   <si>
-    <t>Name_Item_town_1</t>
+    <t>NameID_Building000</t>
   </si>
   <si>
     <t>营地·一级</t>
   </si>
   <si>
-    <t>Name_Item_town_2</t>
+    <t>NameID_Building001</t>
   </si>
   <si>
     <t>营地·二级</t>
   </si>
   <si>
-    <t>Name_Item_town_3</t>
+    <t>NameID_Building002</t>
   </si>
   <si>
     <t>营地·三级</t>
   </si>
   <si>
-    <t>Name_Item_gold_mine_1</t>
+    <t>NameID_Building010</t>
   </si>
   <si>
     <t>金矿·一级</t>
   </si>
   <si>
-    <t>Name_Item_gold_mine_2</t>
+    <t>NameID_Building011</t>
   </si>
   <si>
     <t>金矿·二级</t>
   </si>
   <si>
-    <t>Name_Item_gold_mine_3</t>
+    <t>NameID_Building012</t>
   </si>
   <si>
     <t>金矿·三级</t>
   </si>
   <si>
-    <t>Name_Item_eneger_mine_1</t>
+    <t>NameID_Building020</t>
   </si>
   <si>
     <t>能源收集器·一级</t>
   </si>
   <si>
-    <t>Name_Item_eneger_mine_2</t>
+    <t>NameID_Building021</t>
   </si>
   <si>
     <t>能源收集器·二级</t>
   </si>
   <si>
-    <t>Name_Item_eneger_mine_3</t>
+    <t>NameID_Building022</t>
   </si>
   <si>
     <t>能源收集器·三级</t>
   </si>
   <si>
-    <t>Name_Item_gold_store_1</t>
+    <t>NameID_Building030</t>
   </si>
   <si>
     <t>储金罐·一级</t>
   </si>
   <si>
-    <t>Name_Item_gold_store_2</t>
+    <t>NameID_Building031</t>
   </si>
   <si>
     <t>储金罐·二级</t>
   </si>
   <si>
-    <t>Name_Item_gold_store_3</t>
+    <t>NameID_Building032</t>
   </si>
   <si>
     <t>储金罐·三级</t>
   </si>
   <si>
-    <t>Name_Item_eneger_store_1</t>
+    <t>NameID_Building040</t>
   </si>
   <si>
     <t>能源存储器·一级</t>
   </si>
   <si>
-    <t>Name_Item_eneger_store_2</t>
+    <t>NameID_Building041</t>
   </si>
   <si>
     <t>能源存储器·二级</t>
   </si>
   <si>
-    <t>Name_Item_eneger_store_3</t>
+    <t>NameID_Building042</t>
   </si>
   <si>
     <t>能源存储器·三级</t>
   </si>
   <si>
-    <t>Name_Item_cannon_1</t>
+    <t>NameID_Building050</t>
   </si>
   <si>
     <t>加农炮·一级</t>
   </si>
   <si>
-    <t>Name_Item_cannon_2</t>
+    <t>NameID_Building051</t>
   </si>
   <si>
     <t>加农炮·二级</t>
   </si>
   <si>
-    <t>Name_Item_cannon_3</t>
+    <t>NameID_Building052</t>
   </si>
   <si>
     <t>加农炮·三级</t>
   </si>
   <si>
-    <t>Name_Item_acid_1</t>
+    <t>NameID_Building060</t>
   </si>
   <si>
     <t>减甲炮·一级</t>
   </si>
   <si>
-    <t>Name_Item_acid_2</t>
+    <t>NameID_Building061</t>
   </si>
   <si>
     <t>减甲炮·二级</t>
   </si>
   <si>
-    <t>Name_Item_acid_3</t>
+    <t>NameID_Building062</t>
   </si>
   <si>
     <t>减甲炮·三级</t>
   </si>
   <si>
-    <t>Name_Item_tesla_1</t>
+    <t>NameID_Building070</t>
   </si>
   <si>
     <t>特斯拉雷射器·一级</t>
   </si>
   <si>
-    <t>Name_Item_tesla_2</t>
+    <t>NameID_Building071</t>
   </si>
   <si>
     <t>特斯拉雷射器·二级</t>
   </si>
   <si>
-    <t>Name_Item_tesla_3</t>
+    <t>NameID_Building072</t>
   </si>
   <si>
     <t>特斯拉雷射器·三级</t>
   </si>
   <si>
-    <t>Name_Item_x_bow_1</t>
+    <t>NameID_Building080</t>
   </si>
   <si>
     <t>穿刺弩·一级</t>
   </si>
   <si>
-    <t>Name_Item_x_bow_2</t>
+    <t>NameID_Building081</t>
   </si>
   <si>
     <t>穿刺弩·二级</t>
   </si>
   <si>
-    <t>Name_Item_x_bow_3</t>
+    <t>NameID_Building082</t>
   </si>
   <si>
     <t>穿刺弩·三级</t>
   </si>
   <si>
-    <t>Name_Item_crystal_1</t>
+    <t>NameID_Building090</t>
   </si>
   <si>
     <t>警戒塔·一级</t>
   </si>
   <si>
-    <t>Name_Item_crystal_2</t>
+    <t>NameID_Building091</t>
   </si>
   <si>
     <t>警戒塔·二级</t>
   </si>
   <si>
-    <t>Name_Item_crystal_3</t>
+    <t>NameID_Building092</t>
   </si>
   <si>
     <t>警戒塔·三级</t>
   </si>
   <si>
-    <t>Name_Item_fire_1</t>
+    <t>NameID_Building100</t>
   </si>
   <si>
     <t>火焰发射器·一级</t>
   </si>
   <si>
-    <t>Name_Item_fire_2</t>
+    <t>NameID_Building101</t>
   </si>
   <si>
     <t>火焰发射器·二级</t>
   </si>
   <si>
-    <t>Name_Item_fire_3</t>
+    <t>NameID_Building102</t>
   </si>
   <si>
     <t>火焰发射器·三级</t>
   </si>
   <si>
-    <t>Name_Item_gatling_1</t>
+    <t>NameID_Building110</t>
   </si>
   <si>
     <t>加特林机枪·一级</t>
   </si>
   <si>
-    <t>Name_Item_gatling_2</t>
+    <t>NameID_Building111</t>
   </si>
   <si>
     <t>加特林机枪·二级</t>
   </si>
   <si>
-    <t>Name_Item_gatling_3</t>
+    <t>NameID_Building112</t>
   </si>
   <si>
     <t>加特林机枪·三级</t>
   </si>
   <si>
-    <t>Name_Item_gauss_1</t>
+    <t>NameID_Building120</t>
   </si>
   <si>
     <t>高斯电磁炮·一级</t>
   </si>
   <si>
-    <t>Name_Item_gauss_2</t>
+    <t>NameID_Building121</t>
   </si>
   <si>
     <t>高斯电磁炮·二级</t>
   </si>
   <si>
-    <t>Name_Item_gauss_3</t>
+    <t>NameID_Building122</t>
   </si>
   <si>
     <t>高斯电磁炮·三级</t>
   </si>
   <si>
-    <t>Name_Item_hammer_1</t>
+    <t>NameID_Building130</t>
   </si>
   <si>
     <t>重锤·一级</t>
   </si>
   <si>
-    <t>Name_Item_hammer_2</t>
+    <t>NameID_Building131</t>
   </si>
   <si>
     <t>重锤·二级</t>
   </si>
   <si>
-    <t>Name_Item_hammer_3</t>
+    <t>NameID_Building132</t>
   </si>
   <si>
     <t>重锤·三级</t>
   </si>
   <si>
-    <t>Name_Item_laser_1</t>
+    <t>NameID_Building140</t>
   </si>
   <si>
     <t>镭射激光器·一级</t>
   </si>
   <si>
-    <t>Name_Item_laser_2</t>
+    <t>NameID_Building141</t>
   </si>
   <si>
     <t>镭射激光器·二级</t>
   </si>
   <si>
-    <t>Name_Item_laser_3</t>
+    <t>NameID_Building142</t>
   </si>
   <si>
     <t>镭射激光器·三级</t>
   </si>
   <si>
-    <t>Name_Item_machinegun_1</t>
+    <t>NameID_Building150</t>
   </si>
   <si>
     <t>麦肯锡机枪·一级</t>
   </si>
   <si>
-    <t>Name_Item_machinegun_2</t>
+    <t>NameID_Building151</t>
   </si>
   <si>
     <t>麦肯锡机枪·二级</t>
   </si>
   <si>
-    <t>Name_Item_machinegun_3</t>
+    <t>NameID_Building152</t>
   </si>
   <si>
     <t>麦肯锡机枪·三级</t>
   </si>
   <si>
-    <t>Name_Item_mortar_1</t>
+    <t>NameID_Building160</t>
   </si>
   <si>
     <t>迫击炮·一级</t>
   </si>
   <si>
-    <t>Name_Item_mortar_2</t>
+    <t>NameID_Building161</t>
   </si>
   <si>
     <t>迫击炮·二级</t>
   </si>
   <si>
-    <t>Name_Item_mortar_3</t>
+    <t>NameID_Building162</t>
   </si>
   <si>
     <t>迫击炮·三级</t>
   </si>
   <si>
-    <t>Name_Item_plasma_1</t>
+    <t>NameID_Building170</t>
   </si>
   <si>
     <t>等离子炮·一级</t>
   </si>
   <si>
-    <t>Name_Item_plasma_2</t>
+    <t>NameID_Building171</t>
   </si>
   <si>
     <t>等离子炮·二级</t>
   </si>
   <si>
-    <t>Name_Item_plasma_3</t>
+    <t>NameID_Building172</t>
   </si>
   <si>
     <t>等离子炮·三级</t>
   </si>
   <si>
-    <t>Name_Item_radar_1</t>
+    <t>NameID_Building180</t>
   </si>
   <si>
     <t>雷达·一级</t>
   </si>
   <si>
-    <t>Name_Item_radar_2</t>
+    <t>NameID_Building181</t>
   </si>
   <si>
     <t>雷达·二级</t>
   </si>
   <si>
-    <t>Name_Item_radar_3</t>
+    <t>NameID_Building182</t>
   </si>
   <si>
     <t>雷达·三级</t>
   </si>
   <si>
-    <t>Name_Item_rocket_1</t>
+    <t>NameID_Building190</t>
   </si>
   <si>
     <t>火箭·一级</t>
   </si>
   <si>
-    <t>Name_Item_rocket_2</t>
+    <t>NameID_Building191</t>
   </si>
   <si>
     <t>火箭·二级</t>
   </si>
   <si>
-    <t>Name_Item_rocket_3</t>
+    <t>NameID_Building192</t>
   </si>
   <si>
     <t>火箭·三级</t>
   </si>
   <si>
-    <t>Name_Item_copter_1</t>
+    <t>NameID_Building200</t>
   </si>
   <si>
     <t>直升机·一级</t>
   </si>
   <si>
-    <t>Name_Item_copter_2</t>
+    <t>NameID_Building201</t>
   </si>
   <si>
     <t>直升机·二级</t>
   </si>
   <si>
-    <t>Name_Item_copter_3</t>
+    <t>NameID_Building202</t>
   </si>
   <si>
     <t>直升机·三级</t>
   </si>
   <si>
-    <t>Name_Item_airship_1</t>
-  </si>
-  <si>
-    <t>飞船·一级</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_2</t>
-  </si>
-  <si>
-    <t>飞船·二级</t>
-  </si>
-  <si>
-    <t>Name_Item_airship_3</t>
-  </si>
-  <si>
-    <t>飞船·三级</t>
-  </si>
-  <si>
-    <t>Name_Item_bomb_1</t>
-  </si>
-  <si>
-    <t>炸弹·一级</t>
-  </si>
-  <si>
-    <t>Name_Item_bomb_2</t>
-  </si>
-  <si>
-    <t>炸弹·二级</t>
-  </si>
-  <si>
-    <t>Name_Item_bomb_3</t>
-  </si>
-  <si>
-    <t>炸弹·三级</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_1</t>
-  </si>
-  <si>
-    <t>麻痹陷阱·一级</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_2</t>
-  </si>
-  <si>
-    <t>麻痹陷阱·二级</t>
-  </si>
-  <si>
-    <t>Name_Item_trap_3</t>
-  </si>
-  <si>
-    <t>麻痹陷阱·三级</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_1</t>
-  </si>
-  <si>
-    <t>穿刺陷阱·一级</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_2</t>
-  </si>
-  <si>
-    <t>穿刺陷阱·二级</t>
-  </si>
-  <si>
-    <t>Name_Item_spine_3</t>
-  </si>
-  <si>
-    <t>穿刺陷阱·三级</t>
-  </si>
-  <si>
     <t>Desc_Card_Hero001</t>
   </si>
   <si>
@@ -1340,265 +1268,220 @@
     <t>Desc_Card_Hero019</t>
   </si>
   <si>
-    <t>Desc_Item_town_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_town_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_town_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_mine_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_mine_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_mine_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_mine_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_mine_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_mine_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_store_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_store_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gold_store_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_store_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_store_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_eneger_store_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_cannon_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_cannon_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_cannon_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_acid_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_acid_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_acid_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_tesla_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_tesla_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_tesla_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_x_bow_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_x_bow_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_x_bow_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_crystal_1</t>
+    <t>DescID_Building000</t>
+  </si>
+  <si>
+    <t>DescID_Building001</t>
+  </si>
+  <si>
+    <t>DescID_Building002</t>
+  </si>
+  <si>
+    <t>DescID_Building010</t>
+  </si>
+  <si>
+    <t>DescID_Building011</t>
+  </si>
+  <si>
+    <t>DescID_Building012</t>
+  </si>
+  <si>
+    <t>DescID_Building020</t>
+  </si>
+  <si>
+    <t>DescID_Building021</t>
+  </si>
+  <si>
+    <t>DescID_Building022</t>
+  </si>
+  <si>
+    <t>DescID_Building030</t>
+  </si>
+  <si>
+    <t>DescID_Building031</t>
+  </si>
+  <si>
+    <t>DescID_Building032</t>
+  </si>
+  <si>
+    <t>DescID_Building040</t>
+  </si>
+  <si>
+    <t>DescID_Building041</t>
+  </si>
+  <si>
+    <t>DescID_Building042</t>
+  </si>
+  <si>
+    <t>DescID_Building050</t>
+  </si>
+  <si>
+    <t>DescID_Building051</t>
+  </si>
+  <si>
+    <t>DescID_Building052</t>
+  </si>
+  <si>
+    <t>DescID_Building060</t>
+  </si>
+  <si>
+    <t>DescID_Building061</t>
+  </si>
+  <si>
+    <t>DescID_Building062</t>
+  </si>
+  <si>
+    <t>DescID_Building070</t>
+  </si>
+  <si>
+    <t>DescID_Building071</t>
+  </si>
+  <si>
+    <t>DescID_Building072</t>
+  </si>
+  <si>
+    <t>DescID_Building080</t>
+  </si>
+  <si>
+    <t>DescID_Building081</t>
+  </si>
+  <si>
+    <t>DescID_Building082</t>
+  </si>
+  <si>
+    <t>DescID_Building090</t>
   </si>
   <si>
     <t>警戒塔·一级 - 启动需要消耗能源 10点每小时，可探测6米内的可见单位</t>
   </si>
   <si>
-    <t>Desc_Item_crystal_2</t>
+    <t>DescID_Building091</t>
   </si>
   <si>
     <t>警戒塔·二级 - 启动需要消耗能源 20点每小时，可探测10米内的可见单位</t>
   </si>
   <si>
-    <t>Desc_Item_crystal_3</t>
+    <t>DescID_Building092</t>
   </si>
   <si>
     <t>警戒塔·三级 - 启动需要消耗能源 30点每小时，可探测15米内的可见单位</t>
   </si>
   <si>
-    <t>Desc_Item_fire_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_fire_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_fire_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gatling_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gatling_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gatling_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_gauss_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_gauss_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_gauss_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_hammer_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_hammer_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_hammer_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_laser_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_laser_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_laser_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_machinegun_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_machinegun_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_machinegun_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_mortar_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_mortar_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_mortar_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_plasma_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_plasma_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_plasma_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_radar_1</t>
+    <t>DescID_Building100</t>
+  </si>
+  <si>
+    <t>DescID_Building101</t>
+  </si>
+  <si>
+    <t>DescID_Building102</t>
+  </si>
+  <si>
+    <t>DescID_Building110</t>
+  </si>
+  <si>
+    <t>DescID_Building111</t>
+  </si>
+  <si>
+    <t>DescID_Building112</t>
+  </si>
+  <si>
+    <t>DescID_Building120</t>
+  </si>
+  <si>
+    <t>DescID_Building121</t>
+  </si>
+  <si>
+    <t>DescID_Building122</t>
+  </si>
+  <si>
+    <t>DescID_Building130</t>
+  </si>
+  <si>
+    <t>DescID_Building131</t>
+  </si>
+  <si>
+    <t>DescID_Building132</t>
+  </si>
+  <si>
+    <t>DescID_Building140</t>
+  </si>
+  <si>
+    <t>DescID_Building141</t>
+  </si>
+  <si>
+    <t>DescID_Building142</t>
+  </si>
+  <si>
+    <t>DescID_Building150</t>
+  </si>
+  <si>
+    <t>DescID_Building151</t>
+  </si>
+  <si>
+    <t>DescID_Building152</t>
+  </si>
+  <si>
+    <t>DescID_Building160</t>
+  </si>
+  <si>
+    <t>DescID_Building161</t>
+  </si>
+  <si>
+    <t>DescID_Building162</t>
+  </si>
+  <si>
+    <t>DescID_Building170</t>
+  </si>
+  <si>
+    <t>DescID_Building171</t>
+  </si>
+  <si>
+    <t>DescID_Building172</t>
+  </si>
+  <si>
+    <t>DescID_Building180</t>
   </si>
   <si>
     <t>雷达·一级 - 启动需要消耗能源 50点每小时，工会驻地的最佳防御武器，可探测6米内的隐形单位，如探测到敌对单位，将自动召唤6米内的火箭导弹进行攻击</t>
   </si>
   <si>
-    <t>Desc_Item_radar_2</t>
+    <t>DescID_Building181</t>
   </si>
   <si>
     <t>雷达·二级 - 启动需要消耗能源 100点每小时，工会驻地的最佳防御武器，可探测10米内的隐形单位，如探测到敌对单位，将自动召唤10米内直升机(如有)进行攻击</t>
   </si>
   <si>
-    <t>Desc_Item_radar_3</t>
+    <t>DescID_Building182</t>
   </si>
   <si>
     <t>雷达·三级 - 启动需要消耗能源 200点每小时，工会驻地的最佳防御武器，可探测15米内的隐形单位，如探测到敌对单位，将自动召唤15米内的战斗飞船(如有)进行攻击</t>
   </si>
   <si>
-    <t>Desc_Item_rocket_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_rocket_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_rocket_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_copter_1</t>
+    <t>DescID_Building190</t>
+  </si>
+  <si>
+    <t>DescID_Building191</t>
+  </si>
+  <si>
+    <t>DescID_Building192</t>
+  </si>
+  <si>
+    <t>DescID_Building200</t>
   </si>
   <si>
     <t>武装直升机·一级</t>
   </si>
   <si>
-    <t>Desc_Item_copter_2</t>
+    <t>DescID_Building201</t>
   </si>
   <si>
     <t>武装直升机·二级</t>
   </si>
   <si>
-    <t>Desc_Item_copter_3</t>
+    <t>DescID_Building202</t>
   </si>
   <si>
     <t>武装直升机·三级</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_1</t>
-  </si>
-  <si>
-    <t>战斗飞船·一级</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_2</t>
-  </si>
-  <si>
-    <t>战斗飞船·二级</t>
-  </si>
-  <si>
-    <t>Desc_Item_airship_3</t>
-  </si>
-  <si>
-    <t>战斗飞船·三级</t>
-  </si>
-  <si>
-    <t>Desc_Item_bomb_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_bomb_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_bomb_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_trap_3</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_spine_3</t>
   </si>
   <si>
     <t>Desc_Gold_Item1</t>
@@ -1774,10 +1657,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1811,30 +1694,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1842,52 +1779,15 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1895,7 +1795,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1903,15 +1817,22 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1919,46 +1840,8 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2019,31 +1902,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,7 +1944,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,115 +1962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,8 +1978,110 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2451,13 +2334,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2473,6 +2369,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2495,6 +2421,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2503,48 +2438,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2553,152 +2451,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2813,6 +2711,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2848,55 +2749,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -3234,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3244,11 +3145,11 @@
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3354,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3371,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3388,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3415,57 +3316,57 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" spans="1:3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" s="27" customFormat="1" spans="1:3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" s="27" customFormat="1" spans="1:3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" s="27" customFormat="1" spans="1:3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" s="27" customFormat="1" spans="1:3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3483,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -3493,11 +3394,11 @@
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3603,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3637,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3654,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3665,88 +3566,88 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -3885,7 +3786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -3895,11 +3796,11 @@
       <selection pane="bottomLeft" activeCell="A16" sqref="$A11:$XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4005,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -4022,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4039,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4056,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4065,352 +3966,352 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="24" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A11" s="42" t="s">
+    <row r="11" s="24" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A12" s="45" t="s">
+    <row r="12" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A13" s="45" t="s">
+    <row r="13" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A14" s="45" t="s">
+    <row r="14" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A14" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A15" s="45" t="s">
+    <row r="15" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A15" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A16" s="45" t="s">
+    <row r="16" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A16" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A17" s="45" t="s">
+    <row r="17" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A17" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A18" s="45" t="s">
+    <row r="18" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A19" s="45" t="s">
+    <row r="19" s="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A19" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A20" s="45" t="s">
+    <row r="20" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A20" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A21" s="45" t="s">
+    <row r="21" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A21" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A22" s="45" t="s">
+    <row r="22" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A22" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A23" s="45" t="s">
+    <row r="23" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A24" s="45" t="s">
+    <row r="24" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A24" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A25" s="45" t="s">
+    <row r="25" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A25" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A26" s="45" t="s">
+    <row r="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A27" s="45" t="s">
+    <row r="27" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A27" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A28" s="45" t="s">
+    <row r="28" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A28" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A29" s="45" t="s">
+    <row r="29" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A29" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A30" s="45" t="s">
+    <row r="30" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A30" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="45" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A31" s="45" t="s">
+    <row r="31" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A31" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A32" s="45" t="s">
+    <row r="32" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A32" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A33" s="45" t="s">
+    <row r="33" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A33" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A34" s="45" t="s">
+    <row r="34" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A35" s="45" t="s">
+    <row r="35" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A35" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="45" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A36" s="45" t="s">
+    <row r="36" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A36" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A37" s="45" t="s">
+    <row r="37" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A37" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A38" s="45" t="s">
+    <row r="38" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A38" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A39" s="45" t="s">
+    <row r="39" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A39" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A40" s="45" t="s">
+    <row r="40" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A40" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A41" s="45" t="s">
+    <row r="41" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A41" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="44" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -4431,21 +4332,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4551,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -4568,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4602,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4611,8 +4512,8 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A11" s="38" t="s">
+    <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A11" s="39" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -4624,8 +4525,8 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A12" s="38" t="s">
+    <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A12" s="39" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -4637,8 +4538,8 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A13" s="38" t="s">
+    <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A13" s="39" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -4650,8 +4551,8 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A14" s="38" t="s">
+    <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A14" s="39" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -4663,131 +4564,131 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A15" s="38" t="s">
+    <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A15" s="39" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A16" s="38" t="s">
+    <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A16" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A17" s="38" t="s">
+    <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A17" s="39" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A18" s="38" t="s">
+    <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A18" s="39" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A19" s="38" t="s">
+    <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A19" s="39" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A20" s="38" t="s">
+    <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A20" s="39" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A21" s="38" t="s">
+    <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A21" s="39" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A22" s="38" t="s">
+    <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A22" s="39" t="s">
         <v>141</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A23" s="38" t="s">
+    <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A23" s="39" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A24" s="38" t="s">
+    <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A24" s="39" t="s">
         <v>143</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A25" s="38" t="s">
+    <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A25" s="39" t="s">
         <v>144</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A26" s="38" t="s">
+    <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A26" s="39" t="s">
         <v>145</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A27" s="38" t="s">
+    <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A27" s="39" t="s">
         <v>146</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A28" s="38" t="s">
+    <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A28" s="39" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A29" s="38" t="s">
+    <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A29" s="39" t="s">
         <v>148</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" s="25" customFormat="1" ht="81.75" spans="1:5">
-      <c r="A30" s="39" t="s">
+    <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
+      <c r="A30" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -4796,8 +4697,8 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A31" s="39" t="s">
+    <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A31" s="40" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -4809,8 +4710,8 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A32" s="39" t="s">
+    <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A32" s="40" t="s">
         <v>155</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -4822,8 +4723,8 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A33" s="39" t="s">
+    <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A33" s="40" t="s">
         <v>158</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -4835,106 +4736,106 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" ht="14.25" spans="1:5">
-      <c r="A34" s="39" t="s">
+    <row r="34" ht="17.55" spans="1:5">
+      <c r="A34" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:5">
-      <c r="A35" s="39" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" ht="17.55" spans="1:5">
+      <c r="A35" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="39" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" ht="17.55" spans="1:5">
+      <c r="A36" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:5">
-      <c r="A37" s="39" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" ht="17.55" spans="1:5">
+      <c r="A37" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:5">
-      <c r="A38" s="39" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" ht="17.55" spans="1:5">
+      <c r="A38" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:5">
-      <c r="A39" s="39" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" ht="17.55" spans="1:5">
+      <c r="A39" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:5">
-      <c r="A40" s="39" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" ht="17.55" spans="1:5">
+      <c r="A40" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:5">
-      <c r="A41" s="39" t="s">
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" ht="17.55" spans="1:5">
+      <c r="A41" s="40" t="s">
         <v>168</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:5">
-      <c r="A42" s="39" t="s">
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" ht="17.55" spans="1:5">
+      <c r="A42" s="40" t="s">
         <v>169</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" ht="14.25" spans="1:5">
-      <c r="A43" s="39" t="s">
+    <row r="43" ht="17.55" spans="1:5">
+      <c r="A43" s="40" t="s">
         <v>170</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" ht="14.25" spans="1:5">
-      <c r="A44" s="39" t="s">
+    <row r="44" ht="17.55" spans="1:5">
+      <c r="A44" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" ht="14.25" spans="1:5">
-      <c r="A45" s="39" t="s">
+    <row r="45" ht="17.55" spans="1:5">
+      <c r="A45" s="40" t="s">
         <v>172</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" ht="14.25" spans="1:5">
-      <c r="A46" s="39" t="s">
+    <row r="46" ht="17.55" spans="1:5">
+      <c r="A46" s="40" t="s">
         <v>173</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" ht="14.25" spans="1:5">
-      <c r="A47" s="39" t="s">
+    <row r="47" ht="17.55" spans="1:5">
+      <c r="A47" s="40" t="s">
         <v>174</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="40" t="s">
         <v>175</v>
       </c>
       <c r="D48"/>
@@ -5014,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -5024,11 +4925,11 @@
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -5134,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -5151,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -5168,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5185,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -5194,8 +5095,8 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A11" s="38" t="s">
+    <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A11" s="39" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -5207,8 +5108,8 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A12" s="38" t="s">
+    <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A12" s="39" t="s">
         <v>177</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -5220,8 +5121,8 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A13" s="38" t="s">
+    <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A13" s="39" t="s">
         <v>178</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -5233,8 +5134,8 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A14" s="38" t="s">
+    <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A14" s="39" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -5246,131 +5147,131 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A15" s="38" t="s">
+    <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A15" s="39" t="s">
         <v>180</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A16" s="38" t="s">
+    <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A16" s="39" t="s">
         <v>181</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A17" s="38" t="s">
+    <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A17" s="39" t="s">
         <v>182</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A18" s="38" t="s">
+    <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A18" s="39" t="s">
         <v>183</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A19" s="38" t="s">
+    <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A19" s="39" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A20" s="38" t="s">
+    <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A20" s="39" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A21" s="38" t="s">
+    <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A21" s="39" t="s">
         <v>186</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A22" s="38" t="s">
+    <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A22" s="39" t="s">
         <v>187</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A23" s="38" t="s">
+    <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A23" s="39" t="s">
         <v>188</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A24" s="38" t="s">
+    <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A24" s="39" t="s">
         <v>189</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A25" s="38" t="s">
+    <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A25" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A26" s="38" t="s">
+    <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A26" s="39" t="s">
         <v>191</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A27" s="38" t="s">
+    <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A27" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A28" s="38" t="s">
+    <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A28" s="39" t="s">
         <v>193</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A29" s="38" t="s">
+    <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A29" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" s="25" customFormat="1" ht="81.75" spans="1:5">
-      <c r="A30" s="39" t="s">
+    <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
+      <c r="A30" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -5379,8 +5280,8 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A31" s="39" t="s">
+    <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A31" s="40" t="s">
         <v>196</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -5392,8 +5293,8 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A32" s="39" t="s">
+    <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A32" s="40" t="s">
         <v>197</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -5405,8 +5306,8 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" s="25" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A33" s="39" t="s">
+    <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A33" s="40" t="s">
         <v>198</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -5418,106 +5319,106 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" ht="14.25" spans="1:5">
-      <c r="A34" s="39" t="s">
+    <row r="34" ht="17.55" spans="1:5">
+      <c r="A34" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:5">
-      <c r="A35" s="39" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" ht="17.55" spans="1:5">
+      <c r="A35" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="39" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" ht="17.55" spans="1:5">
+      <c r="A36" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:5">
-      <c r="A37" s="39" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" ht="17.55" spans="1:5">
+      <c r="A37" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:5">
-      <c r="A38" s="39" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" ht="17.55" spans="1:5">
+      <c r="A38" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:5">
-      <c r="A39" s="39" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" ht="17.55" spans="1:5">
+      <c r="A39" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:5">
-      <c r="A40" s="39" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" ht="17.55" spans="1:5">
+      <c r="A40" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:5">
-      <c r="A41" s="39" t="s">
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" ht="17.55" spans="1:5">
+      <c r="A41" s="40" t="s">
         <v>206</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:5">
-      <c r="A42" s="39" t="s">
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" ht="17.55" spans="1:5">
+      <c r="A42" s="40" t="s">
         <v>207</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" ht="14.25" spans="1:5">
-      <c r="A43" s="39" t="s">
+    <row r="43" ht="17.55" spans="1:5">
+      <c r="A43" s="40" t="s">
         <v>208</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" ht="14.25" spans="1:5">
-      <c r="A44" s="39" t="s">
+    <row r="44" ht="17.55" spans="1:5">
+      <c r="A44" s="40" t="s">
         <v>209</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" ht="14.25" spans="1:5">
-      <c r="A45" s="39" t="s">
+    <row r="45" ht="17.55" spans="1:5">
+      <c r="A45" s="40" t="s">
         <v>210</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" ht="14.25" spans="1:5">
-      <c r="A46" s="39" t="s">
+    <row r="46" ht="17.55" spans="1:5">
+      <c r="A46" s="40" t="s">
         <v>211</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" ht="14.25" spans="1:5">
-      <c r="A47" s="39" t="s">
+    <row r="47" ht="17.55" spans="1:5">
+      <c r="A47" s="40" t="s">
         <v>212</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="40" t="s">
         <v>213</v>
       </c>
       <c r="D48"/>
@@ -5597,7 +5498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -5607,11 +5508,11 @@
       <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -5717,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -5734,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -5768,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -5931,21 +5832,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="$A93:$XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -6051,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -6068,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -6085,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -6102,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -6111,7 +6012,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A11" s="37" t="s">
         <v>242</v>
       </c>
@@ -6121,7 +6022,7 @@
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A12" s="37" t="s">
         <v>244</v>
       </c>
@@ -6131,7 +6032,7 @@
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A13" s="37" t="s">
         <v>246</v>
       </c>
@@ -6141,7 +6042,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A14" s="37" t="s">
         <v>248</v>
       </c>
@@ -6151,7 +6052,7 @@
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A15" s="37" t="s">
         <v>250</v>
       </c>
@@ -6160,7 +6061,7 @@
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A16" s="37" t="s">
         <v>251</v>
       </c>
@@ -6169,7 +6070,7 @@
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A17" s="37" t="s">
         <v>252</v>
       </c>
@@ -6178,7 +6079,7 @@
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A18" s="37" t="s">
         <v>253</v>
       </c>
@@ -6187,7 +6088,7 @@
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A19" s="37" t="s">
         <v>254</v>
       </c>
@@ -6196,7 +6097,7 @@
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A20" s="37" t="s">
         <v>255</v>
       </c>
@@ -6205,7 +6106,7 @@
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A21" s="37" t="s">
         <v>256</v>
       </c>
@@ -6214,7 +6115,7 @@
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A22" s="37" t="s">
         <v>257</v>
       </c>
@@ -6223,7 +6124,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A23" s="37" t="s">
         <v>258</v>
       </c>
@@ -6232,7 +6133,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A24" s="37" t="s">
         <v>259</v>
       </c>
@@ -6241,7 +6142,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A25" s="37" t="s">
         <v>260</v>
       </c>
@@ -6250,7 +6151,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A26" s="37" t="s">
         <v>261</v>
       </c>
@@ -6259,7 +6160,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A27" s="37" t="s">
         <v>262</v>
       </c>
@@ -6268,7 +6169,7 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A28" s="37" t="s">
         <v>263</v>
       </c>
@@ -6286,8 +6187,8 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="35" t="s">
+    <row r="30" ht="17" spans="1:3">
+      <c r="A30" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B30" s="36"/>
@@ -6295,8 +6196,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="35" t="s">
+    <row r="31" ht="17" spans="1:3">
+      <c r="A31" s="38" t="s">
         <v>267</v>
       </c>
       <c r="B31" s="36"/>
@@ -6304,8 +6205,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="35" t="s">
+    <row r="32" ht="17" spans="1:3">
+      <c r="A32" s="38" t="s">
         <v>269</v>
       </c>
       <c r="B32" s="36"/>
@@ -6313,8 +6214,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="35" t="s">
+    <row r="33" ht="17" spans="1:3">
+      <c r="A33" s="38" t="s">
         <v>271</v>
       </c>
       <c r="B33" s="36"/>
@@ -6322,8 +6223,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="35" t="s">
+    <row r="34" ht="17" spans="1:3">
+      <c r="A34" s="38" t="s">
         <v>273</v>
       </c>
       <c r="B34" s="36"/>
@@ -6331,8 +6232,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="35" t="s">
+    <row r="35" ht="17" spans="1:3">
+      <c r="A35" s="38" t="s">
         <v>275</v>
       </c>
       <c r="B35" s="36"/>
@@ -6340,8 +6241,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="35" t="s">
+    <row r="36" ht="17" spans="1:3">
+      <c r="A36" s="38" t="s">
         <v>277</v>
       </c>
       <c r="B36" s="36"/>
@@ -6349,8 +6250,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="35" t="s">
+    <row r="37" ht="17" spans="1:3">
+      <c r="A37" s="38" t="s">
         <v>279</v>
       </c>
       <c r="B37" s="36"/>
@@ -6358,8 +6259,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="35" t="s">
+    <row r="38" ht="17" spans="1:3">
+      <c r="A38" s="38" t="s">
         <v>281</v>
       </c>
       <c r="B38" s="36"/>
@@ -6367,8 +6268,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="35" t="s">
+    <row r="39" ht="17" spans="1:3">
+      <c r="A39" s="38" t="s">
         <v>283</v>
       </c>
       <c r="B39" s="36"/>
@@ -6376,8 +6277,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="35" t="s">
+    <row r="40" ht="17" spans="1:3">
+      <c r="A40" s="38" t="s">
         <v>285</v>
       </c>
       <c r="B40" s="36"/>
@@ -6385,8 +6286,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="35" t="s">
+    <row r="41" ht="17" spans="1:3">
+      <c r="A41" s="38" t="s">
         <v>287</v>
       </c>
       <c r="B41" s="36"/>
@@ -6394,8 +6295,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="35" t="s">
+    <row r="42" ht="17" spans="1:3">
+      <c r="A42" s="38" t="s">
         <v>289</v>
       </c>
       <c r="B42" s="36"/>
@@ -6403,8 +6304,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="35" t="s">
+    <row r="43" ht="17" spans="1:3">
+      <c r="A43" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B43" s="36"/>
@@ -6412,8 +6313,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="35" t="s">
+    <row r="44" ht="17" spans="1:3">
+      <c r="A44" s="38" t="s">
         <v>293</v>
       </c>
       <c r="B44" s="36"/>
@@ -6421,8 +6322,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="35" t="s">
+    <row r="45" ht="17" spans="1:3">
+      <c r="A45" s="38" t="s">
         <v>295</v>
       </c>
       <c r="B45" s="36"/>
@@ -6430,8 +6331,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="35" t="s">
+    <row r="46" ht="17" spans="1:3">
+      <c r="A46" s="38" t="s">
         <v>297</v>
       </c>
       <c r="B46" s="36"/>
@@ -6439,8 +6340,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="35" t="s">
+    <row r="47" ht="17" spans="1:3">
+      <c r="A47" s="38" t="s">
         <v>299</v>
       </c>
       <c r="B47" s="36"/>
@@ -6448,8 +6349,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="35" t="s">
+    <row r="48" ht="17" spans="1:3">
+      <c r="A48" s="38" t="s">
         <v>301</v>
       </c>
       <c r="B48" s="36"/>
@@ -6457,8 +6358,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="35" t="s">
+    <row r="49" ht="17" spans="1:3">
+      <c r="A49" s="38" t="s">
         <v>303</v>
       </c>
       <c r="B49" s="36"/>
@@ -6466,8 +6367,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="35" t="s">
+    <row r="50" ht="17" spans="1:3">
+      <c r="A50" s="38" t="s">
         <v>305</v>
       </c>
       <c r="B50" s="36"/>
@@ -6475,8 +6376,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="35" t="s">
+    <row r="51" ht="17" spans="1:3">
+      <c r="A51" s="38" t="s">
         <v>307</v>
       </c>
       <c r="B51" s="36"/>
@@ -6484,8 +6385,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="35" t="s">
+    <row r="52" ht="17" spans="1:3">
+      <c r="A52" s="38" t="s">
         <v>309</v>
       </c>
       <c r="B52" s="36"/>
@@ -6493,8 +6394,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="35" t="s">
+    <row r="53" ht="17" spans="1:3">
+      <c r="A53" s="38" t="s">
         <v>311</v>
       </c>
       <c r="B53" s="36"/>
@@ -6502,8 +6403,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="35" t="s">
+    <row r="54" ht="17" spans="1:3">
+      <c r="A54" s="38" t="s">
         <v>313</v>
       </c>
       <c r="B54" s="36"/>
@@ -6511,8 +6412,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="35" t="s">
+    <row r="55" ht="17" spans="1:3">
+      <c r="A55" s="38" t="s">
         <v>315</v>
       </c>
       <c r="B55" s="36"/>
@@ -6520,8 +6421,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="35" t="s">
+    <row r="56" ht="17" spans="1:3">
+      <c r="A56" s="38" t="s">
         <v>317</v>
       </c>
       <c r="B56" s="36"/>
@@ -6529,8 +6430,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="35" t="s">
+    <row r="57" ht="17" spans="1:3">
+      <c r="A57" s="38" t="s">
         <v>319</v>
       </c>
       <c r="B57" s="36"/>
@@ -6538,8 +6439,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="35" t="s">
+    <row r="58" ht="17" spans="1:3">
+      <c r="A58" s="38" t="s">
         <v>321</v>
       </c>
       <c r="B58" s="36"/>
@@ -6547,8 +6448,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="35" t="s">
+    <row r="59" ht="17" spans="1:3">
+      <c r="A59" s="38" t="s">
         <v>323</v>
       </c>
       <c r="B59" s="36"/>
@@ -6556,8 +6457,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="35" t="s">
+    <row r="60" ht="17" spans="1:3">
+      <c r="A60" s="38" t="s">
         <v>325</v>
       </c>
       <c r="B60" s="36"/>
@@ -6565,8 +6466,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="35" t="s">
+    <row r="61" ht="17" spans="1:3">
+      <c r="A61" s="38" t="s">
         <v>327</v>
       </c>
       <c r="B61" s="36"/>
@@ -6574,8 +6475,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="35" t="s">
+    <row r="62" ht="17" spans="1:3">
+      <c r="A62" s="38" t="s">
         <v>329</v>
       </c>
       <c r="B62" s="36"/>
@@ -6583,8 +6484,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="35" t="s">
+    <row r="63" ht="17" spans="1:3">
+      <c r="A63" s="38" t="s">
         <v>331</v>
       </c>
       <c r="B63" s="36"/>
@@ -6592,8 +6493,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="35" t="s">
+    <row r="64" ht="17" spans="1:3">
+      <c r="A64" s="38" t="s">
         <v>333</v>
       </c>
       <c r="B64" s="36"/>
@@ -6601,8 +6502,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="35" t="s">
+    <row r="65" ht="17" spans="1:3">
+      <c r="A65" s="38" t="s">
         <v>335</v>
       </c>
       <c r="B65" s="36"/>
@@ -6610,8 +6511,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="35" t="s">
+    <row r="66" ht="17" spans="1:3">
+      <c r="A66" s="38" t="s">
         <v>337</v>
       </c>
       <c r="B66" s="36"/>
@@ -6619,8 +6520,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="35" t="s">
+    <row r="67" ht="17" spans="1:3">
+      <c r="A67" s="38" t="s">
         <v>339</v>
       </c>
       <c r="B67" s="36"/>
@@ -6628,8 +6529,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="35" t="s">
+    <row r="68" ht="17" spans="1:3">
+      <c r="A68" s="38" t="s">
         <v>341</v>
       </c>
       <c r="B68" s="36"/>
@@ -6637,8 +6538,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="35" t="s">
+    <row r="69" ht="17" spans="1:3">
+      <c r="A69" s="38" t="s">
         <v>343</v>
       </c>
       <c r="B69" s="36"/>
@@ -6646,8 +6547,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="35" t="s">
+    <row r="70" ht="17" spans="1:3">
+      <c r="A70" s="38" t="s">
         <v>345</v>
       </c>
       <c r="B70" s="36"/>
@@ -6655,8 +6556,8 @@
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="35" t="s">
+    <row r="71" ht="17" spans="1:3">
+      <c r="A71" s="38" t="s">
         <v>347</v>
       </c>
       <c r="B71" s="36"/>
@@ -6664,8 +6565,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="35" t="s">
+    <row r="72" ht="17" spans="1:3">
+      <c r="A72" s="38" t="s">
         <v>349</v>
       </c>
       <c r="B72" s="36"/>
@@ -6673,8 +6574,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="35" t="s">
+    <row r="73" ht="17" spans="1:3">
+      <c r="A73" s="38" t="s">
         <v>351</v>
       </c>
       <c r="B73" s="36"/>
@@ -6682,8 +6583,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="35" t="s">
+    <row r="74" ht="17" spans="1:3">
+      <c r="A74" s="38" t="s">
         <v>353</v>
       </c>
       <c r="B74" s="36"/>
@@ -6691,8 +6592,8 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="35" t="s">
+    <row r="75" ht="17" spans="1:3">
+      <c r="A75" s="38" t="s">
         <v>355</v>
       </c>
       <c r="B75" s="36"/>
@@ -6700,8 +6601,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="35" t="s">
+    <row r="76" ht="17" spans="1:3">
+      <c r="A76" s="38" t="s">
         <v>357</v>
       </c>
       <c r="B76" s="36"/>
@@ -6709,8 +6610,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="35" t="s">
+    <row r="77" ht="17" spans="1:3">
+      <c r="A77" s="38" t="s">
         <v>359</v>
       </c>
       <c r="B77" s="36"/>
@@ -6718,8 +6619,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="35" t="s">
+    <row r="78" ht="17" spans="1:3">
+      <c r="A78" s="38" t="s">
         <v>361</v>
       </c>
       <c r="B78" s="36"/>
@@ -6727,8 +6628,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="35" t="s">
+    <row r="79" ht="17" spans="1:3">
+      <c r="A79" s="38" t="s">
         <v>363</v>
       </c>
       <c r="B79" s="36"/>
@@ -6736,8 +6637,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="35" t="s">
+    <row r="80" ht="17" spans="1:3">
+      <c r="A80" s="38" t="s">
         <v>365</v>
       </c>
       <c r="B80" s="36"/>
@@ -6745,8 +6646,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="35" t="s">
+    <row r="81" ht="17" spans="1:3">
+      <c r="A81" s="38" t="s">
         <v>367</v>
       </c>
       <c r="B81" s="36"/>
@@ -6754,8 +6655,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="35" t="s">
+    <row r="82" ht="17" spans="1:3">
+      <c r="A82" s="38" t="s">
         <v>369</v>
       </c>
       <c r="B82" s="36"/>
@@ -6763,8 +6664,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="35" t="s">
+    <row r="83" ht="17" spans="1:3">
+      <c r="A83" s="38" t="s">
         <v>371</v>
       </c>
       <c r="B83" s="36"/>
@@ -6772,8 +6673,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="35" t="s">
+    <row r="84" ht="17" spans="1:3">
+      <c r="A84" s="38" t="s">
         <v>373</v>
       </c>
       <c r="B84" s="36"/>
@@ -6781,8 +6682,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="35" t="s">
+    <row r="85" ht="17" spans="1:3">
+      <c r="A85" s="38" t="s">
         <v>375</v>
       </c>
       <c r="B85" s="36"/>
@@ -6790,8 +6691,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="35" t="s">
+    <row r="86" ht="17" spans="1:3">
+      <c r="A86" s="38" t="s">
         <v>377</v>
       </c>
       <c r="B86" s="36"/>
@@ -6799,8 +6700,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="35" t="s">
+    <row r="87" ht="17" spans="1:3">
+      <c r="A87" s="38" t="s">
         <v>379</v>
       </c>
       <c r="B87" s="36"/>
@@ -6808,8 +6709,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="35" t="s">
+    <row r="88" ht="17" spans="1:3">
+      <c r="A88" s="38" t="s">
         <v>381</v>
       </c>
       <c r="B88" s="36"/>
@@ -6817,8 +6718,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="35" t="s">
+    <row r="89" ht="17" spans="1:3">
+      <c r="A89" s="38" t="s">
         <v>383</v>
       </c>
       <c r="B89" s="36"/>
@@ -6826,8 +6727,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="35" t="s">
+    <row r="90" ht="17" spans="1:3">
+      <c r="A90" s="38" t="s">
         <v>385</v>
       </c>
       <c r="B90" s="36"/>
@@ -6835,8 +6736,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="35" t="s">
+    <row r="91" ht="17" spans="1:3">
+      <c r="A91" s="38" t="s">
         <v>387</v>
       </c>
       <c r="B91" s="36"/>
@@ -6844,121 +6745,13 @@
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="35" t="s">
+    <row r="92" ht="17" spans="1:3">
+      <c r="A92" s="38" t="s">
         <v>389</v>
       </c>
       <c r="B92" s="36"/>
       <c r="C92" s="36" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6975,21 +6768,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A29"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="$A93:$XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -7095,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -7112,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -7129,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -7146,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -7155,166 +6948,166 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A11" s="33" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A12" s="33" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A13" s="33" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" s="28" customFormat="1" ht="14.25" spans="1:5">
+    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A14" s="33" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A15" s="33" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="34"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A16" s="33" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="34"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A17" s="33" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="34"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A18" s="33" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="34"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A19" s="33" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="34"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A20" s="33" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="34"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A21" s="33" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="34"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A22" s="33" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="34"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A23" s="33" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="34"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A24" s="33" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="34"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A25" s="33" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="34"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="34"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A27" s="33" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="34"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="32" customFormat="1" ht="14.25" spans="1:5">
+    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A28" s="33" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="34"/>
@@ -7323,7 +7116,7 @@
     </row>
     <row r="29" s="32" customFormat="1" spans="1:5">
       <c r="A29" s="33" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="34"/>
@@ -7332,7 +7125,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="35" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36" t="s">
@@ -7341,7 +7134,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="35" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
@@ -7350,7 +7143,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="35" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
@@ -7359,7 +7152,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="35" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36" t="s">
@@ -7368,7 +7161,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="35" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36" t="s">
@@ -7377,7 +7170,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="35" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
@@ -7386,7 +7179,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="35" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36" t="s">
@@ -7395,7 +7188,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="35" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36" t="s">
@@ -7404,7 +7197,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="35" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36" t="s">
@@ -7413,7 +7206,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="35" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="36" t="s">
@@ -7422,7 +7215,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="35" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="36" t="s">
@@ -7431,7 +7224,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="35" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36" t="s">
@@ -7440,7 +7233,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="35" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36" t="s">
@@ -7449,7 +7242,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="35" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36" t="s">
@@ -7458,7 +7251,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="35" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="36" t="s">
@@ -7467,7 +7260,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="35" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="36" t="s">
@@ -7476,7 +7269,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="35" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="36" t="s">
@@ -7485,7 +7278,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="35" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="36" t="s">
@@ -7494,7 +7287,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="35" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36" t="s">
@@ -7503,7 +7296,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="35" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="36" t="s">
@@ -7512,7 +7305,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="35" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="36" t="s">
@@ -7521,7 +7314,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="35" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36" t="s">
@@ -7530,7 +7323,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="35" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
@@ -7539,7 +7332,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="35" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="B53" s="36"/>
       <c r="C53" s="36" t="s">
@@ -7548,7 +7341,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="35" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36" t="s">
@@ -7557,7 +7350,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="35" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="36" t="s">
@@ -7566,7 +7359,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="35" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36" t="s">
@@ -7575,34 +7368,34 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="35" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="36" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="35" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="36" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="35" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="36" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="35" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="36" t="s">
@@ -7611,7 +7404,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="35" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="36" t="s">
@@ -7620,7 +7413,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="35" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="36" t="s">
@@ -7629,7 +7422,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="35" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="36" t="s">
@@ -7638,7 +7431,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="35" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="36" t="s">
@@ -7647,7 +7440,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="35" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36" t="s">
@@ -7656,7 +7449,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="35" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="36" t="s">
@@ -7665,7 +7458,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="35" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="36" t="s">
@@ -7674,7 +7467,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="35" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36" t="s">
@@ -7683,7 +7476,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="35" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B69" s="36"/>
       <c r="C69" s="36" t="s">
@@ -7692,7 +7485,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="35" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="36" t="s">
@@ -7701,7 +7494,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="35" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36" t="s">
@@ -7710,7 +7503,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="35" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36" t="s">
@@ -7719,7 +7512,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="35" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36" t="s">
@@ -7728,7 +7521,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="35" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36" t="s">
@@ -7737,7 +7530,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="35" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="B75" s="36"/>
       <c r="C75" s="36" t="s">
@@ -7746,7 +7539,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="35" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B76" s="36"/>
       <c r="C76" s="36" t="s">
@@ -7755,7 +7548,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="35" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="36" t="s">
@@ -7764,7 +7557,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="35" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B78" s="36"/>
       <c r="C78" s="36" t="s">
@@ -7773,7 +7566,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="35" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="B79" s="36"/>
       <c r="C79" s="36" t="s">
@@ -7782,7 +7575,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="35" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36" t="s">
@@ -7791,7 +7584,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="35" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36" t="s">
@@ -7800,7 +7593,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="35" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36" t="s">
@@ -7809,7 +7602,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="35" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36" t="s">
@@ -7818,34 +7611,34 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="35" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="35" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="36" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="35" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="35" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36" t="s">
@@ -7854,7 +7647,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="35" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="36" t="s">
@@ -7863,7 +7656,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="35" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="36" t="s">
@@ -7872,137 +7665,29 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="35" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B90" s="36"/>
       <c r="C90" s="36" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="35" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B91" s="36"/>
       <c r="C91" s="36" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="35" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="B92" s="36"/>
       <c r="C92" s="36" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="35" t="s">
-        <v>514</v>
-      </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8019,7 +7704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -8029,11 +7714,11 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -8139,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -8156,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -8173,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -8190,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
@@ -8201,200 +7886,200 @@
     </row>
     <row r="11" s="22" customFormat="1" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="22" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" s="25" customFormat="1" spans="1:5">
       <c r="A18" s="29" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" s="25" customFormat="1" spans="1:5">
       <c r="A19" s="29" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:5">
       <c r="A20" s="29" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
     <row r="21" s="28" customFormat="1" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="28" customFormat="1" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" s="28" customFormat="1" spans="1:5">
       <c r="A25" s="30" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" s="28" customFormat="1" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="28" customFormat="1" spans="1:5">
       <c r="A27" s="30" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" s="28" customFormat="1" spans="1:5">
       <c r="A28" s="30" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="28" customFormat="1" spans="1:5">
       <c r="A29" s="30" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" s="28" customFormat="1" spans="1:5">
       <c r="A30" s="30" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -8413,7 +8098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -8423,11 +8108,11 @@
       <selection pane="bottomLeft" activeCell="A122" sqref="$A11:$XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -8533,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -8550,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -8567,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -8584,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>14</v>
       </c>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573">
   <si>
     <t>Id</t>
   </si>
@@ -557,60 +557,117 @@
     <t>NameID_Hero001</t>
   </si>
   <si>
+    <t>暗影刺客</t>
+  </si>
+  <si>
     <t>NameID_Hero002</t>
   </si>
   <si>
+    <t>唐僧</t>
+  </si>
+  <si>
     <t>NameID_Hero003</t>
   </si>
   <si>
+    <t>东洋忍者</t>
+  </si>
+  <si>
     <t>NameID_Hero004</t>
   </si>
   <si>
+    <t>溪涧武士</t>
+  </si>
+  <si>
     <t>NameID_Hero005</t>
   </si>
   <si>
+    <t>狂战士</t>
+  </si>
+  <si>
     <t>NameID_Hero006</t>
   </si>
   <si>
+    <t>库克船长</t>
+  </si>
+  <si>
     <t>NameID_Hero007</t>
   </si>
   <si>
+    <t>矮人国王</t>
+  </si>
+  <si>
     <t>NameID_Hero008</t>
   </si>
   <si>
+    <t>敌法师</t>
+  </si>
+  <si>
     <t>NameID_Hero009</t>
   </si>
   <si>
+    <t>花仙子</t>
+  </si>
+  <si>
     <t>NameID_Hero010</t>
   </si>
   <si>
+    <t>马尔斯</t>
+  </si>
+  <si>
     <t>NameID_Hero011</t>
   </si>
   <si>
+    <t>艾里斯</t>
+  </si>
+  <si>
     <t>NameID_Hero012</t>
   </si>
   <si>
+    <t>地狱火</t>
+  </si>
+  <si>
     <t>NameID_Hero013</t>
   </si>
   <si>
+    <t>骷髅射手</t>
+  </si>
+  <si>
     <t>NameID_Hero014</t>
   </si>
   <si>
+    <t>暗影萨满</t>
+  </si>
+  <si>
     <t>NameID_Hero015</t>
   </si>
   <si>
+    <t>鼠人</t>
+  </si>
+  <si>
     <t>NameID_Hero016</t>
   </si>
   <si>
+    <t>矮人</t>
+  </si>
+  <si>
     <t>NameID_Hero017</t>
   </si>
   <si>
+    <t>食人魔</t>
+  </si>
+  <si>
     <t>NameID_Hero018</t>
   </si>
   <si>
+    <t>孙悟空</t>
+  </si>
+  <si>
     <t>NameID_Hero019</t>
   </si>
   <si>
+    <t>圆桌骑士</t>
+  </si>
+  <si>
     <t>DescID_Hero001</t>
   </si>
   <si>
@@ -755,72 +812,117 @@
     <t>NameID_Card_Hero001</t>
   </si>
   <si>
-    <t>食人兽·英雄卷轴</t>
+    <t>暗影刺客·英雄卷轴</t>
   </si>
   <si>
     <t>NameID_Card_Hero002</t>
   </si>
   <si>
+    <t>唐僧·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero003</t>
+  </si>
+  <si>
+    <t>东洋忍者·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero004</t>
+  </si>
+  <si>
+    <t>溪涧武士·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero005</t>
+  </si>
+  <si>
+    <t>狂战士·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero006</t>
+  </si>
+  <si>
+    <t>库克船长·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero007</t>
+  </si>
+  <si>
+    <t>矮人国王·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero008</t>
+  </si>
+  <si>
+    <t>敌法师·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero009</t>
+  </si>
+  <si>
+    <t>花仙子·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero010</t>
+  </si>
+  <si>
+    <t>马尔斯·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero011</t>
+  </si>
+  <si>
+    <t>艾里斯·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero012</t>
+  </si>
+  <si>
+    <t>地狱火·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero013</t>
+  </si>
+  <si>
+    <t>骷髅射手·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero014</t>
+  </si>
+  <si>
+    <t>暗影萨满·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero015</t>
+  </si>
+  <si>
+    <t>鼠人·英雄卷轴</t>
+  </si>
+  <si>
+    <t>NameID_Card_Hero016</t>
+  </si>
+  <si>
     <t>矮人·英雄卷轴</t>
   </si>
   <si>
-    <t>NameID_Card_Hero003</t>
-  </si>
-  <si>
-    <t>鼠人·英雄卷轴</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero004</t>
-  </si>
-  <si>
-    <t>溪涧武士·英雄卷轴</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero005</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero006</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero007</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero008</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero009</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero010</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero011</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero012</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero013</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero014</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero015</t>
-  </si>
-  <si>
-    <t>NameID_Card_Hero016</t>
-  </si>
-  <si>
     <t>NameID_Card_Hero017</t>
   </si>
   <si>
+    <t>食人魔·英雄卷轴</t>
+  </si>
+  <si>
     <t>NameID_Card_Hero018</t>
   </si>
   <si>
+    <t>孙悟空·英雄卷轴</t>
+  </si>
+  <si>
     <t>NameID_Card_Hero019</t>
   </si>
   <si>
+    <t>圆桌骑士·英雄卷轴</t>
+  </si>
+  <si>
     <t>NameID_Building000</t>
   </si>
   <si>
@@ -1184,19 +1286,19 @@
     <t>NameID_Building200</t>
   </si>
   <si>
-    <t>直升机·一级</t>
+    <t>火龙炮·一级</t>
   </si>
   <si>
     <t>NameID_Building201</t>
   </si>
   <si>
-    <t>直升机·二级</t>
+    <t>火龙炮·二级</t>
   </si>
   <si>
     <t>NameID_Building202</t>
   </si>
   <si>
-    <t>直升机·三级</t>
+    <t>火龙炮·三级</t>
   </si>
   <si>
     <t>Desc_Card_Hero001</t>
@@ -1469,19 +1571,10 @@
     <t>DescID_Building200</t>
   </si>
   <si>
-    <t>武装直升机·一级</t>
-  </si>
-  <si>
     <t>DescID_Building201</t>
   </si>
   <si>
-    <t>武装直升机·二级</t>
-  </si>
-  <si>
     <t>DescID_Building202</t>
-  </si>
-  <si>
-    <t>武装直升机·三级</t>
   </si>
   <si>
     <t>Desc_Gold_Item1</t>
@@ -1657,8 +1750,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1683,13 +1776,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1709,6 +1802,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1717,8 +1825,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,44 +1894,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1784,29 +1909,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1814,31 +1916,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1902,7 +1995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,7 +2007,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,157 +2163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2353,7 +2446,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2388,17 +2481,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2431,18 +2520,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2451,144 +2544,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2596,7 +2689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2708,13 +2801,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2723,7 +2819,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3316,57 +3412,57 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" spans="1:3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="49" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" s="27" customFormat="1" spans="1:3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" s="27" customFormat="1" spans="1:3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" s="27" customFormat="1" spans="1:3">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" s="27" customFormat="1" spans="1:3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="50" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3566,88 +3662,88 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -3967,351 +4063,351 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="46" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="46" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="46" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="46" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="46" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="46" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="46" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="46" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="46" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="46" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="46" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="46" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -4513,7 +4609,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -4526,7 +4622,7 @@
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -4539,7 +4635,7 @@
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -4552,7 +4648,7 @@
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -4565,7 +4661,7 @@
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="26"/>
@@ -4573,7 +4669,7 @@
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="26"/>
@@ -4581,7 +4677,7 @@
       <c r="E16" s="27"/>
     </row>
     <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="26"/>
@@ -4589,7 +4685,7 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="26"/>
@@ -4597,7 +4693,7 @@
       <c r="E18" s="27"/>
     </row>
     <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="40" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="26"/>
@@ -4605,7 +4701,7 @@
       <c r="E19" s="27"/>
     </row>
     <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="26"/>
@@ -4613,7 +4709,7 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="26"/>
@@ -4621,7 +4717,7 @@
       <c r="E21" s="27"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>141</v>
       </c>
       <c r="C22" s="26"/>
@@ -4629,7 +4725,7 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="40" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="26"/>
@@ -4637,7 +4733,7 @@
       <c r="E23" s="27"/>
     </row>
     <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>143</v>
       </c>
       <c r="C24" s="26"/>
@@ -4645,7 +4741,7 @@
       <c r="E24" s="27"/>
     </row>
     <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>144</v>
       </c>
       <c r="C25" s="26"/>
@@ -4653,7 +4749,7 @@
       <c r="E25" s="27"/>
     </row>
     <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="40" t="s">
         <v>145</v>
       </c>
       <c r="C26" s="26"/>
@@ -4661,7 +4757,7 @@
       <c r="E26" s="27"/>
     </row>
     <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>146</v>
       </c>
       <c r="C27" s="26"/>
@@ -4669,7 +4765,7 @@
       <c r="E27" s="27"/>
     </row>
     <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="40" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="26"/>
@@ -4677,7 +4773,7 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
         <v>148</v>
       </c>
       <c r="C29" s="26"/>
@@ -4685,10 +4781,10 @@
       <c r="E29" s="27"/>
     </row>
     <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -4698,7 +4794,7 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -4711,7 +4807,7 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>155</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -4724,7 +4820,7 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="41" t="s">
         <v>158</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -4737,105 +4833,105 @@
       <c r="E33" s="27"/>
     </row>
     <row r="34" ht="17.55" spans="1:5">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" ht="17.55" spans="1:5">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" ht="17.55" spans="1:5">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" ht="17.55" spans="1:5">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" ht="17.55" spans="1:5">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" ht="17.55" spans="1:5">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" ht="17.55" spans="1:5">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" ht="17.55" spans="1:5">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>168</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="42"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" ht="17.55" spans="1:5">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="41" t="s">
         <v>169</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" ht="17.55" spans="1:5">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="41" t="s">
         <v>170</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" ht="17.55" spans="1:5">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" ht="17.55" spans="1:5">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" ht="17.55" spans="1:5">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
         <v>173</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" ht="17.55" spans="1:5">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="41" t="s">
         <v>175</v>
       </c>
       <c r="D48"/>
@@ -4922,7 +5018,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -5096,182 +5192,212 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>124</v>
+      <c r="C11" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="39" t="s">
-        <v>177</v>
+      <c r="A12" s="40" t="s">
+        <v>178</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>127</v>
+      <c r="C12" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="39" t="s">
-        <v>178</v>
+      <c r="A13" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>130</v>
+      <c r="C13" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="39" t="s">
-        <v>179</v>
+      <c r="A14" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>133</v>
+      <c r="C14" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="26"/>
+      <c r="A15" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>185</v>
+      </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="26"/>
+      <c r="A16" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>187</v>
+      </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="26"/>
+      <c r="A17" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="26"/>
+      <c r="A18" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="26"/>
+      <c r="A19" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="26"/>
+      <c r="A20" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
     <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="26"/>
+      <c r="A21" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="26"/>
+      <c r="A22" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
     <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="26"/>
+      <c r="A23" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
     <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="26"/>
+      <c r="A24" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>203</v>
+      </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
     <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="26"/>
+      <c r="A25" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>205</v>
+      </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
     <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="26"/>
+      <c r="A26" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>207</v>
+      </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
     <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="26"/>
+      <c r="A27" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>209</v>
+      </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
     <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="26"/>
+      <c r="A28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>211</v>
+      </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
     <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A29" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="26"/>
+      <c r="A29" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
     <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
-      <c r="A30" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -5281,8 +5407,8 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A31" s="40" t="s">
-        <v>196</v>
+      <c r="A31" s="41" t="s">
+        <v>215</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>153</v>
@@ -5294,8 +5420,8 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A32" s="40" t="s">
-        <v>197</v>
+      <c r="A32" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>156</v>
@@ -5307,8 +5433,8 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A33" s="40" t="s">
-        <v>198</v>
+      <c r="A33" s="41" t="s">
+        <v>217</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>159</v>
@@ -5320,106 +5446,106 @@
       <c r="E33" s="27"/>
     </row>
     <row r="34" ht="17.55" spans="1:5">
-      <c r="A34" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" ht="17.55" spans="1:5">
-      <c r="A35" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" ht="17.55" spans="1:5">
-      <c r="A36" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" ht="17.55" spans="1:5">
-      <c r="A37" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" ht="17.55" spans="1:5">
-      <c r="A38" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" ht="17.55" spans="1:5">
-      <c r="A39" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" ht="17.55" spans="1:5">
-      <c r="A40" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" ht="17.55" spans="1:5">
-      <c r="A41" s="40" t="s">
-        <v>206</v>
+      <c r="A41" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="42"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" ht="17.55" spans="1:5">
-      <c r="A42" s="40" t="s">
-        <v>207</v>
+      <c r="A42" s="41" t="s">
+        <v>226</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" ht="17.55" spans="1:5">
-      <c r="A43" s="40" t="s">
-        <v>208</v>
+      <c r="A43" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" ht="17.55" spans="1:5">
-      <c r="A44" s="40" t="s">
-        <v>209</v>
+      <c r="A44" s="41" t="s">
+        <v>228</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" ht="17.55" spans="1:5">
-      <c r="A45" s="40" t="s">
-        <v>210</v>
+      <c r="A45" s="41" t="s">
+        <v>229</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" ht="17.55" spans="1:5">
-      <c r="A46" s="40" t="s">
-        <v>211</v>
+      <c r="A46" s="41" t="s">
+        <v>230</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" ht="17.55" spans="1:5">
-      <c r="A47" s="40" t="s">
-        <v>212</v>
+      <c r="A47" s="41" t="s">
+        <v>231</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="40" t="s">
-        <v>213</v>
+      <c r="A48" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -5680,140 +5806,140 @@
     </row>
     <row r="11" s="25" customFormat="1" spans="1:5">
       <c r="A11" s="29" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="25" customFormat="1" spans="1:5">
       <c r="A13" s="29" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18" s="28" customFormat="1" spans="1:5">
       <c r="A18" s="30" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
     <row r="19" s="28" customFormat="1" spans="1:5">
       <c r="A19" s="30" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" s="28" customFormat="1" spans="1:5">
       <c r="A20" s="30" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" s="28" customFormat="1" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="28" customFormat="1" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -5837,9 +5963,9 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="$A93:$XFD104"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6013,745 +6139,775 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="37" t="s">
-        <v>242</v>
+      <c r="A11" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="37" t="s">
-        <v>244</v>
+      <c r="A12" s="38" t="s">
+        <v>263</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="37" t="s">
-        <v>246</v>
+      <c r="A13" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="37" t="s">
-        <v>248</v>
+      <c r="A14" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
     <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="37" t="s">
-        <v>250</v>
+      <c r="A15" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="B15" s="28"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="31" t="s">
+        <v>270</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
     <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="37" t="s">
-        <v>251</v>
+      <c r="A16" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="B16" s="28"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="34" t="s">
+        <v>272</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="37" t="s">
-        <v>252</v>
+      <c r="A17" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="B17" s="28"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="34" t="s">
+        <v>274</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="37" t="s">
-        <v>253</v>
+      <c r="A18" s="38" t="s">
+        <v>275</v>
       </c>
       <c r="B18" s="28"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="34" t="s">
+        <v>276</v>
+      </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
     <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="37" t="s">
-        <v>254</v>
+      <c r="A19" s="38" t="s">
+        <v>277</v>
       </c>
       <c r="B19" s="28"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="34" t="s">
+        <v>278</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="37" t="s">
-        <v>255</v>
+      <c r="A20" s="38" t="s">
+        <v>279</v>
       </c>
       <c r="B20" s="28"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="34" t="s">
+        <v>280</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="37" t="s">
-        <v>256</v>
+      <c r="A21" s="38" t="s">
+        <v>281</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="34" t="s">
+        <v>282</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="37" t="s">
-        <v>257</v>
+      <c r="A22" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="B22" s="28"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="34" t="s">
+        <v>284</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="37" t="s">
-        <v>258</v>
+      <c r="A23" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="34" t="s">
+        <v>286</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="37" t="s">
-        <v>259</v>
+      <c r="A24" s="38" t="s">
+        <v>287</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="37" t="s">
-        <v>260</v>
+      <c r="A25" s="38" t="s">
+        <v>289</v>
       </c>
       <c r="B25" s="28"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="34" t="s">
+        <v>290</v>
+      </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="37" t="s">
-        <v>261</v>
+      <c r="A26" s="38" t="s">
+        <v>291</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="34" t="s">
+        <v>292</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="37" t="s">
-        <v>262</v>
+      <c r="A27" s="38" t="s">
+        <v>293</v>
       </c>
       <c r="B27" s="28"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="34" t="s">
+        <v>294</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="37" t="s">
-        <v>263</v>
+      <c r="A28" s="38" t="s">
+        <v>295</v>
       </c>
       <c r="B28" s="28"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="34" t="s">
+        <v>296</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="32" customFormat="1" spans="1:5">
-      <c r="A29" s="37" t="s">
-        <v>264</v>
+      <c r="A29" s="38" t="s">
+        <v>297</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="34" t="s">
+        <v>298</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" ht="17" spans="1:3">
-      <c r="A30" s="38" t="s">
-        <v>265</v>
+      <c r="A30" s="39" t="s">
+        <v>299</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:3">
-      <c r="A31" s="38" t="s">
-        <v>267</v>
+      <c r="A31" s="39" t="s">
+        <v>301</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:3">
-      <c r="A32" s="38" t="s">
-        <v>269</v>
+      <c r="A32" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:3">
-      <c r="A33" s="38" t="s">
-        <v>271</v>
+      <c r="A33" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:3">
-      <c r="A34" s="38" t="s">
-        <v>273</v>
+      <c r="A34" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:3">
-      <c r="A35" s="38" t="s">
-        <v>275</v>
+      <c r="A35" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:3">
-      <c r="A36" s="38" t="s">
-        <v>277</v>
+      <c r="A36" s="39" t="s">
+        <v>311</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:3">
-      <c r="A37" s="38" t="s">
-        <v>279</v>
+      <c r="A37" s="39" t="s">
+        <v>313</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:3">
-      <c r="A38" s="38" t="s">
-        <v>281</v>
+      <c r="A38" s="39" t="s">
+        <v>315</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:3">
-      <c r="A39" s="38" t="s">
-        <v>283</v>
+      <c r="A39" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:3">
-      <c r="A40" s="38" t="s">
-        <v>285</v>
+      <c r="A40" s="39" t="s">
+        <v>319</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:3">
-      <c r="A41" s="38" t="s">
-        <v>287</v>
+      <c r="A41" s="39" t="s">
+        <v>321</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:3">
-      <c r="A42" s="38" t="s">
-        <v>289</v>
+      <c r="A42" s="39" t="s">
+        <v>323</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:3">
-      <c r="A43" s="38" t="s">
-        <v>291</v>
+      <c r="A43" s="39" t="s">
+        <v>325</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" ht="17" spans="1:3">
-      <c r="A44" s="38" t="s">
-        <v>293</v>
+      <c r="A44" s="39" t="s">
+        <v>327</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:3">
-      <c r="A45" s="38" t="s">
-        <v>295</v>
+      <c r="A45" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" ht="17" spans="1:3">
-      <c r="A46" s="38" t="s">
-        <v>297</v>
+      <c r="A46" s="39" t="s">
+        <v>331</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" ht="17" spans="1:3">
-      <c r="A47" s="38" t="s">
-        <v>299</v>
+      <c r="A47" s="39" t="s">
+        <v>333</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" ht="17" spans="1:3">
-      <c r="A48" s="38" t="s">
-        <v>301</v>
+      <c r="A48" s="39" t="s">
+        <v>335</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:3">
-      <c r="A49" s="38" t="s">
-        <v>303</v>
+      <c r="A49" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="36" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:3">
-      <c r="A50" s="38" t="s">
-        <v>305</v>
+      <c r="A50" s="39" t="s">
+        <v>339</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" ht="17" spans="1:3">
-      <c r="A51" s="38" t="s">
-        <v>307</v>
+      <c r="A51" s="39" t="s">
+        <v>341</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" ht="17" spans="1:3">
-      <c r="A52" s="38" t="s">
-        <v>309</v>
+      <c r="A52" s="39" t="s">
+        <v>343</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" ht="17" spans="1:3">
-      <c r="A53" s="38" t="s">
-        <v>311</v>
+      <c r="A53" s="39" t="s">
+        <v>345</v>
       </c>
       <c r="B53" s="36"/>
       <c r="C53" s="36" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" ht="17" spans="1:3">
-      <c r="A54" s="38" t="s">
-        <v>313</v>
+      <c r="A54" s="39" t="s">
+        <v>347</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" ht="17" spans="1:3">
-      <c r="A55" s="38" t="s">
-        <v>315</v>
+      <c r="A55" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" ht="17" spans="1:3">
-      <c r="A56" s="38" t="s">
-        <v>317</v>
+      <c r="A56" s="39" t="s">
+        <v>351</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" ht="17" spans="1:3">
-      <c r="A57" s="38" t="s">
-        <v>319</v>
+      <c r="A57" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" ht="17" spans="1:3">
-      <c r="A58" s="38" t="s">
-        <v>321</v>
+      <c r="A58" s="39" t="s">
+        <v>355</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" ht="17" spans="1:3">
-      <c r="A59" s="38" t="s">
-        <v>323</v>
+      <c r="A59" s="39" t="s">
+        <v>357</v>
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="36" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="17" spans="1:3">
-      <c r="A60" s="38" t="s">
-        <v>325</v>
+      <c r="A60" s="39" t="s">
+        <v>359</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="36" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" ht="17" spans="1:3">
-      <c r="A61" s="38" t="s">
-        <v>327</v>
+      <c r="A61" s="39" t="s">
+        <v>361</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" ht="17" spans="1:3">
-      <c r="A62" s="38" t="s">
-        <v>329</v>
+      <c r="A62" s="39" t="s">
+        <v>363</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" ht="17" spans="1:3">
-      <c r="A63" s="38" t="s">
-        <v>331</v>
+      <c r="A63" s="39" t="s">
+        <v>365</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" ht="17" spans="1:3">
-      <c r="A64" s="38" t="s">
-        <v>333</v>
+      <c r="A64" s="39" t="s">
+        <v>367</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" ht="17" spans="1:3">
-      <c r="A65" s="38" t="s">
-        <v>335</v>
+      <c r="A65" s="39" t="s">
+        <v>369</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" ht="17" spans="1:3">
-      <c r="A66" s="38" t="s">
-        <v>337</v>
+      <c r="A66" s="39" t="s">
+        <v>371</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="36" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:3">
-      <c r="A67" s="38" t="s">
-        <v>339</v>
+      <c r="A67" s="39" t="s">
+        <v>373</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="36" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:3">
-      <c r="A68" s="38" t="s">
-        <v>341</v>
+      <c r="A68" s="39" t="s">
+        <v>375</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" ht="17" spans="1:3">
-      <c r="A69" s="38" t="s">
-        <v>343</v>
+      <c r="A69" s="39" t="s">
+        <v>377</v>
       </c>
       <c r="B69" s="36"/>
       <c r="C69" s="36" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" ht="17" spans="1:3">
-      <c r="A70" s="38" t="s">
-        <v>345</v>
+      <c r="A70" s="39" t="s">
+        <v>379</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="36" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" ht="17" spans="1:3">
-      <c r="A71" s="38" t="s">
-        <v>347</v>
+      <c r="A71" s="39" t="s">
+        <v>381</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" ht="17" spans="1:3">
-      <c r="A72" s="38" t="s">
-        <v>349</v>
+      <c r="A72" s="39" t="s">
+        <v>383</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" ht="17" spans="1:3">
-      <c r="A73" s="38" t="s">
-        <v>351</v>
+      <c r="A73" s="39" t="s">
+        <v>385</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" ht="17" spans="1:3">
-      <c r="A74" s="38" t="s">
-        <v>353</v>
+      <c r="A74" s="39" t="s">
+        <v>387</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" ht="17" spans="1:3">
-      <c r="A75" s="38" t="s">
-        <v>355</v>
+      <c r="A75" s="39" t="s">
+        <v>389</v>
       </c>
       <c r="B75" s="36"/>
       <c r="C75" s="36" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:3">
-      <c r="A76" s="38" t="s">
-        <v>357</v>
+      <c r="A76" s="39" t="s">
+        <v>391</v>
       </c>
       <c r="B76" s="36"/>
       <c r="C76" s="36" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:3">
-      <c r="A77" s="38" t="s">
-        <v>359</v>
+      <c r="A77" s="39" t="s">
+        <v>393</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="36" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:3">
-      <c r="A78" s="38" t="s">
-        <v>361</v>
+      <c r="A78" s="39" t="s">
+        <v>395</v>
       </c>
       <c r="B78" s="36"/>
       <c r="C78" s="36" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:3">
-      <c r="A79" s="38" t="s">
-        <v>363</v>
+      <c r="A79" s="39" t="s">
+        <v>397</v>
       </c>
       <c r="B79" s="36"/>
       <c r="C79" s="36" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:3">
-      <c r="A80" s="38" t="s">
-        <v>365</v>
+      <c r="A80" s="39" t="s">
+        <v>399</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:3">
-      <c r="A81" s="38" t="s">
-        <v>367</v>
+      <c r="A81" s="39" t="s">
+        <v>401</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:3">
-      <c r="A82" s="38" t="s">
-        <v>369</v>
+      <c r="A82" s="39" t="s">
+        <v>403</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:3">
-      <c r="A83" s="38" t="s">
-        <v>371</v>
+      <c r="A83" s="39" t="s">
+        <v>405</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" ht="17" spans="1:3">
-      <c r="A84" s="38" t="s">
-        <v>373</v>
+      <c r="A84" s="39" t="s">
+        <v>407</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:3">
-      <c r="A85" s="38" t="s">
-        <v>375</v>
+      <c r="A85" s="39" t="s">
+        <v>409</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="36" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" ht="17" spans="1:3">
-      <c r="A86" s="38" t="s">
-        <v>377</v>
+      <c r="A86" s="39" t="s">
+        <v>411</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" ht="17" spans="1:3">
-      <c r="A87" s="38" t="s">
-        <v>379</v>
+      <c r="A87" s="39" t="s">
+        <v>413</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:3">
-      <c r="A88" s="38" t="s">
-        <v>381</v>
+      <c r="A88" s="39" t="s">
+        <v>415</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="36" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" ht="17" spans="1:3">
-      <c r="A89" s="38" t="s">
-        <v>383</v>
+      <c r="A89" s="39" t="s">
+        <v>417</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="36" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" ht="17" spans="1:3">
-      <c r="A90" s="38" t="s">
-        <v>385</v>
+      <c r="A90" s="39" t="s">
+        <v>419</v>
       </c>
       <c r="B90" s="36"/>
       <c r="C90" s="36" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
-      <c r="A91" s="38" t="s">
-        <v>387</v>
+      <c r="A91" s="39" t="s">
+        <v>421</v>
       </c>
       <c r="B91" s="36"/>
       <c r="C91" s="36" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
-      <c r="A92" s="38" t="s">
-        <v>389</v>
+      <c r="A92" s="39" t="s">
+        <v>423</v>
       </c>
       <c r="B92" s="36"/>
       <c r="C92" s="36" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -6773,9 +6929,9 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="$A93:$XFD104"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6950,47 +7106,47 @@
     </row>
     <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A11" s="33" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A12" s="33" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A13" s="33" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A14" s="33" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
     <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A15" s="33" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="34"/>
@@ -6999,7 +7155,7 @@
     </row>
     <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A16" s="33" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="34"/>
@@ -7008,7 +7164,7 @@
     </row>
     <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A17" s="33" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="34"/>
@@ -7017,7 +7173,7 @@
     </row>
     <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A18" s="33" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="34"/>
@@ -7026,7 +7182,7 @@
     </row>
     <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A19" s="33" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="34"/>
@@ -7035,7 +7191,7 @@
     </row>
     <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A20" s="33" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="34"/>
@@ -7044,7 +7200,7 @@
     </row>
     <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A21" s="33" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="34"/>
@@ -7053,7 +7209,7 @@
     </row>
     <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A22" s="33" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="34"/>
@@ -7062,7 +7218,7 @@
     </row>
     <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A23" s="33" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="34"/>
@@ -7071,7 +7227,7 @@
     </row>
     <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A24" s="33" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="34"/>
@@ -7080,7 +7236,7 @@
     </row>
     <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A25" s="33" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="34"/>
@@ -7089,7 +7245,7 @@
     </row>
     <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="34"/>
@@ -7098,7 +7254,7 @@
     </row>
     <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A27" s="33" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="34"/>
@@ -7107,7 +7263,7 @@
     </row>
     <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A28" s="33" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="34"/>
@@ -7116,7 +7272,7 @@
     </row>
     <row r="29" s="32" customFormat="1" spans="1:5">
       <c r="A29" s="33" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="34"/>
@@ -7125,569 +7281,569 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="35" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="35" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="35" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="35" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="35" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="35" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="35" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="35" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="35" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="35" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="35" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="35" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="35" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="35" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="35" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="35" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="35" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="35" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="35" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="35" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="36" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="35" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="35" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="35" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="35" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="B53" s="36"/>
       <c r="C53" s="36" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="35" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="35" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="35" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="35" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="36" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="35" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="36" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="35" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="36" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="35" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="36" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="35" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="35" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="35" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="35" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="35" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="35" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="36" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="35" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="36" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="35" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="35" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="B69" s="36"/>
       <c r="C69" s="36" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="35" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="36" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="35" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="35" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="35" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="35" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="35" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="B75" s="36"/>
       <c r="C75" s="36" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="35" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="B76" s="36"/>
       <c r="C76" s="36" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="35" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="36" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="35" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="B78" s="36"/>
       <c r="C78" s="36" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="35" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="B79" s="36"/>
       <c r="C79" s="36" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="35" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="35" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="35" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="35" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="35" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="35" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="36" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="35" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="35" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="36" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="35" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="36" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" ht="17" spans="1:3">
       <c r="A90" s="35" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="B90" s="36"/>
-      <c r="C90" s="36" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="C90" s="37" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" ht="17" spans="1:3">
       <c r="A91" s="35" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="B91" s="36"/>
-      <c r="C91" s="36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="C91" s="37" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" ht="17" spans="1:3">
       <c r="A92" s="35" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="B92" s="36"/>
-      <c r="C92" s="36" t="s">
-        <v>485</v>
+      <c r="C92" s="37" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -7886,200 +8042,200 @@
     </row>
     <row r="11" s="22" customFormat="1" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="22" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" s="25" customFormat="1" spans="1:5">
       <c r="A18" s="29" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" s="25" customFormat="1" spans="1:5">
       <c r="A19" s="29" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:5">
       <c r="A20" s="29" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
     <row r="21" s="28" customFormat="1" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="28" customFormat="1" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" s="28" customFormat="1" spans="1:5">
       <c r="A25" s="30" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" s="28" customFormat="1" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="28" customFormat="1" spans="1:5">
       <c r="A27" s="30" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" s="28" customFormat="1" spans="1:5">
       <c r="A28" s="30" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="28" customFormat="1" spans="1:5">
       <c r="A29" s="30" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" s="28" customFormat="1" spans="1:5">
       <c r="A30" s="30" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360" activeTab="6"/>
+    <workbookView windowHeight="21120" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Property_ui" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
   <si>
     <t>Id</t>
   </si>
@@ -944,307 +944,307 @@
     <t>NameID_Building010</t>
   </si>
   <si>
+    <t>炸弹·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building011</t>
+  </si>
+  <si>
+    <t>炸弹·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building012</t>
+  </si>
+  <si>
+    <t>炸弹·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building020</t>
+  </si>
+  <si>
+    <t>减甲炮·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building021</t>
+  </si>
+  <si>
+    <t>减甲炮·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building022</t>
+  </si>
+  <si>
+    <t>减甲炮·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building030</t>
+  </si>
+  <si>
+    <t>加农炮·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building031</t>
+  </si>
+  <si>
+    <t>加农炮·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building032</t>
+  </si>
+  <si>
+    <t>加农炮·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building040</t>
+  </si>
+  <si>
+    <t>冰塔·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building041</t>
+  </si>
+  <si>
+    <t>冰塔·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building042</t>
+  </si>
+  <si>
+    <t>冰塔·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building050</t>
+  </si>
+  <si>
+    <t>能源产生器·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building051</t>
+  </si>
+  <si>
+    <t>能源产生器·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building052</t>
+  </si>
+  <si>
+    <t>能源产生器·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building060</t>
+  </si>
+  <si>
+    <t>能源存储器·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building061</t>
+  </si>
+  <si>
+    <t>能源存储器·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building062</t>
+  </si>
+  <si>
+    <t>能源存储器·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building070</t>
+  </si>
+  <si>
+    <t>火焰发射器·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building071</t>
+  </si>
+  <si>
+    <t>火焰发射器·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building072</t>
+  </si>
+  <si>
+    <t>火焰发射器·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building080</t>
+  </si>
+  <si>
+    <t>加特林机枪·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building081</t>
+  </si>
+  <si>
+    <t>加特林机枪·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building082</t>
+  </si>
+  <si>
+    <t>加特林机枪·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building090</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building091</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building092</t>
+  </si>
+  <si>
+    <t>高斯电磁炮·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building100</t>
+  </si>
+  <si>
     <t>金矿·一级</t>
   </si>
   <si>
-    <t>NameID_Building011</t>
+    <t>NameID_Building101</t>
   </si>
   <si>
     <t>金矿·二级</t>
   </si>
   <si>
-    <t>NameID_Building012</t>
+    <t>NameID_Building102</t>
   </si>
   <si>
     <t>金矿·三级</t>
   </si>
   <si>
-    <t>NameID_Building020</t>
-  </si>
-  <si>
-    <t>能源收集器·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building021</t>
-  </si>
-  <si>
-    <t>能源收集器·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building022</t>
-  </si>
-  <si>
-    <t>能源收集器·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building030</t>
-  </si>
-  <si>
-    <t>储金罐·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building031</t>
-  </si>
-  <si>
-    <t>储金罐·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building032</t>
-  </si>
-  <si>
-    <t>储金罐·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building040</t>
-  </si>
-  <si>
-    <t>能源存储器·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building041</t>
-  </si>
-  <si>
-    <t>能源存储器·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building042</t>
-  </si>
-  <si>
-    <t>能源存储器·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building050</t>
-  </si>
-  <si>
-    <t>加农炮·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building051</t>
-  </si>
-  <si>
-    <t>加农炮·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building052</t>
-  </si>
-  <si>
-    <t>加农炮·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building060</t>
-  </si>
-  <si>
-    <t>减甲炮·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building061</t>
-  </si>
-  <si>
-    <t>减甲炮·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building062</t>
-  </si>
-  <si>
-    <t>减甲炮·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building070</t>
-  </si>
-  <si>
-    <t>特斯拉雷射器·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building071</t>
-  </si>
-  <si>
-    <t>特斯拉雷射器·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building072</t>
-  </si>
-  <si>
-    <t>特斯拉雷射器·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building080</t>
-  </si>
-  <si>
-    <t>穿刺弩·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building081</t>
-  </si>
-  <si>
-    <t>穿刺弩·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building082</t>
-  </si>
-  <si>
-    <t>穿刺弩·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building090</t>
-  </si>
-  <si>
-    <t>警戒塔·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building091</t>
-  </si>
-  <si>
-    <t>警戒塔·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building092</t>
-  </si>
-  <si>
-    <t>警戒塔·三级</t>
-  </si>
-  <si>
-    <t>NameID_Building100</t>
-  </si>
-  <si>
-    <t>火焰发射器·一级</t>
-  </si>
-  <si>
-    <t>NameID_Building101</t>
-  </si>
-  <si>
-    <t>火焰发射器·二级</t>
-  </si>
-  <si>
-    <t>NameID_Building102</t>
-  </si>
-  <si>
-    <t>火焰发射器·三级</t>
-  </si>
-  <si>
     <t>NameID_Building110</t>
   </si>
   <si>
-    <t>加特林机枪·一级</t>
+    <t>金罐·一级</t>
   </si>
   <si>
     <t>NameID_Building111</t>
   </si>
   <si>
-    <t>加特林机枪·二级</t>
+    <t>金罐·二级</t>
   </si>
   <si>
     <t>NameID_Building112</t>
   </si>
   <si>
-    <t>加特林机枪·三级</t>
+    <t>金罐·三级</t>
   </si>
   <si>
     <t>NameID_Building120</t>
   </si>
   <si>
-    <t>高斯电磁炮·一级</t>
+    <t>重锤·一级</t>
   </si>
   <si>
     <t>NameID_Building121</t>
   </si>
   <si>
-    <t>高斯电磁炮·二级</t>
+    <t>重锤·二级</t>
   </si>
   <si>
     <t>NameID_Building122</t>
   </si>
   <si>
-    <t>高斯电磁炮·三级</t>
+    <t>重锤·三级</t>
   </si>
   <si>
     <t>NameID_Building130</t>
   </si>
   <si>
-    <t>重锤·一级</t>
+    <t>镭射激光器·一级</t>
   </si>
   <si>
     <t>NameID_Building131</t>
   </si>
   <si>
-    <t>重锤·二级</t>
+    <t>镭射激光器·二级</t>
   </si>
   <si>
     <t>NameID_Building132</t>
   </si>
   <si>
-    <t>重锤·三级</t>
+    <t>镭射激光器·三级</t>
   </si>
   <si>
     <t>NameID_Building140</t>
   </si>
   <si>
-    <t>镭射激光器·一级</t>
+    <t>麦肯锡机枪·一级</t>
   </si>
   <si>
     <t>NameID_Building141</t>
   </si>
   <si>
-    <t>镭射激光器·二级</t>
+    <t>麦肯锡机枪·二级</t>
   </si>
   <si>
     <t>NameID_Building142</t>
   </si>
   <si>
-    <t>镭射激光器·三级</t>
+    <t>麦肯锡机枪·三级</t>
   </si>
   <si>
     <t>NameID_Building150</t>
   </si>
   <si>
-    <t>麦肯锡机枪·一级</t>
+    <t>迫击炮·一级</t>
   </si>
   <si>
     <t>NameID_Building151</t>
   </si>
   <si>
-    <t>麦肯锡机枪·二级</t>
+    <t>迫击炮·二级</t>
   </si>
   <si>
     <t>NameID_Building152</t>
   </si>
   <si>
-    <t>麦肯锡机枪·三级</t>
+    <t>迫击炮·三级</t>
   </si>
   <si>
     <t>NameID_Building160</t>
   </si>
   <si>
-    <t>迫击炮·一级</t>
+    <t>等离子炮·一级</t>
   </si>
   <si>
     <t>NameID_Building161</t>
   </si>
   <si>
-    <t>迫击炮·二级</t>
+    <t>等离子炮·二级</t>
   </si>
   <si>
     <t>NameID_Building162</t>
   </si>
   <si>
-    <t>迫击炮·三级</t>
+    <t>等离子炮·三级</t>
   </si>
   <si>
     <t>NameID_Building170</t>
   </si>
   <si>
-    <t>等离子炮·一级</t>
+    <t>探照灯·一级</t>
   </si>
   <si>
     <t>NameID_Building171</t>
   </si>
   <si>
-    <t>等离子炮·二级</t>
+    <t>探照灯·二级</t>
   </si>
   <si>
     <t>NameID_Building172</t>
   </si>
   <si>
-    <t>等离子炮·三级</t>
+    <t>探照灯·三级</t>
   </si>
   <si>
     <t>NameID_Building180</t>
@@ -1286,16 +1286,52 @@
     <t>NameID_Building200</t>
   </si>
   <si>
+    <t>雷电发射器·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building201</t>
+  </si>
+  <si>
+    <t>雷电发射器·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building202</t>
+  </si>
+  <si>
+    <t>雷电发射器·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building210</t>
+  </si>
+  <si>
+    <t>穿刺怒·一级</t>
+  </si>
+  <si>
+    <t>NameID_Building211</t>
+  </si>
+  <si>
+    <t>穿刺怒·二级</t>
+  </si>
+  <si>
+    <t>NameID_Building212</t>
+  </si>
+  <si>
+    <t>穿刺怒·三级</t>
+  </si>
+  <si>
+    <t>NameID_Building220</t>
+  </si>
+  <si>
     <t>火龙炮·一级</t>
   </si>
   <si>
-    <t>NameID_Building201</t>
+    <t>NameID_Building221</t>
   </si>
   <si>
     <t>火龙炮·二级</t>
   </si>
   <si>
-    <t>NameID_Building202</t>
+    <t>NameID_Building222</t>
   </si>
   <si>
     <t>火龙炮·三级</t>
@@ -1454,21 +1490,12 @@
     <t>DescID_Building090</t>
   </si>
   <si>
-    <t>警戒塔·一级 - 启动需要消耗能源 10点每小时，可探测6米内的可见单位</t>
-  </si>
-  <si>
     <t>DescID_Building091</t>
   </si>
   <si>
-    <t>警戒塔·二级 - 启动需要消耗能源 20点每小时，可探测10米内的可见单位</t>
-  </si>
-  <si>
     <t>DescID_Building092</t>
   </si>
   <si>
-    <t>警戒塔·三级 - 启动需要消耗能源 30点每小时，可探测15米内的可见单位</t>
-  </si>
-  <si>
     <t>DescID_Building100</t>
   </si>
   <si>
@@ -1535,12 +1562,21 @@
     <t>DescID_Building170</t>
   </si>
   <si>
+    <t>探照灯·一级 - 启动需要消耗能源 50点每小时，工会驻地的最佳防御武器，可探测6米内的隐形单位，如探测到敌对单位，将自动召唤6米内的火箭导弹进行攻击</t>
+  </si>
+  <si>
     <t>DescID_Building171</t>
   </si>
   <si>
+    <t>探照灯·二级 - 启动需要消耗能源 100点每小时，工会驻地的最佳防御武器，可探测10米内的隐形单位，如探测到敌对单位，将自动召唤10米内直升机(如有)进行攻击</t>
+  </si>
+  <si>
     <t>DescID_Building172</t>
   </si>
   <si>
+    <t>探照灯·三级 - 启动需要消耗能源 200点每小时，工会驻地的最佳防御武器，可探测15米内的隐形单位，如探测到敌对单位，将自动召唤15米内的战斗飞船(如有)进行攻击</t>
+  </si>
+  <si>
     <t>DescID_Building180</t>
   </si>
   <si>
@@ -1575,6 +1611,24 @@
   </si>
   <si>
     <t>DescID_Building202</t>
+  </si>
+  <si>
+    <t>DescID_Building210</t>
+  </si>
+  <si>
+    <t>DescID_Building211</t>
+  </si>
+  <si>
+    <t>DescID_Building212</t>
+  </si>
+  <si>
+    <t>DescID_Building220</t>
+  </si>
+  <si>
+    <t>DescID_Building221</t>
+  </si>
+  <si>
+    <t>DescID_Building222</t>
   </si>
   <si>
     <t>Desc_Gold_Item1</t>
@@ -1750,10 +1804,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1802,6 +1856,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1810,16 +1879,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,76 +1979,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1913,28 +1989,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2001,13 +2055,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2019,85 +2097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,13 +2121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,7 +2133,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,31 +2217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,6 +2496,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2452,16 +2521,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2492,17 +2570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2515,171 +2593,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2689,7 +2743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2800,6 +2854,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3412,57 +3469,57 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" spans="1:3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" s="27" customFormat="1" spans="1:3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" s="27" customFormat="1" spans="1:3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" s="27" customFormat="1" spans="1:3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" s="27" customFormat="1" spans="1:3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="51" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3662,88 +3719,88 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -4063,351 +4120,351 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="47" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="47" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="47" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="47" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="47" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="47" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="47" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="47" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="47" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="47" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="47" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="46" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -4609,7 +4666,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -4622,7 +4679,7 @@
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -4635,7 +4692,7 @@
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -4648,7 +4705,7 @@
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -4661,7 +4718,7 @@
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="26"/>
@@ -4669,7 +4726,7 @@
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="26"/>
@@ -4677,7 +4734,7 @@
       <c r="E16" s="27"/>
     </row>
     <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="26"/>
@@ -4685,7 +4742,7 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="26"/>
@@ -4693,7 +4750,7 @@
       <c r="E18" s="27"/>
     </row>
     <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="26"/>
@@ -4701,7 +4758,7 @@
       <c r="E19" s="27"/>
     </row>
     <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="26"/>
@@ -4709,7 +4766,7 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="26"/>
@@ -4717,7 +4774,7 @@
       <c r="E21" s="27"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>141</v>
       </c>
       <c r="C22" s="26"/>
@@ -4725,7 +4782,7 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="26"/>
@@ -4733,7 +4790,7 @@
       <c r="E23" s="27"/>
     </row>
     <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>143</v>
       </c>
       <c r="C24" s="26"/>
@@ -4741,7 +4798,7 @@
       <c r="E24" s="27"/>
     </row>
     <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>144</v>
       </c>
       <c r="C25" s="26"/>
@@ -4749,7 +4806,7 @@
       <c r="E25" s="27"/>
     </row>
     <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>145</v>
       </c>
       <c r="C26" s="26"/>
@@ -4757,7 +4814,7 @@
       <c r="E26" s="27"/>
     </row>
     <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="41" t="s">
         <v>146</v>
       </c>
       <c r="C27" s="26"/>
@@ -4765,7 +4822,7 @@
       <c r="E27" s="27"/>
     </row>
     <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="26"/>
@@ -4773,7 +4830,7 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="41" t="s">
         <v>148</v>
       </c>
       <c r="C29" s="26"/>
@@ -4781,10 +4838,10 @@
       <c r="E29" s="27"/>
     </row>
     <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="43" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -4794,7 +4851,7 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -4807,7 +4864,7 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>155</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -4820,7 +4877,7 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>158</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -4833,105 +4890,105 @@
       <c r="E33" s="27"/>
     </row>
     <row r="34" ht="17.55" spans="1:5">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" ht="17.55" spans="1:5">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" ht="17.55" spans="1:5">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" ht="17.55" spans="1:5">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" ht="17.55" spans="1:5">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" ht="17.55" spans="1:5">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" ht="17.55" spans="1:5">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" ht="17.55" spans="1:5">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>168</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="43"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="42" ht="17.55" spans="1:5">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>169</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" ht="17.55" spans="1:5">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="42" t="s">
         <v>170</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" ht="17.55" spans="1:5">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>171</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" ht="17.55" spans="1:5">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="42" t="s">
         <v>172</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" ht="17.55" spans="1:5">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>173</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" ht="17.55" spans="1:5">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="42" t="s">
         <v>174</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>175</v>
       </c>
       <c r="D48"/>
@@ -5192,7 +5249,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -5205,7 +5262,7 @@
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>178</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -5218,7 +5275,7 @@
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>180</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -5231,7 +5288,7 @@
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -5244,7 +5301,7 @@
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>184</v>
       </c>
       <c r="C15" s="31" t="s">
@@ -5254,7 +5311,7 @@
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>186</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -5264,7 +5321,7 @@
       <c r="E16" s="27"/>
     </row>
     <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>188</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -5274,7 +5331,7 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>190</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -5284,7 +5341,7 @@
       <c r="E18" s="27"/>
     </row>
     <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>192</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -5294,7 +5351,7 @@
       <c r="E19" s="27"/>
     </row>
     <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>194</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -5304,7 +5361,7 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>196</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -5314,7 +5371,7 @@
       <c r="E21" s="27"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>198</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -5324,7 +5381,7 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>200</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -5334,7 +5391,7 @@
       <c r="E23" s="27"/>
     </row>
     <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>202</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -5344,7 +5401,7 @@
       <c r="E24" s="27"/>
     </row>
     <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>204</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -5354,7 +5411,7 @@
       <c r="E25" s="27"/>
     </row>
     <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="34" t="s">
@@ -5364,7 +5421,7 @@
       <c r="E26" s="27"/>
     </row>
     <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="41" t="s">
         <v>208</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -5374,7 +5431,7 @@
       <c r="E27" s="27"/>
     </row>
     <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>210</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -5384,7 +5441,7 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="41" t="s">
         <v>212</v>
       </c>
       <c r="C29" s="34" t="s">
@@ -5394,10 +5451,10 @@
       <c r="E29" s="27"/>
     </row>
     <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="43" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -5407,7 +5464,7 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>215</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -5420,7 +5477,7 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>216</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -5433,7 +5490,7 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>217</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -5446,105 +5503,105 @@
       <c r="E33" s="27"/>
     </row>
     <row r="34" ht="17.55" spans="1:5">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" ht="17.55" spans="1:5">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" ht="17.55" spans="1:5">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" ht="17.55" spans="1:5">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" ht="17.55" spans="1:5">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" ht="17.55" spans="1:5">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" ht="17.55" spans="1:5">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" ht="17.55" spans="1:5">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>225</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="43"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="42" ht="17.55" spans="1:5">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>226</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" ht="17.55" spans="1:5">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="42" t="s">
         <v>227</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" ht="17.55" spans="1:5">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>228</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" ht="17.55" spans="1:5">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="42" t="s">
         <v>229</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" ht="17.55" spans="1:5">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>230</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" ht="17.55" spans="1:5">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="42" t="s">
         <v>231</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>232</v>
       </c>
       <c r="D48"/>
@@ -5960,12 +6017,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90:C92"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6139,7 +6196,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>261</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -6149,7 +6206,7 @@
       <c r="E11"/>
     </row>
     <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>263</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -6159,7 +6216,7 @@
       <c r="E12"/>
     </row>
     <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -6169,7 +6226,7 @@
       <c r="E13"/>
     </row>
     <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>267</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -6179,7 +6236,7 @@
       <c r="E14"/>
     </row>
     <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>269</v>
       </c>
       <c r="B15" s="28"/>
@@ -6190,7 +6247,7 @@
       <c r="E15"/>
     </row>
     <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>271</v>
       </c>
       <c r="B16" s="28"/>
@@ -6201,7 +6258,7 @@
       <c r="E16"/>
     </row>
     <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>273</v>
       </c>
       <c r="B17" s="28"/>
@@ -6212,7 +6269,7 @@
       <c r="E17"/>
     </row>
     <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>275</v>
       </c>
       <c r="B18" s="28"/>
@@ -6223,7 +6280,7 @@
       <c r="E18"/>
     </row>
     <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>277</v>
       </c>
       <c r="B19" s="28"/>
@@ -6234,7 +6291,7 @@
       <c r="E19"/>
     </row>
     <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>279</v>
       </c>
       <c r="B20" s="28"/>
@@ -6245,7 +6302,7 @@
       <c r="E20"/>
     </row>
     <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>281</v>
       </c>
       <c r="B21" s="28"/>
@@ -6256,7 +6313,7 @@
       <c r="E21"/>
     </row>
     <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>283</v>
       </c>
       <c r="B22" s="28"/>
@@ -6267,7 +6324,7 @@
       <c r="E22"/>
     </row>
     <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>285</v>
       </c>
       <c r="B23" s="28"/>
@@ -6278,7 +6335,7 @@
       <c r="E23"/>
     </row>
     <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>287</v>
       </c>
       <c r="B24" s="28"/>
@@ -6289,7 +6346,7 @@
       <c r="E24"/>
     </row>
     <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>289</v>
       </c>
       <c r="B25" s="28"/>
@@ -6300,7 +6357,7 @@
       <c r="E25"/>
     </row>
     <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B26" s="28"/>
@@ -6311,7 +6368,7 @@
       <c r="E26"/>
     </row>
     <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
         <v>293</v>
       </c>
       <c r="B27" s="28"/>
@@ -6322,7 +6379,7 @@
       <c r="E27"/>
     </row>
     <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>295</v>
       </c>
       <c r="B28" s="28"/>
@@ -6333,7 +6390,7 @@
       <c r="E28"/>
     </row>
     <row r="29" s="32" customFormat="1" spans="1:5">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>297</v>
       </c>
       <c r="B29" s="28"/>
@@ -6344,7 +6401,7 @@
       <c r="E29"/>
     </row>
     <row r="30" ht="17" spans="1:3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="40" t="s">
         <v>299</v>
       </c>
       <c r="B30" s="36"/>
@@ -6353,7 +6410,7 @@
       </c>
     </row>
     <row r="31" ht="17" spans="1:3">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>301</v>
       </c>
       <c r="B31" s="36"/>
@@ -6362,7 +6419,7 @@
       </c>
     </row>
     <row r="32" ht="17" spans="1:3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>303</v>
       </c>
       <c r="B32" s="36"/>
@@ -6371,7 +6428,7 @@
       </c>
     </row>
     <row r="33" ht="17" spans="1:3">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="40" t="s">
         <v>305</v>
       </c>
       <c r="B33" s="36"/>
@@ -6380,7 +6437,7 @@
       </c>
     </row>
     <row r="34" ht="17" spans="1:3">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>307</v>
       </c>
       <c r="B34" s="36"/>
@@ -6389,7 +6446,7 @@
       </c>
     </row>
     <row r="35" ht="17" spans="1:3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="40" t="s">
         <v>309</v>
       </c>
       <c r="B35" s="36"/>
@@ -6398,7 +6455,7 @@
       </c>
     </row>
     <row r="36" ht="17" spans="1:3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="40" t="s">
         <v>311</v>
       </c>
       <c r="B36" s="36"/>
@@ -6407,7 +6464,7 @@
       </c>
     </row>
     <row r="37" ht="17" spans="1:3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="40" t="s">
         <v>313</v>
       </c>
       <c r="B37" s="36"/>
@@ -6416,7 +6473,7 @@
       </c>
     </row>
     <row r="38" ht="17" spans="1:3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>315</v>
       </c>
       <c r="B38" s="36"/>
@@ -6425,7 +6482,7 @@
       </c>
     </row>
     <row r="39" ht="17" spans="1:3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>317</v>
       </c>
       <c r="B39" s="36"/>
@@ -6434,7 +6491,7 @@
       </c>
     </row>
     <row r="40" ht="17" spans="1:3">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="40" t="s">
         <v>319</v>
       </c>
       <c r="B40" s="36"/>
@@ -6443,7 +6500,7 @@
       </c>
     </row>
     <row r="41" ht="17" spans="1:3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>321</v>
       </c>
       <c r="B41" s="36"/>
@@ -6452,7 +6509,7 @@
       </c>
     </row>
     <row r="42" ht="17" spans="1:3">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>323</v>
       </c>
       <c r="B42" s="36"/>
@@ -6461,7 +6518,7 @@
       </c>
     </row>
     <row r="43" ht="17" spans="1:3">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>325</v>
       </c>
       <c r="B43" s="36"/>
@@ -6470,7 +6527,7 @@
       </c>
     </row>
     <row r="44" ht="17" spans="1:3">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="40" t="s">
         <v>327</v>
       </c>
       <c r="B44" s="36"/>
@@ -6479,7 +6536,7 @@
       </c>
     </row>
     <row r="45" ht="17" spans="1:3">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="40" t="s">
         <v>329</v>
       </c>
       <c r="B45" s="36"/>
@@ -6488,7 +6545,7 @@
       </c>
     </row>
     <row r="46" ht="17" spans="1:3">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="40" t="s">
         <v>331</v>
       </c>
       <c r="B46" s="36"/>
@@ -6497,7 +6554,7 @@
       </c>
     </row>
     <row r="47" ht="17" spans="1:3">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>333</v>
       </c>
       <c r="B47" s="36"/>
@@ -6506,34 +6563,34 @@
       </c>
     </row>
     <row r="48" ht="17" spans="1:3">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="40" t="s">
         <v>335</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:3">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>337</v>
       </c>
       <c r="B49" s="36"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="37" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:3">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="40" t="s">
         <v>339</v>
       </c>
       <c r="B50" s="36"/>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="51" ht="17" spans="1:3">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="40" t="s">
         <v>341</v>
       </c>
       <c r="B51" s="36"/>
@@ -6542,7 +6599,7 @@
       </c>
     </row>
     <row r="52" ht="17" spans="1:3">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="40" t="s">
         <v>343</v>
       </c>
       <c r="B52" s="36"/>
@@ -6551,7 +6608,7 @@
       </c>
     </row>
     <row r="53" ht="17" spans="1:3">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>345</v>
       </c>
       <c r="B53" s="36"/>
@@ -6560,7 +6617,7 @@
       </c>
     </row>
     <row r="54" ht="17" spans="1:3">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="40" t="s">
         <v>347</v>
       </c>
       <c r="B54" s="36"/>
@@ -6569,7 +6626,7 @@
       </c>
     </row>
     <row r="55" ht="17" spans="1:3">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>349</v>
       </c>
       <c r="B55" s="36"/>
@@ -6578,7 +6635,7 @@
       </c>
     </row>
     <row r="56" ht="17" spans="1:3">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="40" t="s">
         <v>351</v>
       </c>
       <c r="B56" s="36"/>
@@ -6587,7 +6644,7 @@
       </c>
     </row>
     <row r="57" ht="17" spans="1:3">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>353</v>
       </c>
       <c r="B57" s="36"/>
@@ -6596,7 +6653,7 @@
       </c>
     </row>
     <row r="58" ht="17" spans="1:3">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="40" t="s">
         <v>355</v>
       </c>
       <c r="B58" s="36"/>
@@ -6605,7 +6662,7 @@
       </c>
     </row>
     <row r="59" ht="17" spans="1:3">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="40" t="s">
         <v>357</v>
       </c>
       <c r="B59" s="36"/>
@@ -6614,7 +6671,7 @@
       </c>
     </row>
     <row r="60" ht="17" spans="1:3">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="40" t="s">
         <v>359</v>
       </c>
       <c r="B60" s="36"/>
@@ -6623,7 +6680,7 @@
       </c>
     </row>
     <row r="61" ht="17" spans="1:3">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="40" t="s">
         <v>361</v>
       </c>
       <c r="B61" s="36"/>
@@ -6632,7 +6689,7 @@
       </c>
     </row>
     <row r="62" ht="17" spans="1:3">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="40" t="s">
         <v>363</v>
       </c>
       <c r="B62" s="36"/>
@@ -6641,7 +6698,7 @@
       </c>
     </row>
     <row r="63" ht="17" spans="1:3">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="40" t="s">
         <v>365</v>
       </c>
       <c r="B63" s="36"/>
@@ -6650,7 +6707,7 @@
       </c>
     </row>
     <row r="64" ht="17" spans="1:3">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="40" t="s">
         <v>367</v>
       </c>
       <c r="B64" s="36"/>
@@ -6659,7 +6716,7 @@
       </c>
     </row>
     <row r="65" ht="17" spans="1:3">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>369</v>
       </c>
       <c r="B65" s="36"/>
@@ -6668,34 +6725,34 @@
       </c>
     </row>
     <row r="66" ht="17" spans="1:3">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="40" t="s">
         <v>371</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="37" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:3">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>373</v>
       </c>
       <c r="B67" s="36"/>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:3">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="40" t="s">
         <v>375</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="37" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="69" ht="17" spans="1:3">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>377</v>
       </c>
       <c r="B69" s="36"/>
@@ -6704,7 +6761,7 @@
       </c>
     </row>
     <row r="70" ht="17" spans="1:3">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="40" t="s">
         <v>379</v>
       </c>
       <c r="B70" s="36"/>
@@ -6713,7 +6770,7 @@
       </c>
     </row>
     <row r="71" ht="17" spans="1:3">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="40" t="s">
         <v>381</v>
       </c>
       <c r="B71" s="36"/>
@@ -6722,7 +6779,7 @@
       </c>
     </row>
     <row r="72" ht="17" spans="1:3">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="40" t="s">
         <v>383</v>
       </c>
       <c r="B72" s="36"/>
@@ -6731,7 +6788,7 @@
       </c>
     </row>
     <row r="73" ht="17" spans="1:3">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>385</v>
       </c>
       <c r="B73" s="36"/>
@@ -6740,7 +6797,7 @@
       </c>
     </row>
     <row r="74" ht="17" spans="1:3">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="40" t="s">
         <v>387</v>
       </c>
       <c r="B74" s="36"/>
@@ -6749,7 +6806,7 @@
       </c>
     </row>
     <row r="75" ht="17" spans="1:3">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>389</v>
       </c>
       <c r="B75" s="36"/>
@@ -6758,7 +6815,7 @@
       </c>
     </row>
     <row r="76" ht="17" spans="1:3">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="40" t="s">
         <v>391</v>
       </c>
       <c r="B76" s="36"/>
@@ -6767,7 +6824,7 @@
       </c>
     </row>
     <row r="77" ht="17" spans="1:3">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="40" t="s">
         <v>393</v>
       </c>
       <c r="B77" s="36"/>
@@ -6776,34 +6833,34 @@
       </c>
     </row>
     <row r="78" ht="17" spans="1:3">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="40" t="s">
         <v>395</v>
       </c>
       <c r="B78" s="36"/>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="37" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:3">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="40" t="s">
         <v>397</v>
       </c>
       <c r="B79" s="36"/>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="37" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:3">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="40" t="s">
         <v>399</v>
       </c>
       <c r="B80" s="36"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="37" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:3">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="40" t="s">
         <v>401</v>
       </c>
       <c r="B81" s="36"/>
@@ -6812,7 +6869,7 @@
       </c>
     </row>
     <row r="82" ht="17" spans="1:3">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="40" t="s">
         <v>403</v>
       </c>
       <c r="B82" s="36"/>
@@ -6821,7 +6878,7 @@
       </c>
     </row>
     <row r="83" ht="17" spans="1:3">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="40" t="s">
         <v>405</v>
       </c>
       <c r="B83" s="36"/>
@@ -6830,7 +6887,7 @@
       </c>
     </row>
     <row r="84" ht="17" spans="1:3">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="40" t="s">
         <v>407</v>
       </c>
       <c r="B84" s="36"/>
@@ -6839,7 +6896,7 @@
       </c>
     </row>
     <row r="85" ht="17" spans="1:3">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="40" t="s">
         <v>409</v>
       </c>
       <c r="B85" s="36"/>
@@ -6848,7 +6905,7 @@
       </c>
     </row>
     <row r="86" ht="17" spans="1:3">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="40" t="s">
         <v>411</v>
       </c>
       <c r="B86" s="36"/>
@@ -6857,7 +6914,7 @@
       </c>
     </row>
     <row r="87" ht="17" spans="1:3">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="40" t="s">
         <v>413</v>
       </c>
       <c r="B87" s="36"/>
@@ -6866,7 +6923,7 @@
       </c>
     </row>
     <row r="88" ht="17" spans="1:3">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="40" t="s">
         <v>415</v>
       </c>
       <c r="B88" s="36"/>
@@ -6875,7 +6932,7 @@
       </c>
     </row>
     <row r="89" ht="17" spans="1:3">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="40" t="s">
         <v>417</v>
       </c>
       <c r="B89" s="36"/>
@@ -6884,30 +6941,84 @@
       </c>
     </row>
     <row r="90" ht="17" spans="1:3">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B90" s="36"/>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="38" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="40" t="s">
         <v>421</v>
       </c>
       <c r="B91" s="36"/>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="38" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="40" t="s">
         <v>423</v>
       </c>
       <c r="B92" s="36"/>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="38" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="93" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A93" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A94" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A95" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A96" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A97" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A98" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="38" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -6926,12 +7037,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90:C92"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -7106,47 +7217,47 @@
     </row>
     <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A11" s="33" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A12" s="33" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A13" s="33" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
       <c r="A14" s="33" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
     <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A15" s="33" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="34"/>
@@ -7155,7 +7266,7 @@
     </row>
     <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A16" s="33" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="34"/>
@@ -7164,7 +7275,7 @@
     </row>
     <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A17" s="33" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="34"/>
@@ -7173,7 +7284,7 @@
     </row>
     <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A18" s="33" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="34"/>
@@ -7182,7 +7293,7 @@
     </row>
     <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A19" s="33" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="34"/>
@@ -7191,7 +7302,7 @@
     </row>
     <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A20" s="33" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="34"/>
@@ -7200,7 +7311,7 @@
     </row>
     <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A21" s="33" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="34"/>
@@ -7209,7 +7320,7 @@
     </row>
     <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A22" s="33" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="34"/>
@@ -7218,7 +7329,7 @@
     </row>
     <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A23" s="33" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="34"/>
@@ -7227,7 +7338,7 @@
     </row>
     <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A24" s="33" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="34"/>
@@ -7236,7 +7347,7 @@
     </row>
     <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A25" s="33" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="34"/>
@@ -7245,7 +7356,7 @@
     </row>
     <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="34"/>
@@ -7254,7 +7365,7 @@
     </row>
     <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A27" s="33" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="34"/>
@@ -7263,7 +7374,7 @@
     </row>
     <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
       <c r="A28" s="33" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="34"/>
@@ -7272,7 +7383,7 @@
     </row>
     <row r="29" s="32" customFormat="1" spans="1:5">
       <c r="A29" s="33" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="34"/>
@@ -7281,7 +7392,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="35" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36" t="s">
@@ -7290,7 +7401,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="35" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
@@ -7299,7 +7410,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="35" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
@@ -7308,7 +7419,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="35" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36" t="s">
@@ -7317,7 +7428,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="35" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36" t="s">
@@ -7326,7 +7437,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="35" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
@@ -7335,7 +7446,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="35" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36" t="s">
@@ -7344,7 +7455,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="35" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36" t="s">
@@ -7353,7 +7464,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="35" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36" t="s">
@@ -7362,7 +7473,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="35" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="36" t="s">
@@ -7371,7 +7482,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="35" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="36" t="s">
@@ -7380,7 +7491,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="35" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36" t="s">
@@ -7389,7 +7500,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="35" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36" t="s">
@@ -7398,7 +7509,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="35" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36" t="s">
@@ -7407,7 +7518,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="35" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="36" t="s">
@@ -7416,7 +7527,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="35" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="36" t="s">
@@ -7425,7 +7536,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="35" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="36" t="s">
@@ -7434,43 +7545,43 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="35" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="36" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" ht="17" spans="1:3">
       <c r="A48" s="35" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="37" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" ht="17" spans="1:3">
       <c r="A49" s="35" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B49" s="36"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" ht="17" spans="1:3">
       <c r="A50" s="35" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B50" s="36"/>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="35" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36" t="s">
@@ -7479,7 +7590,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="35" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
@@ -7488,7 +7599,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="35" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B53" s="36"/>
       <c r="C53" s="36" t="s">
@@ -7497,7 +7608,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="35" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36" t="s">
@@ -7506,7 +7617,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="35" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="36" t="s">
@@ -7515,7 +7626,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="35" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36" t="s">
@@ -7524,34 +7635,34 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="35" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="36" t="s">
-        <v>476</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="35" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="36" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="35" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="36" t="s">
-        <v>480</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="35" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="36" t="s">
@@ -7560,7 +7671,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="35" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="36" t="s">
@@ -7569,7 +7680,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="35" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="36" t="s">
@@ -7578,7 +7689,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="35" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="36" t="s">
@@ -7587,7 +7698,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="35" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="36" t="s">
@@ -7596,43 +7707,43 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="35" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="17" spans="1:3">
       <c r="A66" s="35" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="37" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" ht="17" spans="1:3">
       <c r="A67" s="35" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B67" s="36"/>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" ht="17" spans="1:3">
       <c r="A68" s="35" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B68" s="36"/>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="37" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="35" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B69" s="36"/>
       <c r="C69" s="36" t="s">
@@ -7641,7 +7752,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="35" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="36" t="s">
@@ -7650,7 +7761,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="35" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36" t="s">
@@ -7659,7 +7770,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="35" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36" t="s">
@@ -7668,7 +7779,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="35" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36" t="s">
@@ -7677,7 +7788,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="35" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36" t="s">
@@ -7686,7 +7797,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="35" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B75" s="36"/>
       <c r="C75" s="36" t="s">
@@ -7695,7 +7806,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="35" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B76" s="36"/>
       <c r="C76" s="36" t="s">
@@ -7704,97 +7815,97 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="35" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="36" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" ht="17" spans="1:3">
       <c r="A78" s="35" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B78" s="36"/>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="37" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" ht="17" spans="1:3">
       <c r="A79" s="35" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B79" s="36"/>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="37" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" ht="17" spans="1:3">
       <c r="A80" s="35" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B80" s="36"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="37" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="35" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36" t="s">
-        <v>402</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="35" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36" t="s">
-        <v>404</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="35" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="35" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="35" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="36" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="35" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="35" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36" t="s">
@@ -7803,7 +7914,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="35" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="36" t="s">
@@ -7812,7 +7923,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="35" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="36" t="s">
@@ -7821,29 +7932,83 @@
     </row>
     <row r="90" ht="17" spans="1:3">
       <c r="A90" s="35" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B90" s="36"/>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="38" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
       <c r="A91" s="35" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B91" s="36"/>
-      <c r="C91" s="37" t="s">
+      <c r="C91" s="38" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
       <c r="A92" s="35" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B92" s="36"/>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="38" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="93" s="8" customFormat="1" spans="1:3">
+      <c r="A93" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" s="8" customFormat="1" spans="1:3">
+      <c r="A94" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" s="8" customFormat="1" spans="1:3">
+      <c r="A95" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A96" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A97" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" s="8" customFormat="1" ht="17" spans="1:3">
+      <c r="A98" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="38" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -8042,200 +8207,200 @@
     </row>
     <row r="11" s="22" customFormat="1" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" s="22" customFormat="1" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" s="25" customFormat="1" spans="1:5">
       <c r="A18" s="29" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" s="25" customFormat="1" spans="1:5">
       <c r="A19" s="29" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:5">
       <c r="A20" s="29" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
     <row r="21" s="28" customFormat="1" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="28" customFormat="1" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="28" customFormat="1" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" s="28" customFormat="1" spans="1:5">
       <c r="A25" s="30" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" s="28" customFormat="1" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="28" customFormat="1" spans="1:5">
       <c r="A27" s="30" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" s="28" customFormat="1" spans="1:5">
       <c r="A28" s="30" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="28" customFormat="1" spans="1:5">
       <c r="A29" s="30" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" s="28" customFormat="1" spans="1:5">
       <c r="A30" s="30" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21120" activeTab="6"/>
+    <workbookView windowHeight="21120" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Property_ui" sheetId="13" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Property_item_supply" sheetId="8" r:id="rId8"/>
     <sheet name="Property_item_equipment" sheetId="3" r:id="rId9"/>
     <sheet name="Property_task" sheetId="4" r:id="rId10"/>
+    <sheet name="Property_skillname" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819">
   <si>
     <t>Id</t>
   </si>
@@ -1797,6 +1798,690 @@
   </si>
   <si>
     <t>宝石给英雄升星</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero001</t>
+  </si>
+  <si>
+    <t>技能1*英雄1</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero002</t>
+  </si>
+  <si>
+    <t>技能1*英雄2</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero003</t>
+  </si>
+  <si>
+    <t>技能1*英雄3</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero004</t>
+  </si>
+  <si>
+    <t>技能1*英雄4</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero005</t>
+  </si>
+  <si>
+    <t>技能1*英雄5</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero006</t>
+  </si>
+  <si>
+    <t>技能1*英雄6</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero007</t>
+  </si>
+  <si>
+    <t>技能1*英雄7</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero008</t>
+  </si>
+  <si>
+    <t>技能1*英雄8</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero009</t>
+  </si>
+  <si>
+    <t>技能1*英雄9</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero010</t>
+  </si>
+  <si>
+    <t>技能1*英雄10</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero011</t>
+  </si>
+  <si>
+    <t>技能1*英雄11</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero012</t>
+  </si>
+  <si>
+    <t>技能1*英雄12</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero013</t>
+  </si>
+  <si>
+    <t>技能1*英雄13</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero014</t>
+  </si>
+  <si>
+    <t>技能1*英雄14</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero015</t>
+  </si>
+  <si>
+    <t>技能1*英雄15</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero016</t>
+  </si>
+  <si>
+    <t>技能1*英雄16</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero017</t>
+  </si>
+  <si>
+    <t>技能1*英雄17</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero018</t>
+  </si>
+  <si>
+    <t>技能1*英雄18</t>
+  </si>
+  <si>
+    <t>NameID_Special1_Hero019</t>
+  </si>
+  <si>
+    <t>技能1*英雄19</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero001</t>
+  </si>
+  <si>
+    <t>技能2*英雄1</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero002</t>
+  </si>
+  <si>
+    <t>技能2*英雄2</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero003</t>
+  </si>
+  <si>
+    <t>技能2*英雄3</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero004</t>
+  </si>
+  <si>
+    <t>技能2*英雄4</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero005</t>
+  </si>
+  <si>
+    <t>技能2*英雄5</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero006</t>
+  </si>
+  <si>
+    <t>技能2*英雄6</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero007</t>
+  </si>
+  <si>
+    <t>技能2*英雄7</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero008</t>
+  </si>
+  <si>
+    <t>技能2*英雄8</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero009</t>
+  </si>
+  <si>
+    <t>技能2*英雄9</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero010</t>
+  </si>
+  <si>
+    <t>技能2*英雄10</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero011</t>
+  </si>
+  <si>
+    <t>技能2*英雄11</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero012</t>
+  </si>
+  <si>
+    <t>技能2*英雄12</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero013</t>
+  </si>
+  <si>
+    <t>技能2*英雄13</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero014</t>
+  </si>
+  <si>
+    <t>技能2*英雄14</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero015</t>
+  </si>
+  <si>
+    <t>技能2*英雄15</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero016</t>
+  </si>
+  <si>
+    <t>技能2*英雄16</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero017</t>
+  </si>
+  <si>
+    <t>技能2*英雄17</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero018</t>
+  </si>
+  <si>
+    <t>技能2*英雄18</t>
+  </si>
+  <si>
+    <t>NameID_Special2_Hero019</t>
+  </si>
+  <si>
+    <t>技能2*英雄19</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero001</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄001</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero002</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄002</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero003</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄003</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero004</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄004</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero005</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄005</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero006</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄006</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero007</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄007</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero008</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄008</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero009</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄009</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero010</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄010</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero011</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄011</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero012</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄012</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero013</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄013</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero014</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄014</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero015</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄015</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero016</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄016</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero017</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄017</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero018</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄018</t>
+  </si>
+  <si>
+    <t>NameID_THUMP_Hero019</t>
+  </si>
+  <si>
+    <t>觉醒技能*英雄019</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero001</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄001</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero002</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄002</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero003</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄003</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero004</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄004</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero005</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄005</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero006</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄006</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero007</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄007</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero008</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄008</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero009</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄009</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero010</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄010</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero011</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄011</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero012</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄012</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero013</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄013</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero014</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄014</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero015</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄015</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero016</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄016</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero017</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄017</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero018</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄018</t>
+  </si>
+  <si>
+    <t>DescID_Special1_Hero019</t>
+  </si>
+  <si>
+    <t>技能1描述*英雄019</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero001</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄001</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero002</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄002</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero003</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄003</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero004</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄004</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero005</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄005</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero006</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄006</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero007</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄007</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero008</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄008</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero009</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄009</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero010</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄010</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero011</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄011</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero012</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄012</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero013</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄013</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero014</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄014</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero015</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄015</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero016</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄016</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero017</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄017</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero018</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄018</t>
+  </si>
+  <si>
+    <t>DescID_Special2_Hero019</t>
+  </si>
+  <si>
+    <t>技能2描述*英雄019</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero001</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄001</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero002</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄002</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero003</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄003</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero004</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄004</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero005</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄005</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero006</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄006</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero007</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄007</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero008</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄008</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero009</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄009</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero010</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄010</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero011</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄011</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero012</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄012</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero013</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄013</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero014</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄014</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero015</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄015</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero016</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄016</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero017</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄017</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero018</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄018</t>
+  </si>
+  <si>
+    <t>DescID_THUMP_Hero019</t>
+  </si>
+  <si>
+    <t>觉醒技能描述*英雄019</t>
   </si>
 </sst>
 </file>
@@ -1804,12 +2489,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1825,6 +2510,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1836,17 +2528,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1857,7 +2540,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1880,13 +2637,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1894,34 +2644,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1935,7 +2669,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1943,56 +2677,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2013,6 +2704,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2020,6 +2717,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,7 +2758,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,13 +2830,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,145 +2932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2429,15 +3138,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2468,6 +3179,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2481,17 +3205,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2513,24 +3261,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2540,6 +3275,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2558,158 +3302,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2718,32 +3427,32 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2759,6 +3468,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2766,9 +3478,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2807,22 +3516,16 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2831,73 +3534,85 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3300,10 +4015,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -3469,57 +4184,57 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" spans="1:3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:3">
-      <c r="A12" s="45" t="s">
+    <row r="12" s="26" customFormat="1" spans="1:3">
+      <c r="A12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" spans="1:3">
-      <c r="A13" s="45" t="s">
+    <row r="13" s="26" customFormat="1" spans="1:3">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:3">
-      <c r="A14" s="45" t="s">
+    <row r="14" s="26" customFormat="1" spans="1:3">
+      <c r="A14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" spans="1:3">
-      <c r="A15" s="45" t="s">
+    <row r="15" s="26" customFormat="1" spans="1:3">
+      <c r="A15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="53" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3544,15 +4259,15 @@
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -3718,7 +4433,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="29" t="s">
         <v>575</v>
       </c>
       <c r="B11" s="22"/>
@@ -3729,109 +4444,109 @@
       <c r="E11" s="24"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="29" t="s">
         <v>577</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="29" t="s">
         <v>579</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="29" t="s">
         <v>581</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="29" t="s">
         <v>583</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>584</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="29" t="s">
         <v>585</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="29" t="s">
         <v>587</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="29" t="s">
         <v>589</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="4:5">
       <c r="D26"/>
@@ -3935,6 +4650,1223 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106:C124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="41.1826923076923" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:5">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" customFormat="1" ht="17" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" customFormat="1" ht="17" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" customFormat="1" ht="17" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" customFormat="1" ht="17" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" customFormat="1" ht="17" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" customFormat="1" ht="17" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" customFormat="1" ht="17" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A19" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A20" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A22" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A23" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A24" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A25" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A26" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A27" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A28" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="17" spans="1:5">
+      <c r="A29" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A30" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A31" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A32" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A33" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A34" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A35" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A36" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A37" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A38" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A39" s="27" t="s">
+        <v>647</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A40" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A41" s="27" t="s">
+        <v>651</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A42" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A43" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A44" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A45" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A46" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A47" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" s="5" customFormat="1" ht="21" spans="1:5">
+      <c r="A48" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" ht="21" spans="1:3">
+      <c r="A49" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" ht="21" spans="1:3">
+      <c r="A50" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="51" ht="41" spans="1:3">
+      <c r="A51" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="52" ht="41" spans="1:3">
+      <c r="A52" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="53" ht="41" spans="1:3">
+      <c r="A53" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="54" ht="41" spans="1:3">
+      <c r="A54" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="55" ht="41" spans="1:3">
+      <c r="A55" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="56" ht="41" spans="1:3">
+      <c r="A56" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="57" ht="41" spans="1:3">
+      <c r="A57" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="58" ht="41" spans="1:3">
+      <c r="A58" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="59" ht="41" spans="1:3">
+      <c r="A59" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="60" ht="41" spans="1:3">
+      <c r="A60" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" ht="41" spans="1:3">
+      <c r="A61" s="27" t="s">
+        <v>691</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="62" ht="41" spans="1:3">
+      <c r="A62" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="63" ht="41" spans="1:3">
+      <c r="A63" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="64" ht="41" spans="1:3">
+      <c r="A64" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="65" ht="41" spans="1:3">
+      <c r="A65" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="66" ht="41" spans="1:3">
+      <c r="A66" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="67" ht="41" spans="1:3">
+      <c r="A67" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="68" ht="17" spans="1:3">
+      <c r="A68" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="69" ht="17" spans="1:3">
+      <c r="A69" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="70" ht="17" spans="1:3">
+      <c r="A70" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="71" ht="17" spans="1:3">
+      <c r="A71" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="72" ht="17" spans="1:3">
+      <c r="A72" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="73" ht="17" spans="1:3">
+      <c r="A73" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="74" ht="17" spans="1:3">
+      <c r="A74" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" ht="17" spans="1:3">
+      <c r="A75" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="76" ht="17" spans="1:3">
+      <c r="A76" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="77" ht="17" spans="1:3">
+      <c r="A77" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="78" ht="17" spans="1:3">
+      <c r="A78" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="79" ht="17" spans="1:3">
+      <c r="A79" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="80" ht="17" spans="1:3">
+      <c r="A80" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="81" ht="17" spans="1:3">
+      <c r="A81" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="82" ht="17" spans="1:3">
+      <c r="A82" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="83" ht="17" spans="1:3">
+      <c r="A83" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="84" ht="17" spans="1:3">
+      <c r="A84" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="85" ht="17" spans="1:3">
+      <c r="A85" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="86" ht="17" spans="1:3">
+      <c r="A86" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="87" ht="17" spans="1:3">
+      <c r="A87" s="28" t="s">
+        <v>743</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="88" ht="17" spans="1:3">
+      <c r="A88" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="89" ht="17" spans="1:3">
+      <c r="A89" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="90" ht="17" spans="1:3">
+      <c r="A90" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="91" ht="17" spans="1:3">
+      <c r="A91" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" ht="17" spans="1:3">
+      <c r="A92" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93" ht="17" spans="1:3">
+      <c r="A93" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="94" ht="17" spans="1:3">
+      <c r="A94" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="95" ht="17" spans="1:3">
+      <c r="A95" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="96" ht="17" spans="1:3">
+      <c r="A96" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="97" ht="17" spans="1:3">
+      <c r="A97" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="98" ht="17" spans="1:3">
+      <c r="A98" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="99" ht="17" spans="1:3">
+      <c r="A99" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="100" ht="17" spans="1:3">
+      <c r="A100" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="101" ht="17" spans="1:3">
+      <c r="A101" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="102" ht="17" spans="1:3">
+      <c r="A102" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="103" ht="17" spans="1:3">
+      <c r="A103" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="104" ht="17" spans="1:3">
+      <c r="A104" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="105" ht="17" spans="1:3">
+      <c r="A105" s="28" t="s">
+        <v>779</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="106" ht="17" spans="1:3">
+      <c r="A106" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="107" ht="17" spans="1:3">
+      <c r="A107" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="108" ht="17" spans="1:3">
+      <c r="A108" s="28" t="s">
+        <v>785</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="109" ht="17" spans="1:3">
+      <c r="A109" s="28" t="s">
+        <v>787</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="110" ht="17" spans="1:3">
+      <c r="A110" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="111" ht="17" spans="1:3">
+      <c r="A111" s="28" t="s">
+        <v>791</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="112" ht="17" spans="1:3">
+      <c r="A112" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="113" ht="17" spans="1:3">
+      <c r="A113" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="114" ht="17" spans="1:3">
+      <c r="A114" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="115" ht="17" spans="1:3">
+      <c r="A115" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="116" ht="17" spans="1:3">
+      <c r="A116" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="117" ht="17" spans="1:3">
+      <c r="A117" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="118" ht="17" spans="1:3">
+      <c r="A118" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="119" ht="17" spans="1:3">
+      <c r="A119" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="120" ht="17" spans="1:3">
+      <c r="A120" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="121" ht="17" spans="1:3">
+      <c r="A121" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="122" ht="17" spans="1:3">
+      <c r="A122" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="123" ht="17" spans="1:3">
+      <c r="A123" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="124" ht="17" spans="1:3">
+      <c r="A124" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 E6:E9 B6:C9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3951,10 +5883,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -4120,351 +6052,351 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A12" s="48" t="s">
+    <row r="12" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A12" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A13" s="48" t="s">
+    <row r="13" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A13" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A14" s="48" t="s">
+    <row r="14" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A15" s="48" t="s">
+    <row r="15" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A16" s="48" t="s">
+    <row r="16" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A16" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A17" s="48" t="s">
+    <row r="17" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A18" s="48" t="s">
+    <row r="18" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A19" s="48" t="s">
+    <row r="19" s="26" customFormat="1" ht="17.55" spans="1:3">
+      <c r="A19" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="49" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="49" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="49" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="49" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="49" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="49" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="49" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -4497,10 +6429,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -4666,329 +6598,329 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="43" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="44" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="44" t="s">
         <v>155</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>157</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
     <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="44" t="s">
         <v>158</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" ht="17.55" spans="1:5">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" ht="17.55" spans="1:5">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" ht="17.55" spans="1:5">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" ht="17.55" spans="1:5">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" ht="17.55" spans="1:5">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" ht="17.55" spans="1:5">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
     </row>
     <row r="40" ht="17.55" spans="1:5">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" ht="17.55" spans="1:5">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="44" t="s">
         <v>168</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="44"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" ht="17.55" spans="1:5">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="44" t="s">
         <v>169</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" ht="17.55" spans="1:5">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="44" t="s">
         <v>170</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" ht="17.55" spans="1:5">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="44" t="s">
         <v>171</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" ht="17.55" spans="1:5">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="44" t="s">
         <v>172</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" ht="17.55" spans="1:5">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="44" t="s">
         <v>173</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" ht="17.55" spans="1:5">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="44" t="s">
         <v>174</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="44" t="s">
         <v>175</v>
       </c>
       <c r="D48"/>
@@ -5080,10 +7012,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5249,359 +7181,359 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="34" t="s">
         <v>177</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>178</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>180</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="43" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="44" t="s">
         <v>215</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>157</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
     <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="44" t="s">
         <v>217</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" ht="17.55" spans="1:5">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" ht="17.55" spans="1:5">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" ht="17.55" spans="1:5">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" ht="17.55" spans="1:5">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" ht="17.55" spans="1:5">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" ht="17.55" spans="1:5">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
     </row>
     <row r="40" ht="17.55" spans="1:5">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" ht="17.55" spans="1:5">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="44" t="s">
         <v>225</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="44"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" ht="17.55" spans="1:5">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="44" t="s">
         <v>226</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" ht="17.55" spans="1:5">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="44" t="s">
         <v>227</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" ht="17.55" spans="1:5">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="44" t="s">
         <v>228</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" ht="17.55" spans="1:5">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="44" t="s">
         <v>229</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" ht="17.55" spans="1:5">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="44" t="s">
         <v>230</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" ht="17.55" spans="1:5">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="44" t="s">
         <v>231</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="44" t="s">
         <v>232</v>
       </c>
       <c r="D48"/>
@@ -5693,10 +7625,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5862,140 +7794,140 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="25" customFormat="1" spans="1:5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" s="25" customFormat="1" spans="1:5">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>244</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>246</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:5">
-      <c r="A18" s="30" t="s">
+    <row r="18" s="31" customFormat="1" spans="1:5">
+      <c r="A18" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="34" t="s">
         <v>248</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:5">
-      <c r="A19" s="30" t="s">
+    <row r="19" s="31" customFormat="1" spans="1:5">
+      <c r="A19" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="34" t="s">
         <v>250</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:5">
-      <c r="A20" s="30" t="s">
+    <row r="20" s="31" customFormat="1" spans="1:5">
+      <c r="A20" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="34" t="s">
         <v>252</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:5">
-      <c r="A21" s="30" t="s">
+    <row r="21" s="31" customFormat="1" spans="1:5">
+      <c r="A21" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="34" t="s">
         <v>254</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:5">
-      <c r="A22" s="30" t="s">
+    <row r="22" s="31" customFormat="1" spans="1:5">
+      <c r="A22" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>256</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:5">
-      <c r="A23" s="30" t="s">
+    <row r="23" s="31" customFormat="1" spans="1:5">
+      <c r="A23" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="34" t="s">
         <v>258</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:5">
-      <c r="A24" s="30" t="s">
+    <row r="24" s="31" customFormat="1" spans="1:5">
+      <c r="A24" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="34" t="s">
         <v>260</v>
       </c>
       <c r="D24"/>
@@ -6027,10 +7959,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6195,829 +8127,829 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="39" t="s">
+    <row r="11" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A11" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="34" t="s">
         <v>262</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="39" t="s">
+    <row r="12" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A12" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="34" t="s">
         <v>264</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="39" t="s">
+    <row r="13" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A13" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="34" t="s">
         <v>266</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="39" t="s">
+    <row r="14" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A14" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="34" t="s">
         <v>268</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="39" t="s">
+    <row r="15" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A15" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="34" t="s">
         <v>270</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="39" t="s">
+    <row r="16" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A16" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="37" t="s">
         <v>272</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="39" t="s">
+    <row r="17" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A17" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="37" t="s">
         <v>274</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="39" t="s">
+    <row r="18" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A18" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="37" t="s">
         <v>276</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="39" t="s">
+    <row r="19" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A19" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="37" t="s">
         <v>278</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="39" t="s">
+    <row r="20" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A20" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="37" t="s">
         <v>280</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="39" t="s">
+    <row r="21" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A21" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="37" t="s">
         <v>282</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="39" t="s">
+    <row r="22" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A22" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="37" t="s">
         <v>284</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="39" t="s">
+    <row r="23" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A23" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="37" t="s">
         <v>286</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="39" t="s">
+    <row r="24" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A24" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="37" t="s">
         <v>288</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="39" t="s">
+    <row r="25" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A25" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="37" t="s">
         <v>290</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="39" t="s">
+    <row r="26" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A26" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="37" t="s">
         <v>292</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="39" t="s">
+    <row r="27" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A27" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="37" t="s">
         <v>294</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="39" t="s">
+    <row r="28" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A28" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="37" t="s">
         <v>296</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="32" customFormat="1" spans="1:5">
-      <c r="A29" s="39" t="s">
+    <row r="29" s="35" customFormat="1" spans="1:5">
+      <c r="A29" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="37" t="s">
         <v>298</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" ht="17" spans="1:3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:3">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:3">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:3">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:3">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="44" ht="17" spans="1:3">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="46" ht="17" spans="1:3">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="47" ht="17" spans="1:3">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="48" ht="17" spans="1:3">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="40" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:3">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="40" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:3">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="40" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="51" ht="17" spans="1:3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" ht="17" spans="1:3">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="53" ht="17" spans="1:3">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="54" ht="17" spans="1:3">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36" t="s">
+      <c r="B54" s="39"/>
+      <c r="C54" s="39" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="55" ht="17" spans="1:3">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="56" ht="17" spans="1:3">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="57" ht="17" spans="1:3">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36" t="s">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="58" ht="17" spans="1:3">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="39" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="59" ht="17" spans="1:3">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36" t="s">
+      <c r="B59" s="39"/>
+      <c r="C59" s="39" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="60" ht="17" spans="1:3">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="39" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="61" ht="17" spans="1:3">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36" t="s">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="62" ht="17" spans="1:3">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="63" ht="17" spans="1:3">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36" t="s">
+      <c r="B63" s="39"/>
+      <c r="C63" s="39" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="64" ht="17" spans="1:3">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="65" ht="17" spans="1:3">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36" t="s">
+      <c r="B65" s="39"/>
+      <c r="C65" s="39" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="66" ht="17" spans="1:3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="37" t="s">
+      <c r="B66" s="39"/>
+      <c r="C66" s="40" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:3">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="37" t="s">
+      <c r="B67" s="39"/>
+      <c r="C67" s="40" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:3">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37" t="s">
+      <c r="B68" s="39"/>
+      <c r="C68" s="40" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="69" ht="17" spans="1:3">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36" t="s">
+      <c r="B69" s="39"/>
+      <c r="C69" s="39" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="70" ht="17" spans="1:3">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="71" ht="17" spans="1:3">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36" t="s">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="72" ht="17" spans="1:3">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="39" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="73" ht="17" spans="1:3">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="74" ht="17" spans="1:3">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36" t="s">
+      <c r="B74" s="39"/>
+      <c r="C74" s="39" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="75" ht="17" spans="1:3">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36" t="s">
+      <c r="B75" s="39"/>
+      <c r="C75" s="39" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:3">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36" t="s">
+      <c r="B76" s="39"/>
+      <c r="C76" s="39" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:3">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36" t="s">
+      <c r="B77" s="39"/>
+      <c r="C77" s="39" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:3">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="37" t="s">
+      <c r="B78" s="39"/>
+      <c r="C78" s="40" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:3">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="37" t="s">
+      <c r="B79" s="39"/>
+      <c r="C79" s="40" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:3">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="37" t="s">
+      <c r="B80" s="39"/>
+      <c r="C80" s="40" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:3">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36" t="s">
+      <c r="B81" s="39"/>
+      <c r="C81" s="39" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:3">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36" t="s">
+      <c r="B82" s="39"/>
+      <c r="C82" s="39" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:3">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36" t="s">
+      <c r="B83" s="39"/>
+      <c r="C83" s="39" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="84" ht="17" spans="1:3">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36" t="s">
+      <c r="B84" s="39"/>
+      <c r="C84" s="39" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:3">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36" t="s">
+      <c r="B85" s="39"/>
+      <c r="C85" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="86" ht="17" spans="1:3">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36" t="s">
+      <c r="B86" s="39"/>
+      <c r="C86" s="39" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="87" ht="17" spans="1:3">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36" t="s">
+      <c r="B87" s="39"/>
+      <c r="C87" s="39" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:3">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36" t="s">
+      <c r="B88" s="39"/>
+      <c r="C88" s="39" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="89" ht="17" spans="1:3">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36" t="s">
+      <c r="B89" s="39"/>
+      <c r="C89" s="39" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="90" ht="17" spans="1:3">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="38" t="s">
+      <c r="B90" s="39"/>
+      <c r="C90" s="40" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="38" t="s">
+      <c r="B91" s="39"/>
+      <c r="C91" s="40" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="38" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="40" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A93" s="40" t="s">
+    <row r="93" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A93" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36" t="s">
+      <c r="B93" s="39"/>
+      <c r="C93" s="39" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A94" s="40" t="s">
+    <row r="94" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A94" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36" t="s">
+      <c r="B94" s="39"/>
+      <c r="C94" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A95" s="40" t="s">
+    <row r="95" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A95" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36" t="s">
+      <c r="B95" s="39"/>
+      <c r="C95" s="39" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A96" s="40" t="s">
+    <row r="96" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A96" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="38" t="s">
+      <c r="B96" s="39"/>
+      <c r="C96" s="40" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="97" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A97" s="40" t="s">
+    <row r="97" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A97" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="38" t="s">
+      <c r="B97" s="39"/>
+      <c r="C97" s="40" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="98" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A98" s="40" t="s">
+    <row r="98" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A98" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="38" t="s">
+      <c r="B98" s="39"/>
+      <c r="C98" s="40" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7039,18 +8971,18 @@
   <sheetPr/>
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -7215,799 +9147,799 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A11" s="33" t="s">
+    <row r="11" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A11" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="34" t="s">
         <v>438</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A12" s="33" t="s">
+    <row r="12" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A12" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="34" t="s">
         <v>440</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A13" s="33" t="s">
+    <row r="13" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A13" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="34" t="s">
         <v>442</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" s="28" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A14" s="33" t="s">
+    <row r="14" s="31" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A14" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="34" t="s">
         <v>444</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A15" s="33" t="s">
+    <row r="15" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A15" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="37"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A16" s="33" t="s">
+    <row r="16" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A16" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="37"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A17" s="33" t="s">
+    <row r="17" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A17" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="37"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A18" s="33" t="s">
+    <row r="18" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A18" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="37"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A19" s="33" t="s">
+    <row r="19" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A19" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="37"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A20" s="33" t="s">
+    <row r="20" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A20" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="37"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A21" s="33" t="s">
+    <row r="21" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A21" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="37"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A22" s="33" t="s">
+    <row r="22" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A22" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="37"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A23" s="33" t="s">
+    <row r="23" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A23" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="37"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A24" s="33" t="s">
+    <row r="24" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A24" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="37"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A25" s="33" t="s">
+    <row r="25" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A25" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="37"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A26" s="33" t="s">
+    <row r="26" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A26" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="37"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A27" s="33" t="s">
+    <row r="27" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A27" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="37"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="32" customFormat="1" ht="17.55" spans="1:5">
-      <c r="A28" s="33" t="s">
+    <row r="28" s="35" customFormat="1" ht="17.55" spans="1:5">
+      <c r="A28" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="37"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="32" customFormat="1" spans="1:5">
-      <c r="A29" s="33" t="s">
+    <row r="29" s="35" customFormat="1" spans="1:5">
+      <c r="A29" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="37"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="48" ht="17" spans="1:3">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="40" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="40" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:3">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="40" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36" t="s">
+      <c r="B54" s="39"/>
+      <c r="C54" s="39" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36" t="s">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="39" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36" t="s">
+      <c r="B59" s="39"/>
+      <c r="C59" s="39" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="39" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36" t="s">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36" t="s">
+      <c r="B63" s="39"/>
+      <c r="C63" s="39" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36" t="s">
+      <c r="B65" s="39"/>
+      <c r="C65" s="39" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="66" ht="17" spans="1:3">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="37" t="s">
+      <c r="B66" s="39"/>
+      <c r="C66" s="40" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:3">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="37" t="s">
+      <c r="B67" s="39"/>
+      <c r="C67" s="40" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:3">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37" t="s">
+      <c r="B68" s="39"/>
+      <c r="C68" s="40" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36" t="s">
+      <c r="B69" s="39"/>
+      <c r="C69" s="39" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36" t="s">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="39" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36" t="s">
+      <c r="B74" s="39"/>
+      <c r="C74" s="39" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36" t="s">
+      <c r="B75" s="39"/>
+      <c r="C75" s="39" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36" t="s">
+      <c r="B76" s="39"/>
+      <c r="C76" s="39" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36" t="s">
+      <c r="B77" s="39"/>
+      <c r="C77" s="39" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:3">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="37" t="s">
+      <c r="B78" s="39"/>
+      <c r="C78" s="40" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:3">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="37" t="s">
+      <c r="B79" s="39"/>
+      <c r="C79" s="40" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="37" t="s">
+      <c r="B80" s="39"/>
+      <c r="C80" s="40" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36" t="s">
+      <c r="B81" s="39"/>
+      <c r="C81" s="39" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36" t="s">
+      <c r="B82" s="39"/>
+      <c r="C82" s="39" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36" t="s">
+      <c r="B83" s="39"/>
+      <c r="C83" s="39" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36" t="s">
+      <c r="B84" s="39"/>
+      <c r="C84" s="39" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36" t="s">
+      <c r="B85" s="39"/>
+      <c r="C85" s="39" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36" t="s">
+      <c r="B86" s="39"/>
+      <c r="C86" s="39" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36" t="s">
+      <c r="B87" s="39"/>
+      <c r="C87" s="39" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36" t="s">
+      <c r="B88" s="39"/>
+      <c r="C88" s="39" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36" t="s">
+      <c r="B89" s="39"/>
+      <c r="C89" s="39" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="90" ht="17" spans="1:3">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="38" t="s">
+      <c r="B90" s="39"/>
+      <c r="C90" s="40" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="38" t="s">
+      <c r="B91" s="39"/>
+      <c r="C91" s="40" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="38" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="40" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" spans="1:3">
-      <c r="A93" s="35" t="s">
+    <row r="93" s="5" customFormat="1" spans="1:3">
+      <c r="A93" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36" t="s">
+      <c r="B93" s="39"/>
+      <c r="C93" s="39" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" spans="1:3">
-      <c r="A94" s="35" t="s">
+    <row r="94" s="5" customFormat="1" spans="1:3">
+      <c r="A94" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36" t="s">
+      <c r="B94" s="39"/>
+      <c r="C94" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="1" spans="1:3">
-      <c r="A95" s="35" t="s">
+    <row r="95" s="5" customFormat="1" spans="1:3">
+      <c r="A95" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36" t="s">
+      <c r="B95" s="39"/>
+      <c r="C95" s="39" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A96" s="35" t="s">
+    <row r="96" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A96" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="38" t="s">
+      <c r="B96" s="39"/>
+      <c r="C96" s="40" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="97" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A97" s="35" t="s">
+    <row r="97" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A97" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="38" t="s">
+      <c r="B97" s="39"/>
+      <c r="C97" s="40" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="98" s="8" customFormat="1" ht="17" spans="1:3">
-      <c r="A98" s="35" t="s">
+    <row r="98" s="5" customFormat="1" ht="17" spans="1:3">
+      <c r="A98" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="38" t="s">
+      <c r="B98" s="39"/>
+      <c r="C98" s="40" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8030,17 +9962,17 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8206,7 +10138,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="22" customFormat="1" spans="1:5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="29" t="s">
         <v>535</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -8216,190 +10148,190 @@
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" s="22" customFormat="1" spans="1:5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="29" t="s">
         <v>539</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>548</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" s="25" customFormat="1" spans="1:5">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" s="25" customFormat="1" spans="1:5">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" s="28" customFormat="1" spans="1:5">
-      <c r="A21" s="30" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" s="31" customFormat="1" spans="1:5">
+      <c r="A21" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="34" t="s">
         <v>556</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:5">
-      <c r="A22" s="30" t="s">
+    <row r="22" s="31" customFormat="1" spans="1:5">
+      <c r="A22" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>558</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:5">
-      <c r="A23" s="30" t="s">
+    <row r="23" s="31" customFormat="1" spans="1:5">
+      <c r="A23" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="34" t="s">
         <v>560</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:5">
-      <c r="A24" s="30" t="s">
+    <row r="24" s="31" customFormat="1" spans="1:5">
+      <c r="A24" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="34" t="s">
         <v>562</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:5">
-      <c r="A25" s="30" t="s">
+    <row r="25" s="31" customFormat="1" spans="1:5">
+      <c r="A25" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="34" t="s">
         <v>564</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:5">
-      <c r="A26" s="30" t="s">
+    <row r="26" s="31" customFormat="1" spans="1:5">
+      <c r="A26" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="34" t="s">
         <v>566</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:5">
-      <c r="A27" s="30" t="s">
+    <row r="27" s="31" customFormat="1" spans="1:5">
+      <c r="A27" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="34" t="s">
         <v>568</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:5">
-      <c r="A28" s="30" t="s">
+    <row r="28" s="31" customFormat="1" spans="1:5">
+      <c r="A28" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="34" t="s">
         <v>570</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:5">
-      <c r="A29" s="30" t="s">
+    <row r="29" s="31" customFormat="1" spans="1:5">
+      <c r="A29" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="34" t="s">
         <v>572</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="1:5">
-      <c r="A30" s="30" t="s">
+    <row r="30" s="31" customFormat="1" spans="1:5">
+      <c r="A30" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D30"/>
@@ -8424,17 +10356,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A122" sqref="$A11:$XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3365384615385" style="6" customWidth="1"/>
-    <col min="3" max="3" width="87.3365384615385" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="31.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.3365384615385" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">

--- a/_Out/NFDataCfg/Excel/Language.xlsx
+++ b/_Out/NFDataCfg/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21120" firstSheet="5" activeTab="10"/>
+    <workbookView windowHeight="21120" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Property_ui" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840">
   <si>
     <t>Id</t>
   </si>
@@ -612,13 +612,19 @@
     <t>NameID_Hero010</t>
   </si>
   <si>
-    <t>马尔斯</t>
+    <t>Spartacus</t>
+  </si>
+  <si>
+    <t>斯巴达克斯</t>
   </si>
   <si>
     <t>NameID_Hero011</t>
   </si>
   <si>
-    <t>艾里斯</t>
+    <t>Fire of Lord</t>
+  </si>
+  <si>
+    <t>火狱领主</t>
   </si>
   <si>
     <t>NameID_Hero012</t>
@@ -672,58 +678,115 @@
     <t>DescID_Hero001</t>
   </si>
   <si>
+    <t>他就是个刺客，你希望他干啥？</t>
+  </si>
+  <si>
     <t>DescID_Hero002</t>
   </si>
   <si>
+    <t>唐僧话最多</t>
+  </si>
+  <si>
     <t>DescID_Hero003</t>
   </si>
   <si>
+    <t>日本的流浪忍者</t>
+  </si>
+  <si>
     <t>DescID_Hero004</t>
   </si>
   <si>
+    <t>日本的流浪剑客</t>
+  </si>
+  <si>
     <t>DescID_Hero005</t>
   </si>
   <si>
+    <t>狂战士，就知道打架</t>
+  </si>
+  <si>
     <t>DescID_Hero006</t>
   </si>
   <si>
+    <t>据说他当年发现了新大陆？</t>
+  </si>
+  <si>
     <t>DescID_Hero007</t>
   </si>
   <si>
+    <t>矮人国王，好很有钱的样子？</t>
+  </si>
+  <si>
     <t>DescID_Hero008</t>
   </si>
   <si>
+    <t>不知道怎么说，反正很厉害的样子。</t>
+  </si>
+  <si>
     <t>DescID_Hero009</t>
   </si>
   <si>
+    <t>可不要被这个小姐姐的样子蒙蔽了。</t>
+  </si>
+  <si>
     <t>DescID_Hero010</t>
   </si>
   <si>
+    <t>斯巴达克斯，不要得罪他，小心他300弟弟打你。</t>
+  </si>
+  <si>
     <t>DescID_Hero011</t>
   </si>
   <si>
+    <t>Burn them all!</t>
+  </si>
+  <si>
+    <t>烧死他们！</t>
+  </si>
+  <si>
     <t>DescID_Hero012</t>
   </si>
   <si>
+    <t>嗯，烧死他们！</t>
+  </si>
+  <si>
     <t>DescID_Hero013</t>
   </si>
   <si>
+    <t>射射射！</t>
+  </si>
+  <si>
     <t>DescID_Hero014</t>
   </si>
   <si>
+    <t>我要召唤蛇！</t>
+  </si>
+  <si>
     <t>DescID_Hero015</t>
   </si>
   <si>
+    <t>鼠子鼠孙无穷尽！</t>
+  </si>
+  <si>
     <t>DescID_Hero016</t>
   </si>
   <si>
+    <t>据说挖矿很厉害？</t>
+  </si>
+  <si>
     <t>DescID_Hero017</t>
   </si>
   <si>
     <t>DescID_Hero018</t>
   </si>
   <si>
+    <t>你这野猴！</t>
+  </si>
+  <si>
     <t>DescID_Hero019</t>
+  </si>
+  <si>
+    <t>不认识</t>
   </si>
   <si>
     <t>Desc_GEM_ATK</t>
@@ -2489,12 +2552,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2532,15 +2595,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="-webkit-standard"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2555,6 +2618,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2576,6 +2655,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -2583,16 +2678,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2614,70 +2739,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2758,7 +2827,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2770,31 +2887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2806,79 +2905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,7 +2923,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,13 +2959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2926,13 +2977,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3209,7 +3278,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3229,17 +3298,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3259,31 +3322,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3302,157 +3351,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3593,6 +3662,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4184,57 +4256,57 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" spans="1:3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" s="26" customFormat="1" spans="1:3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" s="26" customFormat="1" spans="1:3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" s="26" customFormat="1" spans="1:3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" s="26" customFormat="1" spans="1:3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4434,88 +4506,88 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="29" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="30" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="29" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="30" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="30" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="30" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="30" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="30" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="29" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="30" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -4658,8 +4730,8 @@
   <sheetPr/>
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106:C124"/>
+    <sheetView topLeftCell="G79" workbookViewId="0">
+      <selection activeCell="T109" sqref="T109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -4834,1028 +4906,1028 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" customFormat="1" ht="17" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="23" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" customFormat="1" ht="17" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="23" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" customFormat="1" ht="17" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="23" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" customFormat="1" ht="17" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="23" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
     <row r="16" customFormat="1" ht="17" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="23" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
     <row r="17" customFormat="1" ht="17" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="23" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
     </row>
     <row r="18" customFormat="1" ht="17" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="23" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
     </row>
     <row r="19" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A19" s="21" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="23" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A20" s="21" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="23" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A21" s="21" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="23" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
     </row>
     <row r="22" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A22" s="21" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="23" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A23" s="21" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="23" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A24" s="21" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="23" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A25" s="21" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="23" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A26" s="21" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="23" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A27" s="21" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="23" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A28" s="21" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="23" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="5" customFormat="1" ht="17" spans="1:5">
       <c r="A29" s="21" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="23" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A30" s="27" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="23" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
     </row>
     <row r="31" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A31" s="27" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="23" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
     </row>
     <row r="32" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A32" s="27" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="23" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
     </row>
     <row r="33" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A33" s="27" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
     </row>
     <row r="34" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A34" s="27" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="23" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
     </row>
     <row r="35" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A35" s="27" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="23" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
     </row>
     <row r="36" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A36" s="27" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="23" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
     </row>
     <row r="37" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A37" s="27" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="23" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
     </row>
     <row r="38" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A38" s="27" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="23" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
     </row>
     <row r="39" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A39" s="27" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="23" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
     </row>
     <row r="40" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A40" s="27" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="23" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
     </row>
     <row r="41" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A41" s="27" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="23" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A42" s="27" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="23" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A43" s="27" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="23" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A44" s="27" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="23" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A45" s="27" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="23" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A46" s="27" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="23" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A47" s="27" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="23" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" s="5" customFormat="1" ht="21" spans="1:5">
       <c r="A48" s="27" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="23" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
     </row>
     <row r="49" ht="21" spans="1:3">
       <c r="A49" s="27" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
       <c r="A50" s="27" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="51" ht="41" spans="1:3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="51" ht="21" spans="1:3">
       <c r="A51" s="27" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="52" ht="41" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="52" ht="21" spans="1:3">
       <c r="A52" s="27" t="s">
-        <v>673</v>
+        <v>694</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="53" ht="41" spans="1:3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" ht="21" spans="1:3">
       <c r="A53" s="27" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="54" ht="41" spans="1:3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="54" ht="21" spans="1:3">
       <c r="A54" s="27" t="s">
-        <v>677</v>
+        <v>698</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="55" ht="41" spans="1:3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="55" ht="21" spans="1:3">
       <c r="A55" s="27" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="56" ht="41" spans="1:3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="56" ht="21" spans="1:3">
       <c r="A56" s="27" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="57" ht="41" spans="1:3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" ht="21" spans="1:3">
       <c r="A57" s="27" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="58" ht="41" spans="1:3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" ht="21" spans="1:3">
       <c r="A58" s="27" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="59" ht="41" spans="1:3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="59" ht="21" spans="1:3">
       <c r="A59" s="27" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="60" ht="41" spans="1:3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="60" ht="21" spans="1:3">
       <c r="A60" s="27" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="61" ht="41" spans="1:3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="61" ht="21" spans="1:3">
       <c r="A61" s="27" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="62" ht="41" spans="1:3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="62" ht="21" spans="1:3">
       <c r="A62" s="27" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="63" ht="41" spans="1:3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="63" ht="21" spans="1:3">
       <c r="A63" s="27" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="64" ht="41" spans="1:3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="64" ht="21" spans="1:3">
       <c r="A64" s="27" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="65" ht="41" spans="1:3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="65" ht="21" spans="1:3">
       <c r="A65" s="27" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="66" ht="41" spans="1:3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="66" ht="21" spans="1:3">
       <c r="A66" s="27" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="67" ht="41" spans="1:3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="67" ht="21" spans="1:3">
       <c r="A67" s="27" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:3">
       <c r="A68" s="21" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
     </row>
     <row r="69" ht="17" spans="1:3">
       <c r="A69" s="21" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="70" ht="17" spans="1:3">
       <c r="A70" s="21" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="71" ht="17" spans="1:3">
       <c r="A71" s="21" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" ht="17" spans="1:3">
       <c r="A72" s="21" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" ht="17" spans="1:3">
       <c r="A73" s="21" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" ht="17" spans="1:3">
       <c r="A74" s="21" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
     </row>
     <row r="75" ht="17" spans="1:3">
       <c r="A75" s="21" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:3">
       <c r="A76" s="21" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:3">
       <c r="A77" s="21" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:3">
       <c r="A78" s="21" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:3">
       <c r="A79" s="21" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:3">
       <c r="A80" s="21" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:3">
       <c r="A81" s="21" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:3">
       <c r="A82" s="21" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:3">
       <c r="A83" s="21" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
     </row>
     <row r="84" ht="17" spans="1:3">
       <c r="A84" s="21" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:3">
       <c r="A85" s="21" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86" ht="17" spans="1:3">
       <c r="A86" s="21" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="87" ht="17" spans="1:3">
       <c r="A87" s="28" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:3">
       <c r="A88" s="28" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" ht="17" spans="1:3">
       <c r="A89" s="28" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
     </row>
     <row r="90" ht="17" spans="1:3">
       <c r="A90" s="28" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
       <c r="A91" s="28" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
       <c r="A92" s="28" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93" ht="17" spans="1:3">
       <c r="A93" s="28" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
     </row>
     <row r="94" ht="17" spans="1:3">
       <c r="A94" s="28" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:3">
       <c r="A95" s="28" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
     </row>
     <row r="96" ht="17" spans="1:3">
       <c r="A96" s="28" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
     </row>
     <row r="97" ht="17" spans="1:3">
       <c r="A97" s="28" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98" ht="17" spans="1:3">
       <c r="A98" s="28" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
     </row>
     <row r="99" ht="17" spans="1:3">
       <c r="A99" s="28" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
     </row>
     <row r="100" ht="17" spans="1:3">
       <c r="A100" s="28" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
     </row>
     <row r="101" ht="17" spans="1:3">
       <c r="A101" s="28" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
     </row>
     <row r="102" ht="17" spans="1:3">
       <c r="A102" s="28" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103" ht="17" spans="1:3">
       <c r="A103" s="28" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
     </row>
     <row r="104" ht="17" spans="1:3">
       <c r="A104" s="28" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
     </row>
     <row r="105" ht="17" spans="1:3">
       <c r="A105" s="28" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
     </row>
     <row r="106" ht="17" spans="1:3">
       <c r="A106" s="28" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="107" ht="17" spans="1:3">
       <c r="A107" s="28" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="108" ht="17" spans="1:3">
       <c r="A108" s="28" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
     </row>
     <row r="109" ht="17" spans="1:3">
       <c r="A109" s="28" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:3">
       <c r="A110" s="28" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
     </row>
     <row r="111" ht="17" spans="1:3">
       <c r="A111" s="28" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
     </row>
     <row r="112" ht="17" spans="1:3">
       <c r="A112" s="28" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
     </row>
     <row r="113" ht="17" spans="1:3">
       <c r="A113" s="28" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" ht="17" spans="1:3">
       <c r="A114" s="28" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:3">
       <c r="A115" s="28" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
     </row>
     <row r="116" ht="17" spans="1:3">
       <c r="A116" s="28" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
     </row>
     <row r="117" ht="17" spans="1:3">
       <c r="A117" s="28" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
     </row>
     <row r="118" ht="17" spans="1:3">
       <c r="A118" s="28" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
     </row>
     <row r="119" ht="17" spans="1:3">
       <c r="A119" s="28" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="120" ht="17" spans="1:3">
       <c r="A120" s="28" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
     </row>
     <row r="121" ht="17" spans="1:3">
       <c r="A121" s="28" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
     </row>
     <row r="122" ht="17" spans="1:3">
       <c r="A122" s="28" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
     </row>
     <row r="123" ht="17" spans="1:3">
       <c r="A123" s="28" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
     </row>
     <row r="124" ht="17" spans="1:3">
       <c r="A124" s="28" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -6052,351 +6124,351 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" s="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="50" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="50" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" s="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="50" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="50" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="50" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="50" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="50" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="50" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="50" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="50" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="50" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="50" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17.55" spans="1:3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="50" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -7004,10 +7076,10 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -7286,255 +7358,309 @@
       <c r="A20" s="43" t="s">
         <v>194</v>
       </c>
+      <c r="B20" s="25" t="s">
+        <v>195</v>
+      </c>
       <c r="C20" s="37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A21" s="43" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A22" s="43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A23" s="43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A24" s="43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A25" s="43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
     </row>
     <row r="26" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A26" s="43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
     </row>
     <row r="27" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A27" s="43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
     </row>
     <row r="28" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A28" s="43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A29" s="43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
     <row r="30" s="25" customFormat="1" ht="101.75" spans="1:5">
       <c r="A30" s="44" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
     </row>
     <row r="31" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A31" s="44" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>153</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
     </row>
     <row r="32" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A32" s="44" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
     <row r="33" s="25" customFormat="1" ht="17.55" spans="1:5">
       <c r="A33" s="44" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>159</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
     </row>
     <row r="34" ht="17.55" spans="1:5">
       <c r="A34" s="44" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
     </row>
-    <row r="35" ht="17.55" spans="1:5">
+    <row r="35" spans="1:5">
       <c r="A35" s="44" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
     </row>
-    <row r="36" ht="17.55" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="44" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
     </row>
-    <row r="37" ht="17.55" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="44" t="s">
-        <v>221</v>
+        <v>230</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
     </row>
     <row r="38" ht="17.55" spans="1:5">
       <c r="A38" s="44" t="s">
-        <v>222</v>
+        <v>232</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D38" s="46"/>
       <c r="E38" s="46"/>
     </row>
     <row r="39" ht="17.55" spans="1:5">
       <c r="A39" s="44" t="s">
-        <v>223</v>
+        <v>234</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>235</v>
       </c>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
     </row>
     <row r="40" ht="17.55" spans="1:5">
       <c r="A40" s="44" t="s">
-        <v>224</v>
+        <v>236</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
     </row>
-    <row r="41" ht="17.55" spans="1:5">
+    <row r="41" spans="1:5">
       <c r="A41" s="44" t="s">
-        <v>225</v>
+        <v>239</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="46"/>
     </row>
-    <row r="42" ht="17.55" spans="1:5">
+    <row r="42" spans="1:5">
       <c r="A42" s="44" t="s">
-        <v>226</v>
+        <v>241</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" ht="17.55" spans="1:5">
+    <row r="43" spans="1:5">
       <c r="A43" s="44" t="s">
-        <v>227</v>
+        <v>243</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" ht="17.55" spans="1:5">
+    <row r="44" spans="1:5">
       <c r="A44" s="44" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" ht="17.55" spans="1:5">
       <c r="A45" s="44" t="s">
-        <v>229</v>
+        <v>247</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" ht="17.55" spans="1:5">
       <c r="A46" s="44" t="s">
-        <v>230</v>
+        <v>249</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" ht="17.55" spans="1:5">
       <c r="A47" s="44" t="s">
-        <v>231</v>
+        <v>250</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="44" t="s">
-        <v>232</v>
+        <v>252</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -7795,140 +7921,140 @@
     </row>
     <row r="11" s="25" customFormat="1" spans="1:5">
       <c r="A11" s="32" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="32" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" s="25" customFormat="1" spans="1:5">
       <c r="A13" s="32" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="32" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="32" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="32" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="32" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18" s="31" customFormat="1" spans="1:5">
       <c r="A18" s="33" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
     <row r="19" s="31" customFormat="1" spans="1:5">
       <c r="A19" s="33" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" s="31" customFormat="1" spans="1:5">
       <c r="A20" s="33" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" s="31" customFormat="1" spans="1:5">
       <c r="A21" s="33" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="31" customFormat="1" spans="1:5">
       <c r="A22" s="33" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="31" customFormat="1" spans="1:5">
       <c r="A23" s="33" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="31" customFormat="1" spans="1:5">
       <c r="A24" s="33" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -8129,828 +8255,828 @@
     </row>
     <row r="11" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A11" s="41" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A12" s="41" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A13" s="41" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A14" s="41" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
     <row r="15" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A15" s="41" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="34" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
     <row r="16" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A16" s="41" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="37" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A17" s="41" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="37" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A18" s="41" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="37" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
     <row r="19" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A19" s="41" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="37" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A20" s="41" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="37" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A21" s="41" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="37" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A22" s="41" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="37" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A23" s="41" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="37" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A24" s="41" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="37" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A25" s="41" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="37" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A26" s="41" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="37" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A27" s="41" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="37" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A28" s="41" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="37" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="35" customFormat="1" spans="1:5">
       <c r="A29" s="41" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="37" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" ht="17" spans="1:3">
       <c r="A30" s="42" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:3">
       <c r="A31" s="42" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="39" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:3">
       <c r="A32" s="42" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:3">
       <c r="A33" s="42" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="39" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:3">
       <c r="A34" s="42" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:3">
       <c r="A35" s="42" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:3">
       <c r="A36" s="42" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:3">
       <c r="A37" s="42" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:3">
       <c r="A38" s="42" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:3">
       <c r="A39" s="42" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:3">
       <c r="A40" s="42" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="39" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:3">
       <c r="A41" s="42" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="39" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:3">
       <c r="A42" s="42" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:3">
       <c r="A43" s="42" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="39" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" ht="17" spans="1:3">
       <c r="A44" s="42" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="39" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:3">
       <c r="A45" s="42" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="39" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" ht="17" spans="1:3">
       <c r="A46" s="42" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" ht="17" spans="1:3">
       <c r="A47" s="42" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="39" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" ht="17" spans="1:3">
       <c r="A48" s="42" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="40" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:3">
       <c r="A49" s="42" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="40" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:3">
       <c r="A50" s="42" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="40" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" ht="17" spans="1:3">
       <c r="A51" s="42" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" ht="17" spans="1:3">
       <c r="A52" s="42" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="39" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" ht="17" spans="1:3">
       <c r="A53" s="42" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="39" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" ht="17" spans="1:3">
       <c r="A54" s="42" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="39" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" ht="17" spans="1:3">
       <c r="A55" s="42" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="39" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" ht="17" spans="1:3">
       <c r="A56" s="42" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="39" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" ht="17" spans="1:3">
       <c r="A57" s="42" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="39" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" ht="17" spans="1:3">
       <c r="A58" s="42" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="39" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" ht="17" spans="1:3">
       <c r="A59" s="42" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="39" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" ht="17" spans="1:3">
       <c r="A60" s="42" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" ht="17" spans="1:3">
       <c r="A61" s="42" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" ht="17" spans="1:3">
       <c r="A62" s="42" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" ht="17" spans="1:3">
       <c r="A63" s="42" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" ht="17" spans="1:3">
       <c r="A64" s="42" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" ht="17" spans="1:3">
       <c r="A65" s="42" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" ht="17" spans="1:3">
       <c r="A66" s="42" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="40" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:3">
       <c r="A67" s="42" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="40" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:3">
       <c r="A68" s="42" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="40" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" ht="17" spans="1:3">
       <c r="A69" s="42" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="39" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" ht="17" spans="1:3">
       <c r="A70" s="42" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="39" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" ht="17" spans="1:3">
       <c r="A71" s="42" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="39" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" ht="17" spans="1:3">
       <c r="A72" s="42" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="39" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" ht="17" spans="1:3">
       <c r="A73" s="42" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="39" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" ht="17" spans="1:3">
       <c r="A74" s="42" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="39" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" ht="17" spans="1:3">
       <c r="A75" s="42" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="39" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:3">
       <c r="A76" s="42" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="39" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:3">
       <c r="A77" s="42" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:3">
       <c r="A78" s="42" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="40" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:3">
       <c r="A79" s="42" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="40" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:3">
       <c r="A80" s="42" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="40" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:3">
       <c r="A81" s="42" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="39" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:3">
       <c r="A82" s="42" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="39" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:3">
       <c r="A83" s="42" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="39" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" ht="17" spans="1:3">
       <c r="A84" s="42" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="39" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:3">
       <c r="A85" s="42" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="39" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" ht="17" spans="1:3">
       <c r="A86" s="42" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="39" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" ht="17" spans="1:3">
       <c r="A87" s="42" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="39" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:3">
       <c r="A88" s="42" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="39" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" ht="17" spans="1:3">
       <c r="A89" s="42" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="39" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" ht="17" spans="1:3">
       <c r="A90" s="42" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="40" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
       <c r="A91" s="42" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="40" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
       <c r="A92" s="42" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="40" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A93" s="42" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="39" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A94" s="42" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="39" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A95" s="42" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="39" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A96" s="42" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="40" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A97" s="42" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="40" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A98" s="42" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="40" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8972,7 +9098,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
@@ -9149,47 +9275,47 @@
     </row>
     <row r="11" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A11" s="36" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A12" s="36" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A13" s="36" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" s="31" customFormat="1" ht="17.55" spans="1:5">
       <c r="A14" s="36" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
     </row>
     <row r="15" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A15" s="36" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="37"/>
@@ -9198,7 +9324,7 @@
     </row>
     <row r="16" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A16" s="36" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="37"/>
@@ -9207,7 +9333,7 @@
     </row>
     <row r="17" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A17" s="36" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="37"/>
@@ -9216,7 +9342,7 @@
     </row>
     <row r="18" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A18" s="36" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="37"/>
@@ -9225,7 +9351,7 @@
     </row>
     <row r="19" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A19" s="36" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="37"/>
@@ -9234,7 +9360,7 @@
     </row>
     <row r="20" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A20" s="36" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="37"/>
@@ -9243,7 +9369,7 @@
     </row>
     <row r="21" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A21" s="36" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="37"/>
@@ -9252,7 +9378,7 @@
     </row>
     <row r="22" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A22" s="36" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="37"/>
@@ -9261,7 +9387,7 @@
     </row>
     <row r="23" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A23" s="36" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="37"/>
@@ -9270,7 +9396,7 @@
     </row>
     <row r="24" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A24" s="36" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="37"/>
@@ -9279,7 +9405,7 @@
     </row>
     <row r="25" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A25" s="36" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="37"/>
@@ -9288,7 +9414,7 @@
     </row>
     <row r="26" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A26" s="36" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="37"/>
@@ -9297,7 +9423,7 @@
     </row>
     <row r="27" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A27" s="36" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="37"/>
@@ -9306,7 +9432,7 @@
     </row>
     <row r="28" s="35" customFormat="1" ht="17.55" spans="1:5">
       <c r="A28" s="36" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="37"/>
@@ -9315,7 +9441,7 @@
     </row>
     <row r="29" s="35" customFormat="1" spans="1:5">
       <c r="A29" s="36" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="37"/>
@@ -9324,623 +9450,623 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="38" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="38" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="39" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="38" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="38" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="39" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="38" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="38" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="38" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="38" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="38" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="38" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="38" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="39" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="38" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="39" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="38" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="38" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="39" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="38" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="39" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="38" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="39" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="38" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="38" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="39" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" ht="17" spans="1:3">
       <c r="A48" s="38" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="40" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:3">
       <c r="A49" s="38" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="40" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:3">
       <c r="A50" s="38" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="40" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="38" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="38" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="39" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="38" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="39" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="38" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="39" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="38" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="39" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="38" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="39" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="38" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="39" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="38" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="39" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="38" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="39" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="38" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="38" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="38" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="38" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="38" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="38" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" ht="17" spans="1:3">
       <c r="A66" s="38" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="40" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:3">
       <c r="A67" s="38" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="40" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:3">
       <c r="A68" s="38" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="40" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="38" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="39" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="38" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="39" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="38" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="39" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="38" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="39" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="38" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="39" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="38" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="39" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="38" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="39" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="38" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="39" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="38" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:3">
       <c r="A78" s="38" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="40" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:3">
       <c r="A79" s="38" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="40" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:3">
       <c r="A80" s="38" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="40" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="38" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="39" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="38" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="39" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="38" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="39" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="38" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="39" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="38" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="39" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="38" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="39" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="38" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="39" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="38" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="39" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="38" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="39" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" ht="17" spans="1:3">
       <c r="A90" s="38" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="40" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:3">
       <c r="A91" s="38" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="40" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:3">
       <c r="A92" s="38" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="40" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" s="5" customFormat="1" spans="1:3">
       <c r="A93" s="38" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="39" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" s="5" customFormat="1" spans="1:3">
       <c r="A94" s="38" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="39" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" s="5" customFormat="1" spans="1:3">
       <c r="A95" s="38" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="39" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A96" s="38" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="40" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A97" s="38" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="40" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" s="5" customFormat="1" ht="17" spans="1:3">
       <c r="A98" s="38" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="40" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -10139,200 +10265,200 @@
     </row>
     <row r="11" s="22" customFormat="1" spans="1:5">
       <c r="A11" s="29" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:5">
       <c r="A12" s="32" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" s="22" customFormat="1" spans="1:5">
       <c r="A13" s="29" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" s="25" customFormat="1" spans="1:5">
       <c r="A14" s="32" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:5">
       <c r="A15" s="32" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
     <row r="16" s="25" customFormat="1" spans="1:5">
       <c r="A16" s="32" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:5">
       <c r="A17" s="32" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" s="25" customFormat="1" spans="1:5">
       <c r="A18" s="32" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
     </row>
     <row r="19" s="25" customFormat="1" spans="1:5">
       <c r="A19" s="32" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:5">
       <c r="A20" s="32" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" s="31" customFormat="1" spans="1:5">
       <c r="A21" s="33" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" s="31" customFormat="1" spans="1:5">
       <c r="A22" s="33" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="31" customFormat="1" spans="1:5">
       <c r="A23" s="33" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="31" customFormat="1" spans="1:5">
       <c r="A24" s="33" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" s="31" customFormat="1" spans="1:5">
       <c r="A25" s="33" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" s="31" customFormat="1" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="31" customFormat="1" spans="1:5">
       <c r="A27" s="33" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" s="31" customFormat="1" spans="1:5">
       <c r="A28" s="33" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="31" customFormat="1" spans="1:5">
       <c r="A29" s="33" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" s="31" customFormat="1" spans="1:5">
       <c r="A30" s="33" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
